--- a/CMPC_Manufacturing/OutputCMPC.xlsx
+++ b/CMPC_Manufacturing/OutputCMPC.xlsx
@@ -693,13 +693,13 @@
         <v>9406.0</v>
       </c>
       <c r="L13" t="n">
-        <v>5346000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008099714986906096</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1245,13 +1245,13 @@
         <v>8704.0</v>
       </c>
       <c r="L25" t="n">
-        <v>5238000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="n">
         <v>59546.61447999999</v>
       </c>
       <c r="N25" t="n">
-        <v>0.011368196731576935</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -14471,97 +14471,97 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AR-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
-        <v>5346000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>7074000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>418.3098591549278</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>418.3098591549278</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.10227442708333333</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008099714986906096</v>
+        <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11037414207023942</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AR-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>5238000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>7074000.0</v>
       </c>
       <c r="I25" t="n">
-        <v>351.30784708249234</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>351.30784708249234</v>
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.103351</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.011368196731576935</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.11471919673157693</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -14606,7 +14606,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -14651,7 +14651,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -14696,7 +14696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -14741,7 +14741,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -14786,7 +14786,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -14831,7 +14831,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -14876,7 +14876,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -14921,7 +14921,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -14966,7 +14966,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -15011,7 +15011,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -15056,7 +15056,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -15101,7 +15101,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -15146,7 +15146,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -15191,7 +15191,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -15236,7 +15236,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -15281,7 +15281,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -15326,7 +15326,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -15371,7 +15371,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -15416,7 +15416,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -15461,11 +15461,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C46" t="n">
         <v>8.0</v>
@@ -15485,7 +15485,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>7074000.0</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -15506,11 +15506,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="n">
         <v>8.0</v>
@@ -15530,7 +15530,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>7074000.0</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -15551,7 +15551,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -15596,7 +15596,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -15641,7 +15641,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -15686,7 +15686,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -15731,7 +15731,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -15776,7 +15776,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -15821,7 +15821,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -15866,7 +15866,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -15911,7 +15911,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -15956,7 +15956,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -16001,7 +16001,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -16046,7 +16046,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -16091,7 +16091,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -16136,7 +16136,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -16181,7 +16181,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -16226,7 +16226,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -16271,7 +16271,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -16316,7 +16316,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -16361,7 +16361,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -16406,7 +16406,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -16451,11 +16451,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C68" t="n">
         <v>8.0</v>
@@ -16475,7 +16475,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.2384E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
@@ -16496,11 +16496,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C69" t="n">
         <v>8.0</v>
@@ -16520,7 +16520,7 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.2384E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
@@ -16541,7 +16541,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -16586,7 +16586,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -16631,7 +16631,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -16676,7 +16676,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -16721,7 +16721,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -16766,7 +16766,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -16811,7 +16811,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -16856,7 +16856,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -16901,7 +16901,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -16946,7 +16946,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -16991,7 +16991,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -17036,7 +17036,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -17081,7 +17081,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -17126,7 +17126,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -17171,7 +17171,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -17216,7 +17216,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -17261,7 +17261,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -17306,7 +17306,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -17351,7 +17351,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -17396,7 +17396,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -17441,11 +17441,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C90" t="n">
         <v>8.0</v>
@@ -17465,7 +17465,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.7676E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -17486,11 +17486,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C91" t="n">
         <v>8.0</v>
@@ -17510,7 +17510,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="n">
-        <v>1.7676E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -17531,7 +17531,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -17576,7 +17576,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -17621,7 +17621,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -17666,7 +17666,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -17711,7 +17711,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -17756,7 +17756,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -17801,7 +17801,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -17846,7 +17846,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -17891,7 +17891,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -17936,7 +17936,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -17981,7 +17981,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -18026,7 +18026,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -18071,7 +18071,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -18116,7 +18116,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -18161,7 +18161,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -18206,7 +18206,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -18251,7 +18251,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -18296,7 +18296,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -18341,7 +18341,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -18386,7 +18386,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -18431,11 +18431,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C112" t="n">
         <v>8.0</v>
@@ -18455,7 +18455,7 @@
         <v>0.0</v>
       </c>
       <c r="H112" t="n">
-        <v>2.2968E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I112" t="n">
         <v>0.0</v>
@@ -18476,11 +18476,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C113" t="n">
         <v>8.0</v>
@@ -18500,7 +18500,7 @@
         <v>0.0</v>
       </c>
       <c r="H113" t="n">
-        <v>2.2968E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I113" t="n">
         <v>0.0</v>
@@ -18521,7 +18521,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -18566,7 +18566,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -18611,7 +18611,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -18656,7 +18656,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -18701,7 +18701,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -18746,7 +18746,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -18791,7 +18791,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -18836,7 +18836,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -18881,7 +18881,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -18926,7 +18926,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -18971,7 +18971,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -19016,7 +19016,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -19061,7 +19061,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -19106,7 +19106,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -19151,7 +19151,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -19196,7 +19196,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -19241,7 +19241,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -19286,7 +19286,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -19331,7 +19331,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -19376,7 +19376,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -19421,11 +19421,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C134" t="n">
         <v>8.0</v>
@@ -19445,7 +19445,7 @@
         <v>0.0</v>
       </c>
       <c r="H134" t="n">
-        <v>2.8278E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I134" t="n">
         <v>0.0</v>
@@ -19466,11 +19466,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C135" t="n">
         <v>8.0</v>
@@ -19490,7 +19490,7 @@
         <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>2.8278E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I135" t="n">
         <v>0.0</v>
@@ -19511,7 +19511,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -19556,7 +19556,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -19601,7 +19601,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -19646,7 +19646,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -19691,7 +19691,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -19736,7 +19736,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -19781,7 +19781,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -19826,7 +19826,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -19871,7 +19871,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -19916,7 +19916,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -19961,7 +19961,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -20006,7 +20006,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -20051,7 +20051,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -20096,7 +20096,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -20141,7 +20141,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -20186,7 +20186,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -20231,7 +20231,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -20276,7 +20276,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -20321,7 +20321,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -20366,7 +20366,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -20411,11 +20411,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C156" t="n">
         <v>8.0</v>
@@ -20435,7 +20435,7 @@
         <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>3.357E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I156" t="n">
         <v>0.0</v>
@@ -20456,11 +20456,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C157" t="n">
         <v>8.0</v>
@@ -20480,7 +20480,7 @@
         <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>3.357E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I157" t="n">
         <v>0.0</v>
@@ -20501,7 +20501,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -20546,7 +20546,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -20591,7 +20591,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -20636,7 +20636,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -20681,7 +20681,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -20726,7 +20726,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -20771,7 +20771,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -20816,7 +20816,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -20861,7 +20861,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -20906,7 +20906,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -20951,7 +20951,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -20996,7 +20996,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -21041,7 +21041,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -21086,7 +21086,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -21131,7 +21131,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -21176,7 +21176,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -21221,7 +21221,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -21266,7 +21266,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -21311,7 +21311,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -21356,7 +21356,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -21401,11 +21401,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C178" t="n">
         <v>8.0</v>
@@ -21425,7 +21425,7 @@
         <v>0.0</v>
       </c>
       <c r="H178" t="n">
-        <v>3.888E7</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I178" t="n">
         <v>0.0</v>
@@ -21446,11 +21446,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C179" t="n">
         <v>8.0</v>
@@ -21470,7 +21470,7 @@
         <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>3.888E7</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I179" t="n">
         <v>0.0</v>
@@ -21491,7 +21491,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -21536,7 +21536,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -21581,7 +21581,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -21626,7 +21626,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -21671,7 +21671,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -21716,7 +21716,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -21761,7 +21761,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -21806,7 +21806,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -21851,7 +21851,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -21896,7 +21896,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -21941,7 +21941,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -21986,7 +21986,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -22031,7 +22031,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -22076,7 +22076,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -22121,7 +22121,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -22166,7 +22166,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -22211,7 +22211,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -22256,7 +22256,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -22301,7 +22301,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -22346,7 +22346,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -22391,11 +22391,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C200" t="n">
         <v>8.0</v>
@@ -22415,7 +22415,7 @@
         <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>4.4172E7</v>
+        <v>4.9482E7</v>
       </c>
       <c r="I200" t="n">
         <v>0.0</v>
@@ -22436,11 +22436,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C201" t="n">
         <v>8.0</v>
@@ -22460,7 +22460,7 @@
         <v>0.0</v>
       </c>
       <c r="H201" t="n">
-        <v>4.4172E7</v>
+        <v>4.9482E7</v>
       </c>
       <c r="I201" t="n">
         <v>0.0</v>
@@ -22481,7 +22481,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -22526,7 +22526,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -22571,7 +22571,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -22616,7 +22616,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -22661,7 +22661,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -22706,7 +22706,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -22751,7 +22751,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -22796,7 +22796,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -22841,7 +22841,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -22886,7 +22886,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -22931,7 +22931,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -22976,7 +22976,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -23021,7 +23021,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -23066,7 +23066,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -23111,7 +23111,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -23156,7 +23156,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -23201,7 +23201,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -23246,7 +23246,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -23291,7 +23291,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -23336,7 +23336,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -23381,11 +23381,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C222" t="n">
         <v>8.0</v>
@@ -23405,7 +23405,7 @@
         <v>0.0</v>
       </c>
       <c r="H222" t="n">
-        <v>4.9482E7</v>
+        <v>5.4774E7</v>
       </c>
       <c r="I222" t="n">
         <v>0.0</v>
@@ -23426,11 +23426,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C223" t="n">
         <v>8.0</v>
@@ -23450,7 +23450,7 @@
         <v>0.0</v>
       </c>
       <c r="H223" t="n">
-        <v>4.9482E7</v>
+        <v>5.4774E7</v>
       </c>
       <c r="I223" t="n">
         <v>0.0</v>
@@ -23471,7 +23471,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -23516,7 +23516,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -23561,7 +23561,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -23606,7 +23606,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -23651,7 +23651,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -23696,7 +23696,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -23741,7 +23741,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -23786,7 +23786,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -23831,7 +23831,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -23876,7 +23876,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -23921,7 +23921,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -23966,7 +23966,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -24011,7 +24011,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -24056,7 +24056,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -24101,7 +24101,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -24146,7 +24146,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -24191,7 +24191,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -24236,7 +24236,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -24281,7 +24281,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -24326,7 +24326,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -24371,11 +24371,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C244" t="n">
         <v>8.0</v>
@@ -24395,7 +24395,7 @@
         <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>5.4774E7</v>
+        <v>6.0084E7</v>
       </c>
       <c r="I244" t="n">
         <v>0.0</v>
@@ -24416,11 +24416,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C245" t="n">
         <v>8.0</v>
@@ -24440,7 +24440,7 @@
         <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>5.4774E7</v>
+        <v>6.0084E7</v>
       </c>
       <c r="I245" t="n">
         <v>0.0</v>
@@ -24461,7 +24461,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -24506,7 +24506,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -24551,7 +24551,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -24596,7 +24596,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -24641,7 +24641,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -24686,7 +24686,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -24731,7 +24731,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -24776,7 +24776,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -24821,7 +24821,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -24866,7 +24866,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -24911,7 +24911,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -24956,7 +24956,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -25001,7 +25001,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -25046,7 +25046,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -25091,7 +25091,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -25136,7 +25136,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -25181,7 +25181,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -25226,7 +25226,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -25271,7 +25271,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -25316,7 +25316,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -25355,1086 +25355,6 @@
         <v>0.0</v>
       </c>
       <c r="M265" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C266" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H266" t="n">
-        <v>6.0084E7</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L266" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M266" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C267" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H267" t="n">
-        <v>6.0084E7</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L267" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M267" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C268" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H268" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L268" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M268" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C269" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H269" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L269" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M269" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C270" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H270" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L270" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M270" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C271" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H271" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M271" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C272" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H272" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L272" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M272" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C273" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H273" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L273" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M273" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C274" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H274" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L274" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M274" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C275" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H275" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L275" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M275" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C276" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H276" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L276" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M276" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C277" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H277" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L277" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M277" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C278" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H278" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L278" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M278" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C279" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H279" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M279" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C280" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H280" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L280" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M280" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C281" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H281" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L281" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M281" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C282" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H282" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L282" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M282" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C283" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H283" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L283" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M283" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C284" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H284" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L284" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M284" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C285" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H285" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L285" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M285" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C286" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H286" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L286" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M286" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C287" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H287" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M287" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C288" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H288" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L288" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M288" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C289" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H289" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M289" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -28512,190 +27432,6 @@
         <v>10800.0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>3110400.0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3877.3202793598866</v>
-      </c>
-      <c r="G90" t="n">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -28907,22 +27643,6 @@
         <v>129716.65854594347</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.05408E7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>136426.5445534472</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CMPC_Manufacturing/OutputCMPC.xlsx
+++ b/CMPC_Manufacturing/OutputCMPC.xlsx
@@ -166,7 +166,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -178,7 +178,7 @@
         <v>10672.48</v>
       </c>
       <c r="I2" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J2" t="n">
         <v>2912.0</v>
@@ -190,10 +190,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M2" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="3">
@@ -212,7 +212,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -224,7 +224,7 @@
         <v>10672.48</v>
       </c>
       <c r="I3" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J3" t="n">
         <v>2912.0</v>
@@ -236,10 +236,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M3" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="4">
@@ -258,7 +258,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -270,7 +270,7 @@
         <v>10672.48</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J4" t="n">
         <v>2912.0</v>
@@ -282,10 +282,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M4" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="5">
@@ -304,7 +304,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
@@ -316,7 +316,7 @@
         <v>10672.48</v>
       </c>
       <c r="I5" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J5" t="n">
         <v>2912.0</v>
@@ -328,10 +328,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M5" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="6">
@@ -350,7 +350,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -362,7 +362,7 @@
         <v>10672.48</v>
       </c>
       <c r="I6" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J6" t="n">
         <v>2912.0</v>
@@ -374,10 +374,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M6" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="7">
@@ -396,7 +396,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -408,7 +408,7 @@
         <v>10672.48</v>
       </c>
       <c r="I7" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J7" t="n">
         <v>2912.0</v>
@@ -420,10 +420,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M7" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +442,7 @@
         <v>2.0</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -454,7 +454,7 @@
         <v>10672.48</v>
       </c>
       <c r="I8" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J8" t="n">
         <v>2912.0</v>
@@ -466,10 +466,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M8" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="9">
@@ -488,7 +488,7 @@
         <v>2.0</v>
       </c>
       <c r="E9" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -500,7 +500,7 @@
         <v>10672.48</v>
       </c>
       <c r="I9" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J9" t="n">
         <v>2912.0</v>
@@ -512,10 +512,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M9" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +534,7 @@
         <v>2.0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="n">
         <v>2.0</v>
@@ -546,7 +546,7 @@
         <v>10672.48</v>
       </c>
       <c r="I10" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J10" t="n">
         <v>2912.0</v>
@@ -558,10 +558,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M10" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="11">
@@ -580,7 +580,7 @@
         <v>2.0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -592,7 +592,7 @@
         <v>10672.48</v>
       </c>
       <c r="I11" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J11" t="n">
         <v>2912.0</v>
@@ -604,10 +604,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M11" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="12">
@@ -626,7 +626,7 @@
         <v>2.0</v>
       </c>
       <c r="E12" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
@@ -638,7 +638,7 @@
         <v>10672.48</v>
       </c>
       <c r="I12" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J12" t="n">
         <v>2912.0</v>
@@ -650,10 +650,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M12" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>2.0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -684,7 +684,7 @@
         <v>10672.48</v>
       </c>
       <c r="I13" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J13" t="n">
         <v>2912.0</v>
@@ -696,10 +696,10 @@
         <v>1.3986E7</v>
       </c>
       <c r="M13" t="n">
-        <v>47516.733101538455</v>
+        <v>47190.818906153836</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +718,7 @@
         <v>2.0</v>
       </c>
       <c r="E14" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F14" t="n">
         <v>3.0</v>
@@ -730,7 +730,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I14" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J14" t="n">
         <v>3000.0</v>
@@ -742,10 +742,10 @@
         <v>1.4148E7</v>
       </c>
       <c r="M14" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0045130245449207275</v>
+        <v>0.004489988483612796</v>
       </c>
     </row>
     <row r="15">
@@ -764,7 +764,7 @@
         <v>2.0</v>
       </c>
       <c r="E15" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -776,7 +776,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I15" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J15" t="n">
         <v>3000.0</v>
@@ -788,10 +788,10 @@
         <v>1.7676E7</v>
       </c>
       <c r="M15" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0036122579351402155</v>
+        <v>0.0035938197027695087</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>2.0</v>
       </c>
       <c r="E16" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
@@ -822,7 +822,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I16" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J16" t="n">
         <v>3000.0</v>
@@ -834,10 +834,10 @@
         <v>1.944E7</v>
       </c>
       <c r="M16" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0032844789743589737</v>
+        <v>0.0032677138408515344</v>
       </c>
     </row>
     <row r="17">
@@ -856,7 +856,7 @@
         <v>2.0</v>
       </c>
       <c r="E17" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -868,7 +868,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I17" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J17" t="n">
         <v>3000.0</v>
@@ -880,10 +880,10 @@
         <v>2.0304E7</v>
       </c>
       <c r="M17" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N17" t="n">
-        <v>0.003144713911620294</v>
+        <v>0.0031286621880493417</v>
       </c>
     </row>
     <row r="18">
@@ -902,7 +902,7 @@
         <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -914,7 +914,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I18" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J18" t="n">
         <v>3000.0</v>
@@ -926,10 +926,10 @@
         <v>2.0772E7</v>
       </c>
       <c r="M18" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0030738624716704433</v>
+        <v>0.0030581723987172073</v>
       </c>
     </row>
     <row r="19">
@@ -948,7 +948,7 @@
         <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F19" t="n">
         <v>3.0</v>
@@ -960,7 +960,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I19" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J19" t="n">
         <v>3000.0</v>
@@ -972,10 +972,10 @@
         <v>2.0988E7</v>
       </c>
       <c r="M19" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N19" t="n">
-        <v>0.003042227523419976</v>
+        <v>0.00302669892634619</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F20" t="n">
         <v>3.0</v>
@@ -1006,7 +1006,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J20" t="n">
         <v>3000.0</v>
@@ -1018,10 +1018,10 @@
         <v>2.1096E7</v>
       </c>
       <c r="M20" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00302665297978472</v>
+        <v>0.0030112038806481716</v>
       </c>
     </row>
     <row r="21">
@@ -1040,7 +1040,7 @@
         <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -1052,7 +1052,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I21" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J21" t="n">
         <v>3000.0</v>
@@ -1064,10 +1064,10 @@
         <v>2.1114E7</v>
       </c>
       <c r="M21" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N21" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
     </row>
     <row r="22">
@@ -1086,7 +1086,7 @@
         <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -1098,7 +1098,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I22" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J22" t="n">
         <v>3000.0</v>
@@ -1110,10 +1110,10 @@
         <v>2.1114E7</v>
       </c>
       <c r="M22" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N22" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
     </row>
     <row r="23">
@@ -1132,7 +1132,7 @@
         <v>2.0</v>
       </c>
       <c r="E23" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -1144,7 +1144,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I23" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J23" t="n">
         <v>3000.0</v>
@@ -1156,10 +1156,10 @@
         <v>2.1114E7</v>
       </c>
       <c r="M23" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N23" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
     </row>
     <row r="24">
@@ -1178,7 +1178,7 @@
         <v>2.0</v>
       </c>
       <c r="E24" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F24" t="n">
         <v>3.0</v>
@@ -1190,7 +1190,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I24" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J24" t="n">
         <v>3000.0</v>
@@ -1202,10 +1202,10 @@
         <v>2.1114E7</v>
       </c>
       <c r="M24" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N24" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
     </row>
     <row r="25">
@@ -1224,7 +1224,7 @@
         <v>2.0</v>
       </c>
       <c r="E25" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="F25" t="n">
         <v>3.0</v>
@@ -1236,7 +1236,7 @@
         <v>16008.719999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>1303.6567815384612</v>
+        <v>977.7425861538459</v>
       </c>
       <c r="J25" t="n">
         <v>3000.0</v>
@@ -1248,10 +1248,10 @@
         <v>2.1114E7</v>
       </c>
       <c r="M25" t="n">
-        <v>63850.27126153845</v>
+        <v>63524.35706615383</v>
       </c>
       <c r="N25" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
     </row>
     <row r="26">
@@ -1270,7 +1270,7 @@
         <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -1282,7 +1282,7 @@
         <v>5336.24</v>
       </c>
       <c r="I26" t="n">
-        <v>602.2074584615383</v>
+        <v>451.6555938461537</v>
       </c>
       <c r="J26" t="n">
         <v>3760.0</v>
@@ -1294,10 +1294,10 @@
         <v>2664000.0</v>
       </c>
       <c r="M26" t="n">
-        <v>29547.601378461535</v>
+        <v>29397.04951384615</v>
       </c>
       <c r="N26" t="n">
-        <v>0.011091441958881957</v>
+        <v>0.011034928496188494</v>
       </c>
     </row>
     <row r="27">
@@ -13508,7 +13508,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>215.5704225352124</v>
+        <v>213.57042253521237</v>
       </c>
       <c r="J2" t="n">
         <v>207.57042253521232</v>
@@ -13517,10 +13517,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M2" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="3">
@@ -13553,7 +13553,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>210.8169014084518</v>
+        <v>208.81690140845177</v>
       </c>
       <c r="J3" t="n">
         <v>202.8169014084517</v>
@@ -13562,10 +13562,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="4">
@@ -13598,7 +13598,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>215.5704225352124</v>
+        <v>213.57042253521237</v>
       </c>
       <c r="J4" t="n">
         <v>207.57042253521232</v>
@@ -13607,10 +13607,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0045130245449207275</v>
+        <v>0.004489988483612796</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1179850245449207</v>
+        <v>0.11796198848361278</v>
       </c>
     </row>
     <row r="5">
@@ -13643,7 +13643,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>215.5704225352124</v>
+        <v>213.57042253521237</v>
       </c>
       <c r="J5" t="n">
         <v>207.57042253521232</v>
@@ -13652,10 +13652,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0045130245449207275</v>
+        <v>0.004489988483612796</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06612632980807862</v>
+        <v>0.06610329374677068</v>
       </c>
     </row>
     <row r="6">
@@ -13688,7 +13688,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>216.45070422535133</v>
+        <v>214.45070422535136</v>
       </c>
       <c r="J6" t="n">
         <v>208.4507042253514</v>
@@ -13697,10 +13697,10 @@
         <v>0.08422561052631579</v>
       </c>
       <c r="L6" t="n">
-        <v>0.011091441958881957</v>
+        <v>0.011034928496188494</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09531705248519774</v>
+        <v>0.09526053902250428</v>
       </c>
     </row>
     <row r="7">
@@ -13733,7 +13733,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>267.3309859154939</v>
+        <v>265.330985915494</v>
       </c>
       <c r="J7" t="n">
         <v>259.33098591549424</v>
@@ -13742,10 +13742,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M7" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="8">
@@ -13778,7 +13778,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>159.05633802816968</v>
+        <v>157.05633802816965</v>
       </c>
       <c r="J8" t="n">
         <v>151.0563380281696</v>
@@ -13787,10 +13787,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="9">
@@ -13823,7 +13823,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>267.3309859154939</v>
+        <v>265.330985915494</v>
       </c>
       <c r="J9" t="n">
         <v>259.33098591549424</v>
@@ -13832,10 +13832,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0036122579351402155</v>
+        <v>0.0035938197027695087</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11708425793514018</v>
+        <v>0.11706581970276948</v>
       </c>
     </row>
     <row r="10">
@@ -13868,7 +13868,7 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>267.3309859154939</v>
+        <v>265.330985915494</v>
       </c>
       <c r="J10" t="n">
         <v>259.33098591549424</v>
@@ -13877,10 +13877,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0036122579351402155</v>
+        <v>0.0035938197027695087</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0652255631982981</v>
+        <v>0.0652071249659274</v>
       </c>
     </row>
     <row r="11">
@@ -13958,7 +13958,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>293.21126760563357</v>
+        <v>291.2112676056337</v>
       </c>
       <c r="J12" t="n">
         <v>285.2112676056339</v>
@@ -13967,10 +13967,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M12" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="13">
@@ -14003,7 +14003,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>133.17605633802862</v>
+        <v>131.1760563380286</v>
       </c>
       <c r="J13" t="n">
         <v>125.17605633802854</v>
@@ -14012,10 +14012,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="14">
@@ -14048,7 +14048,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>293.21126760563357</v>
+        <v>291.2112676056337</v>
       </c>
       <c r="J14" t="n">
         <v>285.2112676056339</v>
@@ -14057,10 +14057,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0032844789743589737</v>
+        <v>0.0032677138408515344</v>
       </c>
       <c r="M14" t="n">
-        <v>0.11675647897435895</v>
+        <v>0.11673971384085151</v>
       </c>
     </row>
     <row r="15">
@@ -14093,7 +14093,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>293.21126760563357</v>
+        <v>291.2112676056337</v>
       </c>
       <c r="J15" t="n">
         <v>285.2112676056339</v>
@@ -14102,10 +14102,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0032844789743589737</v>
+        <v>0.0032677138408515344</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06489778423751685</v>
+        <v>0.06488101910400942</v>
       </c>
     </row>
     <row r="16">
@@ -14183,7 +14183,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>305.88732394366116</v>
+        <v>303.8873239436613</v>
       </c>
       <c r="J17" t="n">
         <v>297.8873239436615</v>
@@ -14192,10 +14192,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M17" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="18">
@@ -14228,7 +14228,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>120.50000000000034</v>
+        <v>118.50000000000033</v>
       </c>
       <c r="J18" t="n">
         <v>112.50000000000027</v>
@@ -14237,10 +14237,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="19">
@@ -14273,7 +14273,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>305.88732394366116</v>
+        <v>303.8873239436613</v>
       </c>
       <c r="J19" t="n">
         <v>297.8873239436615</v>
@@ -14282,10 +14282,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003144713911620294</v>
+        <v>0.0031286621880493417</v>
       </c>
       <c r="M19" t="n">
-        <v>0.11661671391162028</v>
+        <v>0.11660066218804932</v>
       </c>
     </row>
     <row r="20">
@@ -14318,7 +14318,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>305.88732394366116</v>
+        <v>303.8873239436613</v>
       </c>
       <c r="J20" t="n">
         <v>297.8873239436615</v>
@@ -14327,10 +14327,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003144713911620294</v>
+        <v>0.0031286621880493417</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06475801917477818</v>
+        <v>0.06474196745120722</v>
       </c>
     </row>
     <row r="21">
@@ -14408,7 +14408,7 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>312.75352112675944</v>
+        <v>310.75352112675955</v>
       </c>
       <c r="J22" t="n">
         <v>304.7535211267598</v>
@@ -14417,10 +14417,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M22" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="23">
@@ -14453,7 +14453,7 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.63380281690169</v>
+        <v>111.63380281690168</v>
       </c>
       <c r="J23" t="n">
         <v>105.63380281690162</v>
@@ -14462,10 +14462,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="24">
@@ -14498,7 +14498,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>312.75352112675944</v>
+        <v>310.75352112675955</v>
       </c>
       <c r="J24" t="n">
         <v>304.7535211267598</v>
@@ -14507,10 +14507,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0030738624716704433</v>
+        <v>0.0030581723987172073</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11654586247167043</v>
+        <v>0.11653017239871719</v>
       </c>
     </row>
     <row r="25">
@@ -14543,7 +14543,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>312.75352112675944</v>
+        <v>310.75352112675955</v>
       </c>
       <c r="J25" t="n">
         <v>304.7535211267598</v>
@@ -14552,10 +14552,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0030738624716704433</v>
+        <v>0.0030581723987172073</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06468716773482833</v>
+        <v>0.06467147766187509</v>
       </c>
     </row>
     <row r="26">
@@ -14633,7 +14633,7 @@
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>315.92253521126634</v>
+        <v>313.92253521126645</v>
       </c>
       <c r="J27" t="n">
         <v>307.9225352112667</v>
@@ -14642,10 +14642,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M27" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="28">
@@ -14678,7 +14678,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.46478873239462</v>
+        <v>108.46478873239461</v>
       </c>
       <c r="J28" t="n">
         <v>102.46478873239455</v>
@@ -14687,10 +14687,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="29">
@@ -14723,7 +14723,7 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>315.92253521126634</v>
+        <v>313.92253521126645</v>
       </c>
       <c r="J29" t="n">
         <v>307.9225352112667</v>
@@ -14732,10 +14732,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L29" t="n">
-        <v>0.003042227523419976</v>
+        <v>0.00302669892634619</v>
       </c>
       <c r="M29" t="n">
-        <v>0.11651422752341996</v>
+        <v>0.11649869892634616</v>
       </c>
     </row>
     <row r="30">
@@ -14768,7 +14768,7 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>315.92253521126634</v>
+        <v>313.92253521126645</v>
       </c>
       <c r="J30" t="n">
         <v>307.9225352112667</v>
@@ -14777,10 +14777,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L30" t="n">
-        <v>0.003042227523419976</v>
+        <v>0.00302669892634619</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06465553278657786</v>
+        <v>0.06464000418950408</v>
       </c>
     </row>
     <row r="31">
@@ -14858,7 +14858,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>317.5070422535198</v>
+        <v>315.5070422535199</v>
       </c>
       <c r="J32" t="n">
         <v>309.5070422535201</v>
@@ -14867,10 +14867,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M32" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="33">
@@ -14903,7 +14903,7 @@
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>108.88028169014109</v>
+        <v>106.88028169014108</v>
       </c>
       <c r="J33" t="n">
         <v>100.88028169014102</v>
@@ -14912,10 +14912,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="34">
@@ -14948,7 +14948,7 @@
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>317.5070422535198</v>
+        <v>315.5070422535199</v>
       </c>
       <c r="J34" t="n">
         <v>309.5070422535201</v>
@@ -14957,10 +14957,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00302665297978472</v>
+        <v>0.0030112038806481716</v>
       </c>
       <c r="M34" t="n">
-        <v>0.11649865297978469</v>
+        <v>0.11648320388064815</v>
       </c>
     </row>
     <row r="35">
@@ -14993,7 +14993,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>317.5070422535198</v>
+        <v>315.5070422535199</v>
       </c>
       <c r="J35" t="n">
         <v>309.5070422535201</v>
@@ -15002,10 +15002,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00302665297978472</v>
+        <v>0.0030112038806481716</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06463995824294261</v>
+        <v>0.06462450914380606</v>
       </c>
     </row>
     <row r="36">
@@ -15083,7 +15083,7 @@
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>318.03521126760427</v>
+        <v>316.0352112676044</v>
       </c>
       <c r="J37" t="n">
         <v>310.0352112676046</v>
@@ -15092,10 +15092,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M37" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="38">
@@ -15128,7 +15128,7 @@
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>108.35211267605658</v>
+        <v>106.35211267605656</v>
       </c>
       <c r="J38" t="n">
         <v>100.3521126760565</v>
@@ -15137,10 +15137,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="39">
@@ -15173,7 +15173,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>318.03521126760427</v>
+        <v>316.0352112676044</v>
       </c>
       <c r="J39" t="n">
         <v>310.0352112676046</v>
@@ -15182,10 +15182,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L39" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M39" t="n">
-        <v>0.11649607271296476</v>
+        <v>0.11648063678441571</v>
       </c>
     </row>
     <row r="40">
@@ -15218,7 +15218,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>317.5070422535198</v>
+        <v>315.5070422535199</v>
       </c>
       <c r="J40" t="n">
         <v>309.5070422535201</v>
@@ -15227,10 +15227,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L40" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06463737797612266</v>
+        <v>0.06462194204757361</v>
       </c>
     </row>
     <row r="41">
@@ -15308,7 +15308,7 @@
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>318.56338028168875</v>
+        <v>316.56338028168886</v>
       </c>
       <c r="J42" t="n">
         <v>310.5633802816891</v>
@@ -15317,10 +15317,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M42" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="43">
@@ -15353,7 +15353,7 @@
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>107.82394366197207</v>
+        <v>105.82394366197205</v>
       </c>
       <c r="J43" t="n">
         <v>99.823943661972</v>
@@ -15362,10 +15362,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M43" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="44">
@@ -15398,7 +15398,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>318.56338028168875</v>
+        <v>316.56338028168886</v>
       </c>
       <c r="J44" t="n">
         <v>310.5633802816891</v>
@@ -15407,10 +15407,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L44" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M44" t="n">
-        <v>0.11649607271296476</v>
+        <v>0.11648063678441571</v>
       </c>
     </row>
     <row r="45">
@@ -15443,7 +15443,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>316.9788732394353</v>
+        <v>314.9788732394354</v>
       </c>
       <c r="J45" t="n">
         <v>308.97887323943564</v>
@@ -15452,10 +15452,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L45" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06463737797612266</v>
+        <v>0.06462194204757361</v>
       </c>
     </row>
     <row r="46">
@@ -15533,7 +15533,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>319.09154929577323</v>
+        <v>317.09154929577335</v>
       </c>
       <c r="J47" t="n">
         <v>311.0915492957736</v>
@@ -15542,10 +15542,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M47" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="48">
@@ -15578,7 +15578,7 @@
         <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>107.29577464788755</v>
+        <v>105.29577464788754</v>
       </c>
       <c r="J48" t="n">
         <v>99.29577464788748</v>
@@ -15587,10 +15587,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M48" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="49">
@@ -15623,7 +15623,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>319.09154929577323</v>
+        <v>317.09154929577335</v>
       </c>
       <c r="J49" t="n">
         <v>311.0915492957736</v>
@@ -15632,10 +15632,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M49" t="n">
-        <v>0.11649607271296476</v>
+        <v>0.11648063678441571</v>
       </c>
     </row>
     <row r="50">
@@ -15668,7 +15668,7 @@
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>316.4507042253508</v>
+        <v>314.45070422535093</v>
       </c>
       <c r="J50" t="n">
         <v>308.45070422535116</v>
@@ -15677,10 +15677,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L50" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06463737797612266</v>
+        <v>0.06462194204757361</v>
       </c>
     </row>
     <row r="51">
@@ -15758,7 +15758,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>319.09154929577323</v>
+        <v>317.09154929577335</v>
       </c>
       <c r="J52" t="n">
         <v>311.0915492957736</v>
@@ -15767,10 +15767,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M52" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="53">
@@ -15803,7 +15803,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>107.29577464788755</v>
+        <v>105.29577464788754</v>
       </c>
       <c r="J53" t="n">
         <v>99.29577464788748</v>
@@ -15812,10 +15812,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M53" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="54">
@@ -15848,7 +15848,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>319.09154929577323</v>
+        <v>317.09154929577335</v>
       </c>
       <c r="J54" t="n">
         <v>311.0915492957736</v>
@@ -15857,10 +15857,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L54" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M54" t="n">
-        <v>0.11649607271296476</v>
+        <v>0.11648063678441571</v>
       </c>
     </row>
     <row r="55">
@@ -15893,7 +15893,7 @@
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>316.4507042253508</v>
+        <v>314.45070422535093</v>
       </c>
       <c r="J55" t="n">
         <v>308.45070422535116</v>
@@ -15902,10 +15902,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L55" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06463737797612266</v>
+        <v>0.06462194204757361</v>
       </c>
     </row>
     <row r="56">
@@ -15983,7 +15983,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>318.56338028168875</v>
+        <v>316.56338028168886</v>
       </c>
       <c r="J57" t="n">
         <v>310.5633802816891</v>
@@ -15992,10 +15992,10 @@
         <v>0.10227442708333333</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M57" t="n">
-        <v>0.10567187689754313</v>
+        <v>0.10564857400927025</v>
       </c>
     </row>
     <row r="58">
@@ -16028,7 +16028,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>107.82394366197207</v>
+        <v>105.82394366197205</v>
       </c>
       <c r="J58" t="n">
         <v>99.823943661972</v>
@@ -16037,10 +16037,10 @@
         <v>0.0673465148754811</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0033974498142098136</v>
+        <v>0.0033741469259369254</v>
       </c>
       <c r="M58" t="n">
-        <v>0.07074396468969091</v>
+        <v>0.07072066180141802</v>
       </c>
     </row>
     <row r="59">
@@ -16073,7 +16073,7 @@
         <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>318.56338028168875</v>
+        <v>316.56338028168886</v>
       </c>
       <c r="J59" t="n">
         <v>310.5633802816891</v>
@@ -16082,10 +16082,10 @@
         <v>0.11347199999999998</v>
       </c>
       <c r="L59" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M59" t="n">
-        <v>0.11649607271296476</v>
+        <v>0.11648063678441571</v>
       </c>
     </row>
     <row r="60">
@@ -16118,7 +16118,7 @@
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>316.9788732394353</v>
+        <v>314.9788732394354</v>
       </c>
       <c r="J60" t="n">
         <v>308.97887323943564</v>
@@ -16127,10 +16127,10 @@
         <v>0.061613305263157885</v>
       </c>
       <c r="L60" t="n">
-        <v>0.003024072712964784</v>
+        <v>0.0030086367844157354</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06463737797612266</v>
+        <v>0.06462194204757361</v>
       </c>
     </row>
     <row r="61">
@@ -27454,7 +27454,7 @@
         <v>3.46608E7</v>
       </c>
       <c r="F10" t="n">
-        <v>109724.58970312076</v>
+        <v>109724.58970312064</v>
       </c>
       <c r="G10" t="n">
         <v>269280.0</v>
@@ -27799,7 +27799,7 @@
         <v>3.39648E7</v>
       </c>
       <c r="F25" t="n">
-        <v>112091.76911818422</v>
+        <v>112091.76911818427</v>
       </c>
       <c r="G25" t="n">
         <v>533040.0</v>
@@ -27819,10 +27819,10 @@
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.21552E7</v>
+        <v>3.19824E7</v>
       </c>
       <c r="F26" t="n">
-        <v>102681.06566900048</v>
+        <v>102539.86466900057</v>
       </c>
       <c r="G26" t="n">
         <v>3453120.0</v>
@@ -28167,7 +28167,7 @@
         <v>3.543E7</v>
       </c>
       <c r="F41" t="n">
-        <v>114798.21879059813</v>
+        <v>114798.2187905979</v>
       </c>
       <c r="G41" t="n">
         <v>308400.0</v>
@@ -28187,13 +28187,13 @@
         <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.3672E7</v>
+        <v>3.36912E7</v>
       </c>
       <c r="F42" t="n">
-        <v>106679.36416482659</v>
+        <v>107235.6567227214</v>
       </c>
       <c r="G42" t="n">
-        <v>3307680.0</v>
+        <v>3115680.0</v>
       </c>
     </row>
     <row r="43">
@@ -28532,13 +28532,13 @@
         <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3.2136E7</v>
+        <v>3.2328E7</v>
       </c>
       <c r="F57" t="n">
-        <v>101099.41570166862</v>
+        <v>101796.90925956325</v>
       </c>
       <c r="G57" t="n">
-        <v>4745520.0</v>
+        <v>4553520.0</v>
       </c>
     </row>
     <row r="58">
@@ -28555,13 +28555,13 @@
         <v>0.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3.62268E7</v>
+        <v>3.6246E7</v>
       </c>
       <c r="F58" t="n">
-        <v>113044.52113324794</v>
+        <v>113600.81369114251</v>
       </c>
       <c r="G58" t="n">
-        <v>1765200.0</v>
+        <v>1573200.0</v>
       </c>
     </row>
     <row r="59">
@@ -28900,10 +28900,10 @@
         <v>0.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.08496E7</v>
+        <v>3.06768E7</v>
       </c>
       <c r="F73" t="n">
-        <v>102751.27049114229</v>
+        <v>102610.06949114213</v>
       </c>
       <c r="G73" t="n">
         <v>3797040.0</v>
@@ -28923,10 +28923,10 @@
         <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.49008E7</v>
+        <v>3.47088E7</v>
       </c>
       <c r="F74" t="n">
-        <v>117954.92776482689</v>
+        <v>117257.43420693185</v>
       </c>
       <c r="G74" t="n">
         <v>620880.0</v>
@@ -29268,10 +29268,10 @@
         <v>0.0</v>
       </c>
       <c r="E89" t="n">
-        <v>3.32496E7</v>
+        <v>3.30768E7</v>
       </c>
       <c r="F89" t="n">
-        <v>109037.22395430043</v>
+        <v>108896.02295430041</v>
       </c>
       <c r="G89" t="n">
         <v>1903920.0</v>
@@ -29291,13 +29291,13 @@
         <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>3.13488E7</v>
+        <v>3.15408E7</v>
       </c>
       <c r="F90" t="n">
-        <v>102618.58093324742</v>
+        <v>103316.07449114224</v>
       </c>
       <c r="G90" t="n">
-        <v>4088400.0</v>
+        <v>3896400.0</v>
       </c>
     </row>
     <row r="91">
@@ -29650,10 +29650,10 @@
         <v>4.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8812800.0</v>
+        <v>8985600.0</v>
       </c>
       <c r="D11" t="n">
-        <v>113991.018765</v>
+        <v>116226.13678</v>
       </c>
     </row>
     <row r="12">
@@ -29730,10 +29730,10 @@
         <v>5.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.24416E7</v>
+        <v>1.22688E7</v>
       </c>
       <c r="D16" t="n">
-        <v>160928.49708000018</v>
+        <v>158693.37906500016</v>
       </c>
     </row>
     <row r="17">
@@ -29861,7 +29861,7 @@
         <v>1.032192E7</v>
       </c>
       <c r="D24" t="n">
-        <v>91751.01859839997</v>
+        <v>91751.0185984</v>
       </c>
     </row>
     <row r="25">
@@ -30114,10 +30114,10 @@
         <v>9.0</v>
       </c>
       <c r="C40" t="n">
-        <v>9676800.0</v>
+        <v>9849600.0</v>
       </c>
       <c r="D40" t="n">
-        <v>125166.60884</v>
+        <v>127401.726855</v>
       </c>
     </row>
     <row r="41">
@@ -30162,10 +30162,10 @@
         <v>10.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.07136E7</v>
+        <v>1.05408E7</v>
       </c>
       <c r="D43" t="n">
-        <v>138577.31693000003</v>
+        <v>136342.19891500002</v>
       </c>
     </row>
     <row r="44">
@@ -30210,10 +30210,10 @@
         <v>11.0</v>
       </c>
       <c r="C46" t="n">
-        <v>9676800.0</v>
+        <v>9849600.0</v>
       </c>
       <c r="D46" t="n">
-        <v>125166.60884</v>
+        <v>127401.726855</v>
       </c>
     </row>
     <row r="47">
@@ -30277,7 +30277,7 @@
         <v>1.069056E7</v>
       </c>
       <c r="D50" t="n">
-        <v>95027.84069120002</v>
+        <v>95027.84069120004</v>
       </c>
     </row>
     <row r="51">
@@ -30290,10 +30290,10 @@
         <v>12.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.07136E7</v>
+        <v>1.05408E7</v>
       </c>
       <c r="D51" t="n">
-        <v>138577.31693000003</v>
+        <v>136342.19891500002</v>
       </c>
     </row>
     <row r="52">

--- a/CMPC_Manufacturing/OutputCMPC.xlsx
+++ b/CMPC_Manufacturing/OutputCMPC.xlsx
@@ -9536,60 +9536,60 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B206" t="n">
         <v>1.0</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F206" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G206" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H206" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I206" t="n">
-        <v>0.0</v>
+        <v>488.87129307692294</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0</v>
+        <v>1456.0</v>
       </c>
       <c r="K206" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0</v>
+        <v>162000.0</v>
       </c>
       <c r="M206" t="n">
-        <v>37227.36</v>
+        <v>45245.94761307692</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0</v>
+        <v>0.2792959729202279</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B207" t="n">
         <v>2.0</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -9599,13 +9599,13 @@
         <v>0.0</v>
       </c>
       <c r="F207" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G207" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H207" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I207" t="n">
         <v>0.0</v>
@@ -9614,28 +9614,28 @@
         <v>0.0</v>
       </c>
       <c r="K207" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0</v>
+        <v>3690000.0</v>
       </c>
       <c r="M207" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0</v>
+        <v>0.011734709029810296</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B208" t="n">
         <v>3.0</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -9645,13 +9645,13 @@
         <v>0.0</v>
       </c>
       <c r="F208" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G208" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H208" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I208" t="n">
         <v>0.0</v>
@@ -9660,28 +9660,28 @@
         <v>0.0</v>
       </c>
       <c r="K208" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0</v>
+        <v>5454000.0</v>
       </c>
       <c r="M208" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0</v>
+        <v>0.007939324591125778</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B209" t="n">
         <v>4.0</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -9691,13 +9691,13 @@
         <v>0.0</v>
       </c>
       <c r="F209" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G209" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H209" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I209" t="n">
         <v>0.0</v>
@@ -9706,28 +9706,28 @@
         <v>0.0</v>
       </c>
       <c r="K209" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0</v>
+        <v>6318000.0</v>
       </c>
       <c r="M209" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0</v>
+        <v>0.006853604988920544</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B210" t="n">
         <v>5.0</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -9737,13 +9737,13 @@
         <v>0.0</v>
       </c>
       <c r="F210" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G210" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H210" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I210" t="n">
         <v>0.0</v>
@@ -9752,28 +9752,28 @@
         <v>0.0</v>
       </c>
       <c r="K210" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0</v>
+        <v>6786000.0</v>
       </c>
       <c r="M210" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0</v>
+        <v>0.006380942575891541</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B211" t="n">
         <v>6.0</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -9783,13 +9783,13 @@
         <v>0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G211" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H211" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I211" t="n">
         <v>0.0</v>
@@ -9798,28 +9798,28 @@
         <v>0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0</v>
+        <v>7002000.0</v>
       </c>
       <c r="M211" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0</v>
+        <v>0.0061841011596686654</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B212" t="n">
         <v>7.0</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -9829,13 +9829,13 @@
         <v>0.0</v>
       </c>
       <c r="F212" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G212" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H212" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I212" t="n">
         <v>0.0</v>
@@ -9844,28 +9844,28 @@
         <v>0.0</v>
       </c>
       <c r="K212" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0</v>
+        <v>7110000.0</v>
       </c>
       <c r="M212" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0</v>
+        <v>0.006090165445850913</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B213" t="n">
         <v>8.0</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -9875,13 +9875,13 @@
         <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G213" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H213" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I213" t="n">
         <v>0.0</v>
@@ -9890,28 +9890,28 @@
         <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0</v>
+        <v>7146000.0</v>
       </c>
       <c r="M213" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N213" t="n">
-        <v>0.0</v>
+        <v>0.006059484511614889</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B214" t="n">
         <v>9.0</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -9921,13 +9921,13 @@
         <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G214" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H214" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I214" t="n">
         <v>0.0</v>
@@ -9936,28 +9936,28 @@
         <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0</v>
+        <v>7182000.0</v>
       </c>
       <c r="M214" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0</v>
+        <v>0.006029111155666944</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B215" t="n">
         <v>10.0</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -9967,13 +9967,13 @@
         <v>0.0</v>
       </c>
       <c r="F215" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G215" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H215" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I215" t="n">
         <v>0.0</v>
@@ -9982,28 +9982,28 @@
         <v>0.0</v>
       </c>
       <c r="K215" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0</v>
+        <v>7218000.0</v>
       </c>
       <c r="M215" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0</v>
+        <v>0.005999040775838182</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B216" t="n">
         <v>11.0</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -10013,13 +10013,13 @@
         <v>0.0</v>
       </c>
       <c r="F216" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G216" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H216" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I216" t="n">
         <v>0.0</v>
@@ -10028,28 +10028,28 @@
         <v>0.0</v>
       </c>
       <c r="K216" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0</v>
+        <v>7218000.0</v>
       </c>
       <c r="M216" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0</v>
+        <v>0.005999040775838182</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B217" t="n">
         <v>12.0</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MX-1</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -10059,13 +10059,13 @@
         <v>0.0</v>
       </c>
       <c r="F217" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G217" t="n">
-        <v>20554.559999999998</v>
+        <v>23222.596319999993</v>
       </c>
       <c r="H217" t="n">
-        <v>10186.8</v>
+        <v>10672.48</v>
       </c>
       <c r="I217" t="n">
         <v>0.0</v>
@@ -10074,16 +10074,16 @@
         <v>0.0</v>
       </c>
       <c r="K217" t="n">
-        <v>6486.0</v>
+        <v>9406.0</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0</v>
+        <v>7182000.0</v>
       </c>
       <c r="M217" t="n">
-        <v>37227.36</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0</v>
+        <v>0.006029111155666944</v>
       </c>
     </row>
     <row r="218">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MX-2</t>
+          <t>MX-1</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -11015,7 +11015,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MX-3</t>
+          <t>MX-2</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -11337,7 +11337,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -11659,7 +11659,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>MX-4</t>
+          <t>MX-3</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -11767,7 +11767,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H254" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I254" t="n">
         <v>0.0</v>
@@ -11782,7 +11782,7 @@
         <v>0.0</v>
       </c>
       <c r="M254" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N254" t="n">
         <v>0.0</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -11813,7 +11813,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H255" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I255" t="n">
         <v>0.0</v>
@@ -11828,7 +11828,7 @@
         <v>0.0</v>
       </c>
       <c r="M255" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N255" t="n">
         <v>0.0</v>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -11859,7 +11859,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H256" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I256" t="n">
         <v>0.0</v>
@@ -11874,7 +11874,7 @@
         <v>0.0</v>
       </c>
       <c r="M256" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N256" t="n">
         <v>0.0</v>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -11905,7 +11905,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H257" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I257" t="n">
         <v>0.0</v>
@@ -11920,7 +11920,7 @@
         <v>0.0</v>
       </c>
       <c r="M257" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N257" t="n">
         <v>0.0</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -11951,7 +11951,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H258" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I258" t="n">
         <v>0.0</v>
@@ -11966,7 +11966,7 @@
         <v>0.0</v>
       </c>
       <c r="M258" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N258" t="n">
         <v>0.0</v>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -11997,7 +11997,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H259" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I259" t="n">
         <v>0.0</v>
@@ -12012,7 +12012,7 @@
         <v>0.0</v>
       </c>
       <c r="M259" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N259" t="n">
         <v>0.0</v>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -12043,7 +12043,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H260" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I260" t="n">
         <v>0.0</v>
@@ -12058,7 +12058,7 @@
         <v>0.0</v>
       </c>
       <c r="M260" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N260" t="n">
         <v>0.0</v>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -12089,7 +12089,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H261" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I261" t="n">
         <v>0.0</v>
@@ -12104,7 +12104,7 @@
         <v>0.0</v>
       </c>
       <c r="M261" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N261" t="n">
         <v>0.0</v>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -12135,7 +12135,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H262" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I262" t="n">
         <v>0.0</v>
@@ -12150,7 +12150,7 @@
         <v>0.0</v>
       </c>
       <c r="M262" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N262" t="n">
         <v>0.0</v>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -12181,7 +12181,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H263" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I263" t="n">
         <v>0.0</v>
@@ -12196,7 +12196,7 @@
         <v>0.0</v>
       </c>
       <c r="M263" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N263" t="n">
         <v>0.0</v>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -12227,7 +12227,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H264" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I264" t="n">
         <v>0.0</v>
@@ -12242,7 +12242,7 @@
         <v>0.0</v>
       </c>
       <c r="M264" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N264" t="n">
         <v>0.0</v>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MX-5</t>
+          <t>MX-4</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -12273,7 +12273,7 @@
         <v>20554.559999999998</v>
       </c>
       <c r="H265" t="n">
-        <v>15280.199999999999</v>
+        <v>10186.8</v>
       </c>
       <c r="I265" t="n">
         <v>0.0</v>
@@ -12288,7 +12288,7 @@
         <v>0.0</v>
       </c>
       <c r="M265" t="n">
-        <v>42320.759999999995</v>
+        <v>37227.36</v>
       </c>
       <c r="N265" t="n">
         <v>0.0</v>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -12487,7 +12487,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -12763,7 +12763,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MX-6</t>
+          <t>MX-5</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -12848,14 +12848,14 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B278" t="n">
         <v>1.0</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -12868,10 +12868,10 @@
         <v>3.0</v>
       </c>
       <c r="G278" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H278" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I278" t="n">
         <v>0.0</v>
@@ -12880,13 +12880,13 @@
         <v>0.0</v>
       </c>
       <c r="K278" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L278" t="n">
         <v>0.0</v>
       </c>
       <c r="M278" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N278" t="n">
         <v>0.0</v>
@@ -12894,14 +12894,14 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B279" t="n">
         <v>2.0</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -12914,10 +12914,10 @@
         <v>3.0</v>
       </c>
       <c r="G279" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H279" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I279" t="n">
         <v>0.0</v>
@@ -12926,13 +12926,13 @@
         <v>0.0</v>
       </c>
       <c r="K279" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L279" t="n">
         <v>0.0</v>
       </c>
       <c r="M279" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N279" t="n">
         <v>0.0</v>
@@ -12940,14 +12940,14 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B280" t="n">
         <v>3.0</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -12960,10 +12960,10 @@
         <v>3.0</v>
       </c>
       <c r="G280" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H280" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I280" t="n">
         <v>0.0</v>
@@ -12972,13 +12972,13 @@
         <v>0.0</v>
       </c>
       <c r="K280" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L280" t="n">
         <v>0.0</v>
       </c>
       <c r="M280" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N280" t="n">
         <v>0.0</v>
@@ -12986,14 +12986,14 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B281" t="n">
         <v>4.0</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -13006,10 +13006,10 @@
         <v>3.0</v>
       </c>
       <c r="G281" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H281" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I281" t="n">
         <v>0.0</v>
@@ -13018,13 +13018,13 @@
         <v>0.0</v>
       </c>
       <c r="K281" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L281" t="n">
         <v>0.0</v>
       </c>
       <c r="M281" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N281" t="n">
         <v>0.0</v>
@@ -13032,14 +13032,14 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B282" t="n">
         <v>5.0</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -13052,10 +13052,10 @@
         <v>3.0</v>
       </c>
       <c r="G282" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H282" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I282" t="n">
         <v>0.0</v>
@@ -13064,13 +13064,13 @@
         <v>0.0</v>
       </c>
       <c r="K282" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L282" t="n">
         <v>0.0</v>
       </c>
       <c r="M282" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N282" t="n">
         <v>0.0</v>
@@ -13078,14 +13078,14 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B283" t="n">
         <v>6.0</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -13098,10 +13098,10 @@
         <v>3.0</v>
       </c>
       <c r="G283" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H283" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I283" t="n">
         <v>0.0</v>
@@ -13110,13 +13110,13 @@
         <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L283" t="n">
         <v>0.0</v>
       </c>
       <c r="M283" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N283" t="n">
         <v>0.0</v>
@@ -13124,14 +13124,14 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B284" t="n">
         <v>7.0</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -13144,10 +13144,10 @@
         <v>3.0</v>
       </c>
       <c r="G284" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H284" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I284" t="n">
         <v>0.0</v>
@@ -13156,13 +13156,13 @@
         <v>0.0</v>
       </c>
       <c r="K284" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L284" t="n">
         <v>0.0</v>
       </c>
       <c r="M284" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N284" t="n">
         <v>0.0</v>
@@ -13170,14 +13170,14 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B285" t="n">
         <v>8.0</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -13190,10 +13190,10 @@
         <v>3.0</v>
       </c>
       <c r="G285" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H285" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I285" t="n">
         <v>0.0</v>
@@ -13202,13 +13202,13 @@
         <v>0.0</v>
       </c>
       <c r="K285" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L285" t="n">
         <v>0.0</v>
       </c>
       <c r="M285" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N285" t="n">
         <v>0.0</v>
@@ -13216,14 +13216,14 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B286" t="n">
         <v>9.0</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -13236,10 +13236,10 @@
         <v>3.0</v>
       </c>
       <c r="G286" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H286" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I286" t="n">
         <v>0.0</v>
@@ -13248,13 +13248,13 @@
         <v>0.0</v>
       </c>
       <c r="K286" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L286" t="n">
         <v>0.0</v>
       </c>
       <c r="M286" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N286" t="n">
         <v>0.0</v>
@@ -13262,14 +13262,14 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B287" t="n">
         <v>10.0</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -13282,10 +13282,10 @@
         <v>3.0</v>
       </c>
       <c r="G287" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H287" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I287" t="n">
         <v>0.0</v>
@@ -13294,13 +13294,13 @@
         <v>0.0</v>
       </c>
       <c r="K287" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L287" t="n">
         <v>0.0</v>
       </c>
       <c r="M287" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N287" t="n">
         <v>0.0</v>
@@ -13308,14 +13308,14 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B288" t="n">
         <v>11.0</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>UR-1</t>
+          <t>MX-6</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -13328,10 +13328,10 @@
         <v>3.0</v>
       </c>
       <c r="G288" t="n">
-        <v>17500.0</v>
+        <v>20554.559999999998</v>
       </c>
       <c r="H288" t="n">
-        <v>14976.0</v>
+        <v>15280.199999999999</v>
       </c>
       <c r="I288" t="n">
         <v>0.0</v>
@@ -13340,13 +13340,13 @@
         <v>0.0</v>
       </c>
       <c r="K288" t="n">
-        <v>7000.0</v>
+        <v>6486.0</v>
       </c>
       <c r="L288" t="n">
         <v>0.0</v>
       </c>
       <c r="M288" t="n">
-        <v>39476.0</v>
+        <v>42320.759999999995</v>
       </c>
       <c r="N288" t="n">
         <v>0.0</v>
@@ -13354,47 +13354,599 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B289" t="n">
         <v>12.0</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
+          <t>MX-6</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>20554.559999999998</v>
+      </c>
+      <c r="H289" t="n">
+        <v>15280.199999999999</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>6486.0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>42320.759999999995</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
           <t>UR-1</t>
         </is>
       </c>
-      <c r="D289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F289" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G289" t="n">
+      <c r="D290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G290" t="n">
         <v>17500.0</v>
       </c>
-      <c r="H289" t="n">
+      <c r="H290" t="n">
         <v>14976.0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K289" t="n">
+      <c r="I290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K290" t="n">
         <v>7000.0</v>
       </c>
-      <c r="L289" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M289" t="n">
+      <c r="L290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M290" t="n">
         <v>39476.0</v>
       </c>
-      <c r="N289" t="n">
+      <c r="N290" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G292" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H292" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B293" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H293" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G294" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H294" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B296" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H296" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B297" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B298" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B299" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B300" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B301" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>UR-1</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>14976.0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>39476.0</v>
+      </c>
+      <c r="N301" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -13496,10 +14048,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G2" t="n">
         <v>7074000.0</v>
@@ -13541,10 +14093,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G3" t="n">
         <v>6912000.0</v>
@@ -13586,10 +14138,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G4" t="n">
         <v>7074000.0</v>
@@ -13631,10 +14183,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G5" t="n">
         <v>7074000.0</v>
@@ -13676,10 +14228,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G6" t="n">
         <v>2664000.0</v>
@@ -13721,10 +14273,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G7" t="n">
         <v>8838000.0</v>
@@ -13766,10 +14318,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G8" t="n">
         <v>5148000.0</v>
@@ -13811,10 +14363,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G9" t="n">
         <v>8838000.0</v>
@@ -13856,10 +14408,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G10" t="n">
         <v>8838000.0</v>
@@ -13901,10 +14453,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G11" t="n">
         <v>2664000.0</v>
@@ -13946,10 +14498,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G12" t="n">
         <v>9720000.0</v>
@@ -13991,10 +14543,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G13" t="n">
         <v>4266000.0</v>
@@ -14036,10 +14588,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G14" t="n">
         <v>9720000.0</v>
@@ -14081,10 +14633,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F15" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G15" t="n">
         <v>9720000.0</v>
@@ -14126,10 +14678,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G16" t="n">
         <v>2664000.0</v>
@@ -14171,10 +14723,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0152E7</v>
@@ -14216,10 +14768,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F18" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G18" t="n">
         <v>3834000.0</v>
@@ -14261,10 +14813,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0152E7</v>
@@ -14306,10 +14858,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G20" t="n">
         <v>1.0152E7</v>
@@ -14351,10 +14903,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F21" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G21" t="n">
         <v>2664000.0</v>
@@ -14396,10 +14948,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0386E7</v>
@@ -14441,10 +14993,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G23" t="n">
         <v>3600000.0</v>
@@ -14486,10 +15038,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0386E7</v>
@@ -14531,10 +15083,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0386E7</v>
@@ -14576,10 +15128,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G26" t="n">
         <v>2664000.0</v>
@@ -14621,10 +15173,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F27" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G27" t="n">
         <v>1.0494E7</v>
@@ -14666,10 +15218,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G28" t="n">
         <v>3492000.0</v>
@@ -14711,10 +15263,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G29" t="n">
         <v>1.0494E7</v>
@@ -14756,10 +15308,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G30" t="n">
         <v>1.0494E7</v>
@@ -14801,10 +15353,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G31" t="n">
         <v>2664000.0</v>
@@ -14846,10 +15398,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G32" t="n">
         <v>1.0548E7</v>
@@ -14891,10 +15443,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F33" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G33" t="n">
         <v>3438000.0</v>
@@ -14936,10 +15488,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G34" t="n">
         <v>1.0548E7</v>
@@ -14981,10 +15533,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G35" t="n">
         <v>1.0548E7</v>
@@ -15026,10 +15578,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G36" t="n">
         <v>2664000.0</v>
@@ -15071,10 +15623,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G37" t="n">
         <v>1.0566E7</v>
@@ -15116,10 +15668,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G38" t="n">
         <v>3420000.0</v>
@@ -15161,10 +15713,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F39" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G39" t="n">
         <v>1.0566E7</v>
@@ -15206,10 +15758,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0548E7</v>
@@ -15251,10 +15803,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G41" t="n">
         <v>2664000.0</v>
@@ -15296,10 +15848,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F42" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G42" t="n">
         <v>1.0584E7</v>
@@ -15341,10 +15893,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G43" t="n">
         <v>3402000.0</v>
@@ -15386,10 +15938,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G44" t="n">
         <v>1.0584E7</v>
@@ -15431,10 +15983,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G45" t="n">
         <v>1.053E7</v>
@@ -15476,10 +16028,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G46" t="n">
         <v>2664000.0</v>
@@ -15521,10 +16073,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F47" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G47" t="n">
         <v>1.0602E7</v>
@@ -15566,10 +16118,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F48" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G48" t="n">
         <v>3384000.0</v>
@@ -15611,10 +16163,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F49" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G49" t="n">
         <v>1.0602E7</v>
@@ -15656,10 +16208,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F50" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G50" t="n">
         <v>1.0512E7</v>
@@ -15701,10 +16253,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F51" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G51" t="n">
         <v>2664000.0</v>
@@ -15746,10 +16298,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F52" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G52" t="n">
         <v>1.0602E7</v>
@@ -15791,10 +16343,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F53" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G53" t="n">
         <v>3384000.0</v>
@@ -15836,10 +16388,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F54" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G54" t="n">
         <v>1.0602E7</v>
@@ -15881,10 +16433,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F55" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G55" t="n">
         <v>1.0512E7</v>
@@ -15926,10 +16478,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F56" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G56" t="n">
         <v>2664000.0</v>
@@ -15971,10 +16523,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F57" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G57" t="n">
         <v>1.0584E7</v>
@@ -16016,10 +16568,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F58" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G58" t="n">
         <v>3402000.0</v>
@@ -16061,10 +16613,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F59" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G59" t="n">
         <v>1.0584E7</v>
@@ -16106,10 +16658,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F60" t="n">
-        <v>9.0</v>
+        <v>800.0</v>
       </c>
       <c r="G60" t="n">
         <v>1.053E7</v>
@@ -16151,10 +16703,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F61" t="n">
-        <v>8.0</v>
+        <v>300.0</v>
       </c>
       <c r="G61" t="n">
         <v>2664000.0</v>
@@ -16181,547 +16733,547 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1.0</v>
       </c>
       <c r="C62" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0</v>
+        <v>162000.0</v>
       </c>
       <c r="H62" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0</v>
+        <v>10.753521126760567</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0</v>
+        <v>4.753521126760564</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0</v>
+        <v>0.2792959729202279</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0</v>
+        <v>0.346642487795709</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C63" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0</v>
+        <v>3690000.0</v>
       </c>
       <c r="H63" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0</v>
+        <v>108.27464788732418</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0</v>
+        <v>108.27464788732418</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0</v>
+        <v>0.011734709029810296</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0</v>
+        <v>0.0790812239052914</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C64" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>5454000.0</v>
       </c>
       <c r="H64" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0</v>
+        <v>160.0352112676063</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0</v>
+        <v>160.0352112676063</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0</v>
+        <v>0.007939324591125778</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0</v>
+        <v>0.07528583946660689</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C65" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0</v>
+        <v>6318000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0</v>
+        <v>185.38732394366284</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0</v>
+        <v>185.38732394366284</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0</v>
+        <v>0.006853604988920544</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0</v>
+        <v>0.07420011986440164</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C66" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0</v>
+        <v>6786000.0</v>
       </c>
       <c r="H66" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0</v>
+        <v>199.11971830986013</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0</v>
+        <v>199.11971830986013</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0</v>
+        <v>0.006380942575891541</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0</v>
+        <v>0.07372745745137264</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C67" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0</v>
+        <v>7002000.0</v>
       </c>
       <c r="H67" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0</v>
+        <v>205.45774647887427</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0</v>
+        <v>205.45774647887427</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0</v>
+        <v>0.0061841011596686654</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0</v>
+        <v>0.07353061603514977</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C68" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0</v>
+        <v>7110000.0</v>
       </c>
       <c r="H68" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0</v>
+        <v>208.62676056338134</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0</v>
+        <v>208.62676056338134</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0</v>
+        <v>0.006090165445850913</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0</v>
+        <v>0.07343668032133202</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C69" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0</v>
+        <v>7146000.0</v>
       </c>
       <c r="H69" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0</v>
+        <v>209.68309859155036</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0</v>
+        <v>209.68309859155036</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0</v>
+        <v>0.006059484511614889</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0</v>
+        <v>0.073405999387096</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C70" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0</v>
+        <v>7182000.0</v>
       </c>
       <c r="H70" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0</v>
+        <v>210.73943661971938</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0</v>
+        <v>210.73943661971938</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0</v>
+        <v>0.006029111155666944</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0</v>
+        <v>0.07337562603114804</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C71" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0</v>
+        <v>7218000.0</v>
       </c>
       <c r="H71" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0</v>
+        <v>211.7957746478884</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0</v>
+        <v>211.7957746478884</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0</v>
+        <v>0.005999040775838182</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0</v>
+        <v>0.07334555565131928</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C72" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0</v>
+        <v>7218000.0</v>
       </c>
       <c r="H72" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0</v>
+        <v>211.7957746478884</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0</v>
+        <v>211.7957746478884</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0</v>
+        <v>0.005999040775838182</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0</v>
+        <v>0.07334555565131928</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C73" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AR-1</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0</v>
+        <v>7182000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>7074000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0</v>
+        <v>210.73943661971938</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0</v>
+        <v>210.73943661971938</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0</v>
+        <v>0.0673465148754811</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0</v>
+        <v>0.006029111155666944</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0</v>
+        <v>0.07337562603114804</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -16766,7 +17318,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -16811,7 +17363,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -16856,7 +17408,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -16880,7 +17432,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="n">
-        <v>162000.0</v>
+        <v>7074000.0</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
@@ -16901,7 +17453,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -16946,7 +17498,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -16970,7 +17522,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>4410000.0</v>
+        <v>7074000.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -16991,7 +17543,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -17036,7 +17588,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -17081,11 +17633,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C82" t="n">
         <v>8.0</v>
@@ -17105,7 +17657,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -17126,11 +17678,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C83" t="n">
         <v>8.0</v>
@@ -17150,7 +17702,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -17171,11 +17723,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C84" t="n">
         <v>8.0</v>
@@ -17195,7 +17747,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -17216,11 +17768,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C85" t="n">
         <v>8.0</v>
@@ -17240,7 +17792,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -17261,11 +17813,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C86" t="n">
         <v>8.0</v>
@@ -17285,7 +17837,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -17306,11 +17858,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C87" t="n">
         <v>8.0</v>
@@ -17330,7 +17882,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
@@ -17351,11 +17903,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C88" t="n">
         <v>8.0</v>
@@ -17375,7 +17927,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
@@ -17396,11 +17948,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C89" t="n">
         <v>8.0</v>
@@ -17420,7 +17972,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
@@ -17441,11 +17993,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C90" t="n">
         <v>8.0</v>
@@ -17465,7 +18017,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.2384E7</v>
+        <v>4410000.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -17486,11 +18038,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C91" t="n">
         <v>8.0</v>
@@ -17510,7 +18062,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -17531,11 +18083,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C92" t="n">
         <v>8.0</v>
@@ -17555,7 +18107,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.2384E7</v>
+        <v>7074000.0</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
@@ -17576,7 +18128,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -17621,7 +18173,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -17666,7 +18218,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -17711,7 +18263,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -17756,7 +18308,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -17780,7 +18332,7 @@
         <v>0.0</v>
       </c>
       <c r="H97" t="n">
-        <v>3780000.0</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I97" t="n">
         <v>0.0</v>
@@ -17801,7 +18353,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -17846,7 +18398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -17870,7 +18422,7 @@
         <v>0.0</v>
       </c>
       <c r="H99" t="n">
-        <v>8388000.0</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I99" t="n">
         <v>0.0</v>
@@ -17891,7 +18443,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -17936,7 +18488,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -17981,11 +18533,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C102" t="n">
         <v>8.0</v>
@@ -18005,7 +18557,7 @@
         <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I102" t="n">
         <v>0.0</v>
@@ -18026,11 +18578,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C103" t="n">
         <v>8.0</v>
@@ -18050,7 +18602,7 @@
         <v>0.0</v>
       </c>
       <c r="H103" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I103" t="n">
         <v>0.0</v>
@@ -18071,11 +18623,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C104" t="n">
         <v>8.0</v>
@@ -18095,7 +18647,7 @@
         <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I104" t="n">
         <v>0.0</v>
@@ -18116,11 +18668,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C105" t="n">
         <v>8.0</v>
@@ -18140,7 +18692,7 @@
         <v>0.0</v>
       </c>
       <c r="H105" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I105" t="n">
         <v>0.0</v>
@@ -18161,11 +18713,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C106" t="n">
         <v>8.0</v>
@@ -18185,7 +18737,7 @@
         <v>0.0</v>
       </c>
       <c r="H106" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I106" t="n">
         <v>0.0</v>
@@ -18206,11 +18758,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C107" t="n">
         <v>8.0</v>
@@ -18230,7 +18782,7 @@
         <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I107" t="n">
         <v>0.0</v>
@@ -18251,11 +18803,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C108" t="n">
         <v>8.0</v>
@@ -18275,7 +18827,7 @@
         <v>0.0</v>
       </c>
       <c r="H108" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I108" t="n">
         <v>0.0</v>
@@ -18296,11 +18848,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C109" t="n">
         <v>8.0</v>
@@ -18320,7 +18872,7 @@
         <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>1.7676E7</v>
+        <v>8388000.0</v>
       </c>
       <c r="I109" t="n">
         <v>0.0</v>
@@ -18341,11 +18893,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C110" t="n">
         <v>8.0</v>
@@ -18365,7 +18917,7 @@
         <v>0.0</v>
       </c>
       <c r="H110" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I110" t="n">
         <v>0.0</v>
@@ -18386,11 +18938,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C111" t="n">
         <v>8.0</v>
@@ -18410,7 +18962,7 @@
         <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>1.7676E7</v>
+        <v>1.2384E7</v>
       </c>
       <c r="I111" t="n">
         <v>0.0</v>
@@ -18431,7 +18983,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -18476,7 +19028,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -18521,7 +19073,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -18566,7 +19118,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -18611,7 +19163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -18656,7 +19208,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -18680,7 +19232,7 @@
         <v>0.0</v>
       </c>
       <c r="H117" t="n">
-        <v>7380000.0</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
@@ -18701,7 +19253,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -18746,7 +19298,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -18770,7 +19322,7 @@
         <v>0.0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.2348E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I119" t="n">
         <v>0.0</v>
@@ -18791,7 +19343,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -18836,7 +19388,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -18881,11 +19433,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C122" t="n">
         <v>8.0</v>
@@ -18905,7 +19457,7 @@
         <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I122" t="n">
         <v>0.0</v>
@@ -18926,11 +19478,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C123" t="n">
         <v>8.0</v>
@@ -18950,7 +19502,7 @@
         <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I123" t="n">
         <v>0.0</v>
@@ -18971,11 +19523,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C124" t="n">
         <v>8.0</v>
@@ -18995,7 +19547,7 @@
         <v>0.0</v>
       </c>
       <c r="H124" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I124" t="n">
         <v>0.0</v>
@@ -19016,11 +19568,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C125" t="n">
         <v>8.0</v>
@@ -19040,7 +19592,7 @@
         <v>0.0</v>
       </c>
       <c r="H125" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I125" t="n">
         <v>0.0</v>
@@ -19061,11 +19613,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C126" t="n">
         <v>8.0</v>
@@ -19085,7 +19637,7 @@
         <v>0.0</v>
       </c>
       <c r="H126" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I126" t="n">
         <v>0.0</v>
@@ -19106,11 +19658,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C127" t="n">
         <v>8.0</v>
@@ -19130,7 +19682,7 @@
         <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I127" t="n">
         <v>0.0</v>
@@ -19151,11 +19703,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C128" t="n">
         <v>8.0</v>
@@ -19175,7 +19727,7 @@
         <v>0.0</v>
       </c>
       <c r="H128" t="n">
-        <v>2.2968E7</v>
+        <v>1.2348E7</v>
       </c>
       <c r="I128" t="n">
         <v>0.0</v>
@@ -19196,11 +19748,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C129" t="n">
         <v>8.0</v>
@@ -19220,7 +19772,7 @@
         <v>0.0</v>
       </c>
       <c r="H129" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I129" t="n">
         <v>0.0</v>
@@ -19241,11 +19793,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C130" t="n">
         <v>8.0</v>
@@ -19265,7 +19817,7 @@
         <v>0.0</v>
       </c>
       <c r="H130" t="n">
-        <v>2.2968E7</v>
+        <v>1.7676E7</v>
       </c>
       <c r="I130" t="n">
         <v>0.0</v>
@@ -19286,7 +19838,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -19331,7 +19883,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -19376,7 +19928,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -19421,7 +19973,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -19466,7 +20018,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -19511,7 +20063,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -19556,7 +20108,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -19580,7 +20132,7 @@
         <v>0.0</v>
       </c>
       <c r="H137" t="n">
-        <v>1.098E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I137" t="n">
         <v>0.0</v>
@@ -19601,7 +20153,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -19646,7 +20198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -19670,7 +20222,7 @@
         <v>0.0</v>
       </c>
       <c r="H139" t="n">
-        <v>1.6308E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I139" t="n">
         <v>0.0</v>
@@ -19691,7 +20243,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -19736,7 +20288,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -19781,11 +20333,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C142" t="n">
         <v>8.0</v>
@@ -19805,7 +20357,7 @@
         <v>0.0</v>
       </c>
       <c r="H142" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I142" t="n">
         <v>0.0</v>
@@ -19826,11 +20378,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C143" t="n">
         <v>8.0</v>
@@ -19850,7 +20402,7 @@
         <v>0.0</v>
       </c>
       <c r="H143" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I143" t="n">
         <v>0.0</v>
@@ -19871,11 +20423,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C144" t="n">
         <v>8.0</v>
@@ -19895,7 +20447,7 @@
         <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I144" t="n">
         <v>0.0</v>
@@ -19916,11 +20468,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C145" t="n">
         <v>8.0</v>
@@ -19940,7 +20492,7 @@
         <v>0.0</v>
       </c>
       <c r="H145" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I145" t="n">
         <v>0.0</v>
@@ -19961,11 +20513,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C146" t="n">
         <v>8.0</v>
@@ -19985,7 +20537,7 @@
         <v>0.0</v>
       </c>
       <c r="H146" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I146" t="n">
         <v>0.0</v>
@@ -20006,11 +20558,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C147" t="n">
         <v>8.0</v>
@@ -20030,7 +20582,7 @@
         <v>0.0</v>
       </c>
       <c r="H147" t="n">
-        <v>2.8278E7</v>
+        <v>1.6308E7</v>
       </c>
       <c r="I147" t="n">
         <v>0.0</v>
@@ -20051,11 +20603,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C148" t="n">
         <v>8.0</v>
@@ -20075,7 +20627,7 @@
         <v>0.0</v>
       </c>
       <c r="H148" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I148" t="n">
         <v>0.0</v>
@@ -20096,11 +20648,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C149" t="n">
         <v>8.0</v>
@@ -20120,7 +20672,7 @@
         <v>0.0</v>
       </c>
       <c r="H149" t="n">
-        <v>2.8278E7</v>
+        <v>2.2968E7</v>
       </c>
       <c r="I149" t="n">
         <v>0.0</v>
@@ -20141,7 +20693,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -20186,7 +20738,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -20231,7 +20783,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -20276,7 +20828,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -20321,7 +20873,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -20366,7 +20918,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -20411,7 +20963,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -20456,7 +21008,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -20480,7 +21032,7 @@
         <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>1.4598E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I157" t="n">
         <v>0.0</v>
@@ -20501,7 +21053,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -20546,7 +21098,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -20570,7 +21122,7 @@
         <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>2.0286E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I159" t="n">
         <v>0.0</v>
@@ -20591,7 +21143,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -20636,7 +21188,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -20681,11 +21233,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C162" t="n">
         <v>8.0</v>
@@ -20705,7 +21257,7 @@
         <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>3.357E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I162" t="n">
         <v>0.0</v>
@@ -20726,11 +21278,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C163" t="n">
         <v>8.0</v>
@@ -20750,7 +21302,7 @@
         <v>0.0</v>
       </c>
       <c r="H163" t="n">
-        <v>3.357E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I163" t="n">
         <v>0.0</v>
@@ -20771,11 +21323,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C164" t="n">
         <v>8.0</v>
@@ -20795,7 +21347,7 @@
         <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>3.357E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I164" t="n">
         <v>0.0</v>
@@ -20816,11 +21368,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C165" t="n">
         <v>8.0</v>
@@ -20840,7 +21392,7 @@
         <v>0.0</v>
       </c>
       <c r="H165" t="n">
-        <v>3.357E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I165" t="n">
         <v>0.0</v>
@@ -20861,11 +21413,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C166" t="n">
         <v>8.0</v>
@@ -20885,7 +21437,7 @@
         <v>0.0</v>
       </c>
       <c r="H166" t="n">
-        <v>3.357E7</v>
+        <v>2.0286E7</v>
       </c>
       <c r="I166" t="n">
         <v>0.0</v>
@@ -20906,11 +21458,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C167" t="n">
         <v>8.0</v>
@@ -20930,7 +21482,7 @@
         <v>0.0</v>
       </c>
       <c r="H167" t="n">
-        <v>3.357E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I167" t="n">
         <v>0.0</v>
@@ -20951,11 +21503,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C168" t="n">
         <v>8.0</v>
@@ -20975,7 +21527,7 @@
         <v>0.0</v>
       </c>
       <c r="H168" t="n">
-        <v>3.357E7</v>
+        <v>2.8278E7</v>
       </c>
       <c r="I168" t="n">
         <v>0.0</v>
@@ -20996,7 +21548,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -21041,7 +21593,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -21086,7 +21638,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -21131,7 +21683,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -21176,7 +21728,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -21221,7 +21773,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -21266,7 +21818,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -21311,7 +21863,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -21356,7 +21908,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -21380,7 +21932,7 @@
         <v>0.0</v>
       </c>
       <c r="H177" t="n">
-        <v>1.8198E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I177" t="n">
         <v>0.0</v>
@@ -21401,7 +21953,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -21446,7 +21998,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -21470,7 +22022,7 @@
         <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>2.4246E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I179" t="n">
         <v>0.0</v>
@@ -21491,7 +22043,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -21536,7 +22088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -21581,11 +22133,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C182" t="n">
         <v>8.0</v>
@@ -21605,7 +22157,7 @@
         <v>0.0</v>
       </c>
       <c r="H182" t="n">
-        <v>3.888E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I182" t="n">
         <v>0.0</v>
@@ -21626,11 +22178,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C183" t="n">
         <v>8.0</v>
@@ -21650,7 +22202,7 @@
         <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>3.888E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I183" t="n">
         <v>0.0</v>
@@ -21671,11 +22223,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C184" t="n">
         <v>8.0</v>
@@ -21695,7 +22247,7 @@
         <v>0.0</v>
       </c>
       <c r="H184" t="n">
-        <v>3.888E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I184" t="n">
         <v>0.0</v>
@@ -21716,11 +22268,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C185" t="n">
         <v>8.0</v>
@@ -21740,7 +22292,7 @@
         <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.888E7</v>
+        <v>2.4246E7</v>
       </c>
       <c r="I185" t="n">
         <v>0.0</v>
@@ -21761,11 +22313,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C186" t="n">
         <v>8.0</v>
@@ -21785,7 +22337,7 @@
         <v>0.0</v>
       </c>
       <c r="H186" t="n">
-        <v>3.888E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I186" t="n">
         <v>0.0</v>
@@ -21806,11 +22358,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C187" t="n">
         <v>8.0</v>
@@ -21830,7 +22382,7 @@
         <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>3.888E7</v>
+        <v>3.357E7</v>
       </c>
       <c r="I187" t="n">
         <v>0.0</v>
@@ -21851,7 +22403,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -21896,7 +22448,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -21941,7 +22493,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -21986,7 +22538,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -22031,7 +22583,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -22076,7 +22628,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -22121,7 +22673,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -22166,7 +22718,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -22211,7 +22763,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -22256,7 +22808,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -22280,7 +22832,7 @@
         <v>0.0</v>
       </c>
       <c r="H197" t="n">
-        <v>2.1816E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I197" t="n">
         <v>0.0</v>
@@ -22301,7 +22853,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -22346,7 +22898,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -22370,7 +22922,7 @@
         <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>2.8224E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I199" t="n">
         <v>0.0</v>
@@ -22391,7 +22943,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -22436,7 +22988,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -22481,11 +23033,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C202" t="n">
         <v>8.0</v>
@@ -22505,7 +23057,7 @@
         <v>0.0</v>
       </c>
       <c r="H202" t="n">
-        <v>4.4172E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I202" t="n">
         <v>0.0</v>
@@ -22526,11 +23078,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C203" t="n">
         <v>8.0</v>
@@ -22550,7 +23102,7 @@
         <v>0.0</v>
       </c>
       <c r="H203" t="n">
-        <v>4.4172E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I203" t="n">
         <v>0.0</v>
@@ -22571,11 +23123,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C204" t="n">
         <v>8.0</v>
@@ -22595,7 +23147,7 @@
         <v>0.0</v>
       </c>
       <c r="H204" t="n">
-        <v>4.4172E7</v>
+        <v>2.8224E7</v>
       </c>
       <c r="I204" t="n">
         <v>0.0</v>
@@ -22616,11 +23168,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C205" t="n">
         <v>8.0</v>
@@ -22640,7 +23192,7 @@
         <v>0.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4.4172E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I205" t="n">
         <v>0.0</v>
@@ -22661,11 +23213,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C206" t="n">
         <v>8.0</v>
@@ -22685,7 +23237,7 @@
         <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4.4172E7</v>
+        <v>3.888E7</v>
       </c>
       <c r="I206" t="n">
         <v>0.0</v>
@@ -22706,7 +23258,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -22751,7 +23303,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -22796,7 +23348,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -22841,7 +23393,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -22886,7 +23438,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -22931,7 +23483,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -22976,7 +23528,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -23021,7 +23573,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -23066,7 +23618,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -23111,7 +23663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -23156,7 +23708,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -23180,7 +23732,7 @@
         <v>0.0</v>
       </c>
       <c r="H217" t="n">
-        <v>2.5416E7</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I217" t="n">
         <v>0.0</v>
@@ -23201,7 +23753,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -23246,7 +23798,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -23270,7 +23822,7 @@
         <v>0.0</v>
       </c>
       <c r="H219" t="n">
-        <v>3.2184E7</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I219" t="n">
         <v>0.0</v>
@@ -23291,7 +23843,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -23336,7 +23888,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -23381,7 +23933,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -23405,7 +23957,7 @@
         <v>0.0</v>
       </c>
       <c r="H222" t="n">
-        <v>18000.0</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I222" t="n">
         <v>0.0</v>
@@ -23426,11 +23978,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C223" t="n">
         <v>8.0</v>
@@ -23450,7 +24002,7 @@
         <v>0.0</v>
       </c>
       <c r="H223" t="n">
-        <v>4.9482E7</v>
+        <v>3.2184E7</v>
       </c>
       <c r="I223" t="n">
         <v>0.0</v>
@@ -23471,11 +24023,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C224" t="n">
         <v>8.0</v>
@@ -23495,7 +24047,7 @@
         <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>4.9482E7</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I224" t="n">
         <v>0.0</v>
@@ -23516,11 +24068,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C225" t="n">
         <v>8.0</v>
@@ -23540,7 +24092,7 @@
         <v>0.0</v>
       </c>
       <c r="H225" t="n">
-        <v>4.9482E7</v>
+        <v>4.4172E7</v>
       </c>
       <c r="I225" t="n">
         <v>0.0</v>
@@ -23561,11 +24113,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C226" t="n">
         <v>8.0</v>
@@ -23585,7 +24137,7 @@
         <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>4.9482E7</v>
+        <v>18000.0</v>
       </c>
       <c r="I226" t="n">
         <v>0.0</v>
@@ -23606,7 +24158,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -23651,7 +24203,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -23696,7 +24248,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -23741,7 +24293,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -23786,7 +24338,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -23831,7 +24383,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -23876,7 +24428,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -23921,7 +24473,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -23966,7 +24518,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -24011,7 +24563,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -24056,7 +24608,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -24101,7 +24653,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -24125,7 +24677,7 @@
         <v>0.0</v>
       </c>
       <c r="H238" t="n">
-        <v>2.9016E7</v>
+        <v>4.9482E7</v>
       </c>
       <c r="I238" t="n">
         <v>0.0</v>
@@ -24146,7 +24698,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -24191,7 +24743,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -24215,7 +24767,7 @@
         <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>3.6162E7</v>
+        <v>4.9482E7</v>
       </c>
       <c r="I240" t="n">
         <v>0.0</v>
@@ -24236,7 +24788,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -24281,7 +24833,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -24326,7 +24878,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -24350,7 +24902,7 @@
         <v>0.0</v>
       </c>
       <c r="H243" t="n">
-        <v>72000.0</v>
+        <v>3.6162E7</v>
       </c>
       <c r="I243" t="n">
         <v>0.0</v>
@@ -24371,11 +24923,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C244" t="n">
         <v>8.0</v>
@@ -24395,7 +24947,7 @@
         <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>5.4774E7</v>
+        <v>4.9482E7</v>
       </c>
       <c r="I244" t="n">
         <v>0.0</v>
@@ -24416,11 +24968,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C245" t="n">
         <v>8.0</v>
@@ -24440,7 +24992,7 @@
         <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>5.4774E7</v>
+        <v>4.9482E7</v>
       </c>
       <c r="I245" t="n">
         <v>0.0</v>
@@ -24461,11 +25013,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C246" t="n">
         <v>8.0</v>
@@ -24485,7 +25037,7 @@
         <v>0.0</v>
       </c>
       <c r="H246" t="n">
-        <v>5.4774E7</v>
+        <v>72000.0</v>
       </c>
       <c r="I246" t="n">
         <v>0.0</v>
@@ -24506,7 +25058,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -24551,7 +25103,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -24596,7 +25148,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -24641,7 +25193,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -24686,7 +25238,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -24731,7 +25283,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -24776,7 +25328,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -24821,7 +25373,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -24866,7 +25418,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -24911,7 +25463,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -24956,7 +25508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -25001,7 +25553,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -25046,7 +25598,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -25070,7 +25622,7 @@
         <v>0.0</v>
       </c>
       <c r="H259" t="n">
-        <v>3.2634E7</v>
+        <v>5.4774E7</v>
       </c>
       <c r="I259" t="n">
         <v>0.0</v>
@@ -25091,7 +25643,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -25136,7 +25688,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -25160,7 +25712,7 @@
         <v>0.0</v>
       </c>
       <c r="H261" t="n">
-        <v>4.0122E7</v>
+        <v>5.4774E7</v>
       </c>
       <c r="I261" t="n">
         <v>0.0</v>
@@ -25181,7 +25733,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -25226,7 +25778,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -25250,7 +25802,7 @@
         <v>0.0</v>
       </c>
       <c r="H263" t="n">
-        <v>5.4774E7</v>
+        <v>4.0122E7</v>
       </c>
       <c r="I263" t="n">
         <v>0.0</v>
@@ -25271,7 +25823,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -25295,7 +25847,7 @@
         <v>0.0</v>
       </c>
       <c r="H264" t="n">
-        <v>126000.0</v>
+        <v>5.4774E7</v>
       </c>
       <c r="I264" t="n">
         <v>0.0</v>
@@ -25316,11 +25868,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C265" t="n">
         <v>8.0</v>
@@ -25340,7 +25892,7 @@
         <v>0.0</v>
       </c>
       <c r="H265" t="n">
-        <v>6.0084E7</v>
+        <v>5.4774E7</v>
       </c>
       <c r="I265" t="n">
         <v>0.0</v>
@@ -25361,11 +25913,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C266" t="n">
         <v>8.0</v>
@@ -25385,7 +25937,7 @@
         <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>6.0084E7</v>
+        <v>126000.0</v>
       </c>
       <c r="I266" t="n">
         <v>0.0</v>
@@ -25406,7 +25958,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -25451,7 +26003,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -25496,7 +26048,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -25541,7 +26093,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -25586,7 +26138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -25631,7 +26183,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -25676,7 +26228,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -25721,7 +26273,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -25766,7 +26318,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -25811,7 +26363,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -25856,7 +26408,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -25901,7 +26453,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -25946,7 +26498,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -25991,7 +26543,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -26015,7 +26567,7 @@
         <v>0.0</v>
       </c>
       <c r="H280" t="n">
-        <v>3.6252E7</v>
+        <v>6.0084E7</v>
       </c>
       <c r="I280" t="n">
         <v>0.0</v>
@@ -26036,7 +26588,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -26081,7 +26633,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -26105,7 +26657,7 @@
         <v>0.0</v>
       </c>
       <c r="H282" t="n">
-        <v>4.41E7</v>
+        <v>6.0084E7</v>
       </c>
       <c r="I282" t="n">
         <v>0.0</v>
@@ -26126,7 +26678,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -26150,7 +26702,7 @@
         <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>6.0084E7</v>
+        <v>4.41E7</v>
       </c>
       <c r="I283" t="n">
         <v>0.0</v>
@@ -26171,7 +26723,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -26216,7 +26768,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -26240,7 +26792,7 @@
         <v>0.0</v>
       </c>
       <c r="H285" t="n">
-        <v>162000.0</v>
+        <v>6.0084E7</v>
       </c>
       <c r="I285" t="n">
         <v>0.0</v>
@@ -26261,11 +26813,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C286" t="n">
         <v>8.0</v>
@@ -26285,7 +26837,7 @@
         <v>0.0</v>
       </c>
       <c r="H286" t="n">
-        <v>6.5376E7</v>
+        <v>162000.0</v>
       </c>
       <c r="I286" t="n">
         <v>0.0</v>
@@ -26306,7 +26858,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -26351,7 +26903,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -26396,7 +26948,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -26441,7 +26993,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -26486,7 +27038,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -26531,7 +27083,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -26576,7 +27128,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -26621,7 +27173,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -26666,7 +27218,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -26711,7 +27263,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -26756,7 +27308,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -26801,7 +27353,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -26846,7 +27398,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -26891,7 +27443,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -26936,7 +27488,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -26960,7 +27512,7 @@
         <v>0.0</v>
       </c>
       <c r="H301" t="n">
-        <v>3.9834E7</v>
+        <v>6.5376E7</v>
       </c>
       <c r="I301" t="n">
         <v>0.0</v>
@@ -27273,7 +27825,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>162000.0</v>
       </c>
     </row>
     <row r="3">
@@ -27612,13 +28164,13 @@
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>3600000.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>9559.60770780358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>252000.0</v>
       </c>
     </row>
     <row r="18">
@@ -27635,13 +28187,13 @@
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>14339.411561705376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>306000.0</v>
       </c>
     </row>
     <row r="19">
@@ -27980,13 +28532,13 @@
         <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>6480000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>17207.293874046478</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>144000.0</v>
       </c>
     </row>
     <row r="34">
@@ -28003,13 +28555,13 @@
         <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>6840000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>18163.254644826826</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>90000.0</v>
       </c>
     </row>
     <row r="35">
@@ -28089,10 +28641,10 @@
         <v>5.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>200000.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>1884.7013397565024</v>
       </c>
       <c r="E38" t="n">
         <v>0.0</v>
@@ -28250,10 +28802,10 @@
         <v>6.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>400000.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>3738.6574067857323</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
@@ -28348,13 +28900,13 @@
         <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>6840000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>18163.254644826833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>252000.0</v>
       </c>
     </row>
     <row r="50">
@@ -28371,13 +28923,13 @@
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>19119.2154156072</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>162000.0</v>
       </c>
     </row>
     <row r="51">
@@ -28388,10 +28940,10 @@
         <v>7.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>90560.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>804.9832050888891</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
@@ -28457,10 +29009,10 @@
         <v>7.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>240000.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0</v>
+        <v>2231.0097861714053</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
@@ -28618,10 +29170,10 @@
         <v>8.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>80000.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0</v>
+        <v>737.1845147674971</v>
       </c>
       <c r="E61" t="n">
         <v>0.0</v>
@@ -28641,10 +29193,10 @@
         <v>8.0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0</v>
+        <v>46400.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>820.085539147369</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
@@ -28716,13 +29268,13 @@
         <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>19119.215415607185</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0</v>
+        <v>108000.0</v>
       </c>
     </row>
     <row r="66">
@@ -28739,13 +29291,13 @@
         <v>0.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>19119.2154156072</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0</v>
+        <v>90000.0</v>
       </c>
     </row>
     <row r="67">
@@ -28756,10 +29308,10 @@
         <v>9.0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>90560.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0</v>
+        <v>804.9832050888892</v>
       </c>
       <c r="E67" t="n">
         <v>0.0</v>
@@ -28825,10 +29377,10 @@
         <v>9.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>280000.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0</v>
+        <v>2594.634073644596</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
@@ -28986,10 +29538,10 @@
         <v>10.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0</v>
+        <v>120000.0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>1105.7211605477687</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
@@ -29055,10 +29607,10 @@
         <v>10.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0</v>
+        <v>181120.0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0</v>
+        <v>1609.9664101777785</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
@@ -29084,13 +29636,13 @@
         <v>0.0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>19119.215415607192</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0</v>
+        <v>108000.0</v>
       </c>
     </row>
     <row r="82">
@@ -29107,13 +29659,13 @@
         <v>0.0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>19119.215415607192</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0</v>
+        <v>126000.0</v>
       </c>
     </row>
     <row r="83">
@@ -29124,10 +29676,10 @@
         <v>11.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>271680.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0</v>
+        <v>2414.9496152666675</v>
       </c>
       <c r="E83" t="n">
         <v>0.0</v>
@@ -29193,10 +29745,10 @@
         <v>11.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0</v>
+        <v>320000.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0</v>
+        <v>2965.2338024146206</v>
       </c>
       <c r="E86" t="n">
         <v>0.0</v>
@@ -29354,10 +29906,10 @@
         <v>12.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0</v>
+        <v>160000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0</v>
+        <v>1474.3250072521043</v>
       </c>
       <c r="E93" t="n">
         <v>0.0</v>
@@ -29452,13 +30004,13 @@
         <v>0.0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>19119.2154156072</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0</v>
+        <v>108000.0</v>
       </c>
     </row>
   </sheetData>
@@ -29602,10 +30154,10 @@
         <v>3.0</v>
       </c>
       <c r="C8" t="n">
-        <v>6840000.0</v>
+        <v>1.044E7</v>
       </c>
       <c r="D8" t="n">
-        <v>74095.4288196724</v>
+        <v>104638.0729352895</v>
       </c>
     </row>
     <row r="9">
@@ -29698,10 +30250,10 @@
         <v>4.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5040000.0</v>
+        <v>1.044E7</v>
       </c>
       <c r="D14" t="n">
-        <v>54596.631761863864</v>
+        <v>100410.59793528942</v>
       </c>
     </row>
     <row r="15">
@@ -29739,33 +30291,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1794000.0</v>
+        <v>1.08E7</v>
       </c>
       <c r="D17" t="n">
-        <v>25384.63134110526</v>
+        <v>101773.87234685113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>5.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4320000.0</v>
+        <v>1794000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>46797.11293874046</v>
+        <v>25384.63134110526</v>
       </c>
     </row>
     <row r="19">
@@ -29842,10 +30394,10 @@
         <v>6.0</v>
       </c>
       <c r="C23" t="n">
-        <v>3960000.0</v>
+        <v>1.08E7</v>
       </c>
       <c r="D23" t="n">
-        <v>42897.353527178755</v>
+        <v>100928.37734685114</v>
       </c>
     </row>
     <row r="24">
@@ -29922,10 +30474,10 @@
         <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3600000.0</v>
+        <v>1.044E7</v>
       </c>
       <c r="D28" t="n">
-        <v>38997.59411561705</v>
+        <v>97028.61793528941</v>
       </c>
     </row>
     <row r="29">
@@ -29963,49 +30515,49 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>8.0</v>
       </c>
       <c r="C31" t="n">
-        <v>2052000.0</v>
+        <v>1.044E7</v>
       </c>
       <c r="D31" t="n">
-        <v>29035.263941999998</v>
+        <v>96183.12293528946</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>8.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.06464E7</v>
+        <v>2052000.0</v>
       </c>
       <c r="D32" t="n">
-        <v>188167.21301677907</v>
+        <v>29035.263941999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>8.0</v>
       </c>
       <c r="C33" t="n">
-        <v>3240000.0</v>
+        <v>1.06464E7</v>
       </c>
       <c r="D33" t="n">
-        <v>35097.83470405535</v>
+        <v>188167.21301677907</v>
       </c>
     </row>
     <row r="34">
@@ -30082,10 +30634,10 @@
         <v>9.0</v>
       </c>
       <c r="C38" t="n">
-        <v>3600000.0</v>
+        <v>1.08E7</v>
       </c>
       <c r="D38" t="n">
-        <v>38997.59411561705</v>
+        <v>100082.8823468511</v>
       </c>
     </row>
     <row r="39">
@@ -30178,10 +30730,10 @@
         <v>10.0</v>
       </c>
       <c r="C44" t="n">
-        <v>3240000.0</v>
+        <v>1.044E7</v>
       </c>
       <c r="D44" t="n">
-        <v>35097.83470405535</v>
+        <v>96183.12293528942</v>
       </c>
     </row>
     <row r="45">
@@ -30242,10 +30794,10 @@
         <v>11.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3600000.0</v>
+        <v>1.08E7</v>
       </c>
       <c r="D48" t="n">
-        <v>38997.59411561705</v>
+        <v>100082.88234685117</v>
       </c>
     </row>
     <row r="49">
@@ -30322,10 +30874,10 @@
         <v>12.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3240000.0</v>
+        <v>1.044E7</v>
       </c>
       <c r="D53" t="n">
-        <v>35097.83470405535</v>
+        <v>96183.1229352894</v>
       </c>
     </row>
     <row r="54">

--- a/CMPC_Manufacturing/OutputCMPC.xlsx
+++ b/CMPC_Manufacturing/OutputCMPC.xlsx
@@ -187,13 +187,13 @@
         <v>9406.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3986E7</v>
+        <v>6372000.0</v>
       </c>
       <c r="M2" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.007405966557776811</v>
       </c>
     </row>
     <row r="3">
@@ -233,13 +233,13 @@
         <v>9406.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3986E7</v>
+        <v>9720000.0</v>
       </c>
       <c r="M3" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.004855022521209242</v>
       </c>
     </row>
     <row r="4">
@@ -279,13 +279,13 @@
         <v>9406.0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3986E7</v>
+        <v>1.2312E7</v>
       </c>
       <c r="M4" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.0038329125167441387</v>
       </c>
     </row>
     <row r="5">
@@ -739,13 +739,13 @@
         <v>8704.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4148E7</v>
+        <v>6372000.0</v>
       </c>
       <c r="M14" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N14" t="n">
-        <v>0.004489988483612796</v>
+        <v>0.009969296463614852</v>
       </c>
     </row>
     <row r="15">
@@ -785,13 +785,13 @@
         <v>8704.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.7676E7</v>
+        <v>9720000.0</v>
       </c>
       <c r="M15" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0035938197027695087</v>
+        <v>0.006535427681703069</v>
       </c>
     </row>
     <row r="16">
@@ -831,13 +831,13 @@
         <v>8704.0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.944E7</v>
+        <v>1.2312E7</v>
       </c>
       <c r="M16" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0032677138408515344</v>
+        <v>0.005159548169765581</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>8704.0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.0304E7</v>
+        <v>1.4292E7</v>
       </c>
       <c r="M17" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0031286621880493417</v>
+        <v>0.004444749304936596</v>
       </c>
     </row>
     <row r="18">
@@ -923,13 +923,13 @@
         <v>8704.0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.0772E7</v>
+        <v>1.584E7</v>
       </c>
       <c r="M18" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0030581723987172073</v>
+        <v>0.004010376077408701</v>
       </c>
     </row>
     <row r="19">
@@ -969,13 +969,13 @@
         <v>8704.0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.0988E7</v>
+        <v>1.7064E7</v>
       </c>
       <c r="M19" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00302669892634619</v>
+        <v>0.003722711970590356</v>
       </c>
     </row>
     <row r="20">
@@ -1015,13 +1015,13 @@
         <v>8704.0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.1096E7</v>
+        <v>1.8E7</v>
       </c>
       <c r="M20" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0030112038806481716</v>
+        <v>0.0035291309481196576</v>
       </c>
     </row>
     <row r="21">
@@ -1061,13 +1061,13 @@
         <v>8704.0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.1114E7</v>
+        <v>1.872E7</v>
       </c>
       <c r="M21" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0033933951424227476</v>
       </c>
     </row>
     <row r="22">
@@ -1107,13 +1107,13 @@
         <v>8704.0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.1114E7</v>
+        <v>1.926E7</v>
       </c>
       <c r="M22" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.003298253222541736</v>
       </c>
     </row>
     <row r="23">
@@ -1153,13 +1153,13 @@
         <v>8704.0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.1114E7</v>
+        <v>1.9692E7</v>
       </c>
       <c r="M23" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0032258966619009666</v>
       </c>
     </row>
     <row r="24">
@@ -1199,13 +1199,13 @@
         <v>8704.0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.1114E7</v>
+        <v>2.0052E7</v>
       </c>
       <c r="M24" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0031679811024413443</v>
       </c>
     </row>
     <row r="25">
@@ -1245,13 +1245,13 @@
         <v>8704.0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.1114E7</v>
+        <v>2.0304E7</v>
       </c>
       <c r="M25" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0031286621880493417</v>
       </c>
     </row>
     <row r="26">
@@ -9547,10 +9547,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F206" t="n">
         <v>2.0</v>
@@ -9562,22 +9562,22 @@
         <v>10672.48</v>
       </c>
       <c r="I206" t="n">
-        <v>488.87129307692294</v>
+        <v>0.0</v>
       </c>
       <c r="J206" t="n">
-        <v>1456.0</v>
+        <v>0.0</v>
       </c>
       <c r="K206" t="n">
         <v>9406.0</v>
       </c>
       <c r="L206" t="n">
-        <v>162000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M206" t="n">
-        <v>45245.94761307692</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N206" t="n">
-        <v>0.2792959729202279</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -9617,13 +9617,13 @@
         <v>9406.0</v>
       </c>
       <c r="L207" t="n">
-        <v>3690000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M207" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N207" t="n">
-        <v>0.011734709029810296</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
@@ -9663,13 +9663,13 @@
         <v>9406.0</v>
       </c>
       <c r="L208" t="n">
-        <v>5454000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M208" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N208" t="n">
-        <v>0.007939324591125778</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -9685,10 +9685,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F209" t="n">
         <v>2.0</v>
@@ -9700,22 +9700,22 @@
         <v>10672.48</v>
       </c>
       <c r="I209" t="n">
-        <v>0.0</v>
+        <v>488.87129307692294</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0</v>
+        <v>1456.0</v>
       </c>
       <c r="K209" t="n">
         <v>9406.0</v>
       </c>
       <c r="L209" t="n">
-        <v>6318000.0</v>
+        <v>306000.0</v>
       </c>
       <c r="M209" t="n">
-        <v>43301.07631999999</v>
+        <v>45245.94761307692</v>
       </c>
       <c r="N209" t="n">
-        <v>0.006853604988920544</v>
+        <v>0.14786257389894417</v>
       </c>
     </row>
     <row r="210">
@@ -9755,13 +9755,13 @@
         <v>9406.0</v>
       </c>
       <c r="L210" t="n">
-        <v>6786000.0</v>
+        <v>1854000.0</v>
       </c>
       <c r="M210" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N210" t="n">
-        <v>0.006380942575891541</v>
+        <v>0.023355488845738938</v>
       </c>
     </row>
     <row r="211">
@@ -9801,13 +9801,13 @@
         <v>9406.0</v>
       </c>
       <c r="L211" t="n">
-        <v>7002000.0</v>
+        <v>3078000.0</v>
       </c>
       <c r="M211" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0061841011596686654</v>
+        <v>0.014067926029889537</v>
       </c>
     </row>
     <row r="212">
@@ -9847,13 +9847,13 @@
         <v>9406.0</v>
       </c>
       <c r="L212" t="n">
-        <v>7110000.0</v>
+        <v>4014000.0</v>
       </c>
       <c r="M212" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N212" t="n">
-        <v>0.006090165445850913</v>
+        <v>0.010787512785251618</v>
       </c>
     </row>
     <row r="213">
@@ -9893,13 +9893,13 @@
         <v>9406.0</v>
       </c>
       <c r="L213" t="n">
-        <v>7146000.0</v>
+        <v>4734000.0</v>
       </c>
       <c r="M213" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N213" t="n">
-        <v>0.006059484511614889</v>
+        <v>0.009146826430080269</v>
       </c>
     </row>
     <row r="214">
@@ -9939,13 +9939,13 @@
         <v>9406.0</v>
       </c>
       <c r="L214" t="n">
-        <v>7182000.0</v>
+        <v>5274000.0</v>
       </c>
       <c r="M214" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N214" t="n">
-        <v>0.006029111155666944</v>
+        <v>0.008210291300720514</v>
       </c>
     </row>
     <row r="215">
@@ -9985,13 +9985,13 @@
         <v>9406.0</v>
       </c>
       <c r="L215" t="n">
-        <v>7218000.0</v>
+        <v>5706000.0</v>
       </c>
       <c r="M215" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N215" t="n">
-        <v>0.005999040775838182</v>
+        <v>0.007588691959341043</v>
       </c>
     </row>
     <row r="216">
@@ -10031,13 +10031,13 @@
         <v>9406.0</v>
       </c>
       <c r="L216" t="n">
-        <v>7218000.0</v>
+        <v>6066000.0</v>
       </c>
       <c r="M216" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N216" t="n">
-        <v>0.005999040775838182</v>
+        <v>0.007138324484009231</v>
       </c>
     </row>
     <row r="217">
@@ -10077,13 +10077,13 @@
         <v>9406.0</v>
       </c>
       <c r="L217" t="n">
-        <v>7182000.0</v>
+        <v>6318000.0</v>
       </c>
       <c r="M217" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N217" t="n">
-        <v>0.006029111155666944</v>
+        <v>0.006853604988920544</v>
       </c>
     </row>
     <row r="218">
@@ -14054,25 +14054,25 @@
         <v>800.0</v>
       </c>
       <c r="G2" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>213.57042253521237</v>
+        <v>99.48591549295791</v>
       </c>
       <c r="J2" t="n">
-        <v>207.57042253521232</v>
+        <v>93.48591549295786</v>
       </c>
       <c r="K2" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.004</v>
       </c>
       <c r="M2" t="n">
-        <v>0.10564857400927025</v>
+        <v>0.10627442708333333</v>
       </c>
     </row>
     <row r="3">
@@ -14099,25 +14099,25 @@
         <v>800.0</v>
       </c>
       <c r="G3" t="n">
-        <v>6912000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>208.81690140845177</v>
+        <v>99.48591549295791</v>
       </c>
       <c r="J3" t="n">
-        <v>202.8169014084517</v>
+        <v>93.48591549295786</v>
       </c>
       <c r="K3" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.004</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07072066180141802</v>
+        <v>0.0713465148754811</v>
       </c>
     </row>
     <row r="4">
@@ -14144,25 +14144,25 @@
         <v>800.0</v>
       </c>
       <c r="G4" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>213.57042253521237</v>
+        <v>99.48591549295791</v>
       </c>
       <c r="J4" t="n">
-        <v>207.57042253521232</v>
+        <v>93.48591549295786</v>
       </c>
       <c r="K4" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004489988483612796</v>
+        <v>0.004</v>
       </c>
       <c r="M4" t="n">
-        <v>0.11796198848361278</v>
+        <v>0.11747199999999998</v>
       </c>
     </row>
     <row r="5">
@@ -14189,25 +14189,25 @@
         <v>800.0</v>
       </c>
       <c r="G5" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>213.57042253521237</v>
+        <v>99.48591549295791</v>
       </c>
       <c r="J5" t="n">
-        <v>207.57042253521232</v>
+        <v>93.48591549295786</v>
       </c>
       <c r="K5" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004489988483612796</v>
+        <v>0.004</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06610329374677068</v>
+        <v>0.06561330526315788</v>
       </c>
     </row>
     <row r="6">
@@ -14249,10 +14249,10 @@
         <v>0.08422561052631579</v>
       </c>
       <c r="L6" t="n">
-        <v>0.011034928496188494</v>
+        <v>0.004</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09526053902250428</v>
+        <v>0.08822561052631579</v>
       </c>
     </row>
     <row r="7">
@@ -14279,25 +14279,25 @@
         <v>800.0</v>
       </c>
       <c r="G7" t="n">
-        <v>8838000.0</v>
+        <v>4860000.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>265.330985915494</v>
+        <v>148.60563380281747</v>
       </c>
       <c r="J7" t="n">
-        <v>259.33098591549424</v>
+        <v>142.6056338028174</v>
       </c>
       <c r="K7" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.007405966557776811</v>
       </c>
       <c r="M7" t="n">
-        <v>0.10564857400927025</v>
+        <v>0.10968039364111014</v>
       </c>
     </row>
     <row r="8">
@@ -14324,25 +14324,25 @@
         <v>800.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5148000.0</v>
+        <v>4860000.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>157.05633802816965</v>
+        <v>148.60563380281747</v>
       </c>
       <c r="J8" t="n">
-        <v>151.0563380281696</v>
+        <v>142.6056338028174</v>
       </c>
       <c r="K8" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.007405966557776811</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07072066180141802</v>
+        <v>0.07475248143325791</v>
       </c>
     </row>
     <row r="9">
@@ -14369,25 +14369,25 @@
         <v>800.0</v>
       </c>
       <c r="G9" t="n">
-        <v>8838000.0</v>
+        <v>4860000.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>265.330985915494</v>
+        <v>148.60563380281747</v>
       </c>
       <c r="J9" t="n">
-        <v>259.33098591549424</v>
+        <v>142.6056338028174</v>
       </c>
       <c r="K9" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0035938197027695087</v>
+        <v>0.009969296463614852</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11706581970276948</v>
+        <v>0.12344129646361483</v>
       </c>
     </row>
     <row r="10">
@@ -14414,25 +14414,25 @@
         <v>800.0</v>
       </c>
       <c r="G10" t="n">
-        <v>8838000.0</v>
+        <v>4860000.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>265.330985915494</v>
+        <v>148.60563380281747</v>
       </c>
       <c r="J10" t="n">
-        <v>259.33098591549424</v>
+        <v>142.6056338028174</v>
       </c>
       <c r="K10" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0035938197027695087</v>
+        <v>0.009969296463614852</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0652071249659274</v>
+        <v>0.07158260172677273</v>
       </c>
     </row>
     <row r="11">
@@ -14474,10 +14474,10 @@
         <v>0.08422561052631579</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009453976696696694</v>
+        <v>0.011034928496188494</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09367958722301248</v>
+        <v>0.09526053902250428</v>
       </c>
     </row>
     <row r="12">
@@ -14504,25 +14504,25 @@
         <v>800.0</v>
       </c>
       <c r="G12" t="n">
-        <v>9720000.0</v>
+        <v>6156000.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>291.2112676056337</v>
+        <v>186.6338028169023</v>
       </c>
       <c r="J12" t="n">
-        <v>285.2112676056339</v>
+        <v>180.63380281690223</v>
       </c>
       <c r="K12" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.004855022521209242</v>
       </c>
       <c r="M12" t="n">
-        <v>0.10564857400927025</v>
+        <v>0.10712944960454257</v>
       </c>
     </row>
     <row r="13">
@@ -14549,25 +14549,25 @@
         <v>800.0</v>
       </c>
       <c r="G13" t="n">
-        <v>4266000.0</v>
+        <v>6156000.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.1760563380286</v>
+        <v>186.6338028169023</v>
       </c>
       <c r="J13" t="n">
-        <v>125.17605633802854</v>
+        <v>180.63380281690223</v>
       </c>
       <c r="K13" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.004855022521209242</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07072066180141802</v>
+        <v>0.07220153739669034</v>
       </c>
     </row>
     <row r="14">
@@ -14594,25 +14594,25 @@
         <v>800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>9720000.0</v>
+        <v>6156000.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>291.2112676056337</v>
+        <v>186.6338028169023</v>
       </c>
       <c r="J14" t="n">
-        <v>285.2112676056339</v>
+        <v>180.63380281690223</v>
       </c>
       <c r="K14" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0032677138408515344</v>
+        <v>0.006535427681703069</v>
       </c>
       <c r="M14" t="n">
-        <v>0.11673971384085151</v>
+        <v>0.12000742768170304</v>
       </c>
     </row>
     <row r="15">
@@ -14639,25 +14639,25 @@
         <v>800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>9720000.0</v>
+        <v>6156000.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>291.2112676056337</v>
+        <v>186.6338028169023</v>
       </c>
       <c r="J15" t="n">
-        <v>285.2112676056339</v>
+        <v>180.63380281690223</v>
       </c>
       <c r="K15" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0032677138408515344</v>
+        <v>0.006535427681703069</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06488101910400942</v>
+        <v>0.06814873294486096</v>
       </c>
     </row>
     <row r="16">
@@ -14729,25 +14729,25 @@
         <v>800.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0152E7</v>
+        <v>7146000.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>303.8873239436613</v>
+        <v>215.68309859155042</v>
       </c>
       <c r="J17" t="n">
-        <v>297.8873239436615</v>
+        <v>209.68309859155036</v>
       </c>
       <c r="K17" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.0038329125167441387</v>
       </c>
       <c r="M17" t="n">
-        <v>0.10564857400927025</v>
+        <v>0.10610733960007747</v>
       </c>
     </row>
     <row r="18">
@@ -14774,25 +14774,25 @@
         <v>800.0</v>
       </c>
       <c r="G18" t="n">
-        <v>3834000.0</v>
+        <v>6840000.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>118.50000000000033</v>
+        <v>206.70422535211372</v>
       </c>
       <c r="J18" t="n">
-        <v>112.50000000000027</v>
+        <v>200.70422535211367</v>
       </c>
       <c r="K18" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.0038329125167441387</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07072066180141802</v>
+        <v>0.07117942739222524</v>
       </c>
     </row>
     <row r="19">
@@ -14819,25 +14819,25 @@
         <v>800.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0152E7</v>
+        <v>7146000.0</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>303.8873239436613</v>
+        <v>215.68309859155042</v>
       </c>
       <c r="J19" t="n">
-        <v>297.8873239436615</v>
+        <v>209.68309859155036</v>
       </c>
       <c r="K19" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0031286621880493417</v>
+        <v>0.005159548169765581</v>
       </c>
       <c r="M19" t="n">
-        <v>0.11660066218804932</v>
+        <v>0.11863154816976555</v>
       </c>
     </row>
     <row r="20">
@@ -14864,25 +14864,25 @@
         <v>800.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0152E7</v>
+        <v>7146000.0</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>303.8873239436613</v>
+        <v>215.68309859155042</v>
       </c>
       <c r="J20" t="n">
-        <v>297.8873239436615</v>
+        <v>209.68309859155036</v>
       </c>
       <c r="K20" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0031286621880493417</v>
+        <v>0.005159548169765581</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06474196745120722</v>
+        <v>0.06677285343292347</v>
       </c>
     </row>
     <row r="21">
@@ -14954,16 +14954,16 @@
         <v>800.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0386E7</v>
+        <v>7920000.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>310.75352112675955</v>
+        <v>238.3943661971844</v>
       </c>
       <c r="J22" t="n">
-        <v>304.7535211267598</v>
+        <v>232.39436619718435</v>
       </c>
       <c r="K22" t="n">
         <v>0.10227442708333333</v>
@@ -14999,16 +14999,16 @@
         <v>800.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3600000.0</v>
+        <v>6066000.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>111.63380281690168</v>
+        <v>183.99295774647973</v>
       </c>
       <c r="J23" t="n">
-        <v>105.63380281690162</v>
+        <v>177.99295774647968</v>
       </c>
       <c r="K23" t="n">
         <v>0.0673465148754811</v>
@@ -15044,25 +15044,25 @@
         <v>800.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0386E7</v>
+        <v>7920000.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>310.75352112675955</v>
+        <v>238.3943661971844</v>
       </c>
       <c r="J24" t="n">
-        <v>304.7535211267598</v>
+        <v>232.39436619718435</v>
       </c>
       <c r="K24" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0030581723987172073</v>
+        <v>0.004444749304936596</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11653017239871719</v>
+        <v>0.11791674930493658</v>
       </c>
     </row>
     <row r="25">
@@ -15089,25 +15089,25 @@
         <v>800.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0386E7</v>
+        <v>7920000.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>310.75352112675955</v>
+        <v>238.3943661971844</v>
       </c>
       <c r="J25" t="n">
-        <v>304.7535211267598</v>
+        <v>232.39436619718435</v>
       </c>
       <c r="K25" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0030581723987172073</v>
+        <v>0.004444749304936596</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06467147766187509</v>
+        <v>0.06605805456809448</v>
       </c>
     </row>
     <row r="26">
@@ -15179,16 +15179,16 @@
         <v>800.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0494E7</v>
+        <v>8532000.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>313.92253521126645</v>
+        <v>256.3521126760578</v>
       </c>
       <c r="J27" t="n">
-        <v>307.9225352112667</v>
+        <v>250.35211267605774</v>
       </c>
       <c r="K27" t="n">
         <v>0.10227442708333333</v>
@@ -15224,16 +15224,16 @@
         <v>800.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3492000.0</v>
+        <v>5454000.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>108.46478873239461</v>
+        <v>166.03521126760634</v>
       </c>
       <c r="J28" t="n">
-        <v>102.46478873239455</v>
+        <v>160.0352112676063</v>
       </c>
       <c r="K28" t="n">
         <v>0.0673465148754811</v>
@@ -15269,25 +15269,25 @@
         <v>800.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0494E7</v>
+        <v>8532000.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>313.92253521126645</v>
+        <v>256.3521126760578</v>
       </c>
       <c r="J29" t="n">
-        <v>307.9225352112667</v>
+        <v>250.35211267605774</v>
       </c>
       <c r="K29" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00302669892634619</v>
+        <v>0.004010376077408701</v>
       </c>
       <c r="M29" t="n">
-        <v>0.11649869892634616</v>
+        <v>0.11748237607740868</v>
       </c>
     </row>
     <row r="30">
@@ -15314,25 +15314,25 @@
         <v>800.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0494E7</v>
+        <v>8532000.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>313.92253521126645</v>
+        <v>256.3521126760578</v>
       </c>
       <c r="J30" t="n">
-        <v>307.9225352112667</v>
+        <v>250.35211267605774</v>
       </c>
       <c r="K30" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00302669892634619</v>
+        <v>0.004010376077408701</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06464000418950408</v>
+        <v>0.06562368134056659</v>
       </c>
     </row>
     <row r="31">
@@ -15404,16 +15404,16 @@
         <v>800.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0548E7</v>
+        <v>9000000.0</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>315.5070422535199</v>
+        <v>270.08450704225436</v>
       </c>
       <c r="J32" t="n">
-        <v>309.5070422535201</v>
+        <v>264.0845070422546</v>
       </c>
       <c r="K32" t="n">
         <v>0.10227442708333333</v>
@@ -15449,16 +15449,16 @@
         <v>800.0</v>
       </c>
       <c r="G33" t="n">
-        <v>3438000.0</v>
+        <v>4986000.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>106.88028169014108</v>
+        <v>152.30281690140905</v>
       </c>
       <c r="J33" t="n">
-        <v>100.88028169014102</v>
+        <v>146.302816901409</v>
       </c>
       <c r="K33" t="n">
         <v>0.0673465148754811</v>
@@ -15494,25 +15494,25 @@
         <v>800.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0548E7</v>
+        <v>9000000.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>315.5070422535199</v>
+        <v>270.08450704225436</v>
       </c>
       <c r="J34" t="n">
-        <v>309.5070422535201</v>
+        <v>264.0845070422546</v>
       </c>
       <c r="K34" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0030112038806481716</v>
+        <v>0.003722711970590356</v>
       </c>
       <c r="M34" t="n">
-        <v>0.11648320388064815</v>
+        <v>0.11719471197059034</v>
       </c>
     </row>
     <row r="35">
@@ -15539,25 +15539,25 @@
         <v>800.0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0548E7</v>
+        <v>9000000.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>315.5070422535199</v>
+        <v>270.08450704225436</v>
       </c>
       <c r="J35" t="n">
-        <v>309.5070422535201</v>
+        <v>264.0845070422546</v>
       </c>
       <c r="K35" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0030112038806481716</v>
+        <v>0.003722711970590356</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06462450914380606</v>
+        <v>0.06533601723374824</v>
       </c>
     </row>
     <row r="36">
@@ -15629,16 +15629,16 @@
         <v>800.0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0566E7</v>
+        <v>9360000.0</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>316.0352112676044</v>
+        <v>280.647887323944</v>
       </c>
       <c r="J37" t="n">
-        <v>310.0352112676046</v>
+        <v>274.64788732394425</v>
       </c>
       <c r="K37" t="n">
         <v>0.10227442708333333</v>
@@ -15674,16 +15674,16 @@
         <v>800.0</v>
       </c>
       <c r="G38" t="n">
-        <v>3420000.0</v>
+        <v>4626000.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>106.35211267605656</v>
+        <v>141.73943661971882</v>
       </c>
       <c r="J38" t="n">
-        <v>100.3521126760565</v>
+        <v>135.73943661971876</v>
       </c>
       <c r="K38" t="n">
         <v>0.0673465148754811</v>
@@ -15719,25 +15719,25 @@
         <v>800.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0566E7</v>
+        <v>9360000.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>316.0352112676044</v>
+        <v>280.647887323944</v>
       </c>
       <c r="J39" t="n">
-        <v>310.0352112676046</v>
+        <v>274.64788732394425</v>
       </c>
       <c r="K39" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0035291309481196576</v>
       </c>
       <c r="M39" t="n">
-        <v>0.11648063678441571</v>
+        <v>0.11700113094811963</v>
       </c>
     </row>
     <row r="40">
@@ -15764,25 +15764,25 @@
         <v>800.0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0548E7</v>
+        <v>9360000.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>315.5070422535199</v>
+        <v>280.647887323944</v>
       </c>
       <c r="J40" t="n">
-        <v>309.5070422535201</v>
+        <v>274.64788732394425</v>
       </c>
       <c r="K40" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0035291309481196576</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06462194204757361</v>
+        <v>0.06514243621127755</v>
       </c>
     </row>
     <row r="41">
@@ -15854,16 +15854,16 @@
         <v>800.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0584E7</v>
+        <v>9630000.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>316.56338028168886</v>
+        <v>288.57042253521126</v>
       </c>
       <c r="J42" t="n">
-        <v>310.5633802816891</v>
+        <v>282.5704225352115</v>
       </c>
       <c r="K42" t="n">
         <v>0.10227442708333333</v>
@@ -15899,16 +15899,16 @@
         <v>800.0</v>
       </c>
       <c r="G43" t="n">
-        <v>3402000.0</v>
+        <v>4356000.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.82394366197205</v>
+        <v>133.81690140845114</v>
       </c>
       <c r="J43" t="n">
-        <v>99.823943661972</v>
+        <v>127.8169014084511</v>
       </c>
       <c r="K43" t="n">
         <v>0.0673465148754811</v>
@@ -15944,25 +15944,25 @@
         <v>800.0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0584E7</v>
+        <v>9630000.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>316.56338028168886</v>
+        <v>288.57042253521126</v>
       </c>
       <c r="J44" t="n">
-        <v>310.5633802816891</v>
+        <v>282.5704225352115</v>
       </c>
       <c r="K44" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0033933951424227476</v>
       </c>
       <c r="M44" t="n">
-        <v>0.11648063678441571</v>
+        <v>0.11686539514242272</v>
       </c>
     </row>
     <row r="45">
@@ -15989,25 +15989,25 @@
         <v>800.0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.053E7</v>
+        <v>9630000.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>314.9788732394354</v>
+        <v>288.57042253521126</v>
       </c>
       <c r="J45" t="n">
-        <v>308.97887323943564</v>
+        <v>282.5704225352115</v>
       </c>
       <c r="K45" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0033933951424227476</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06462194204757361</v>
+        <v>0.06500670040558063</v>
       </c>
     </row>
     <row r="46">
@@ -16079,16 +16079,16 @@
         <v>800.0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0602E7</v>
+        <v>9846000.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>317.09154929577335</v>
+        <v>294.90845070422506</v>
       </c>
       <c r="J47" t="n">
-        <v>311.0915492957736</v>
+        <v>288.9084507042253</v>
       </c>
       <c r="K47" t="n">
         <v>0.10227442708333333</v>
@@ -16124,16 +16124,16 @@
         <v>800.0</v>
       </c>
       <c r="G48" t="n">
-        <v>3384000.0</v>
+        <v>4140000.0</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>105.29577464788754</v>
+        <v>127.47887323943702</v>
       </c>
       <c r="J48" t="n">
-        <v>99.29577464788748</v>
+        <v>121.47887323943696</v>
       </c>
       <c r="K48" t="n">
         <v>0.0673465148754811</v>
@@ -16169,25 +16169,25 @@
         <v>800.0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.0602E7</v>
+        <v>9846000.0</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>317.09154929577335</v>
+        <v>294.90845070422506</v>
       </c>
       <c r="J49" t="n">
-        <v>311.0915492957736</v>
+        <v>288.9084507042253</v>
       </c>
       <c r="K49" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.003298253222541736</v>
       </c>
       <c r="M49" t="n">
-        <v>0.11648063678441571</v>
+        <v>0.11677025322254171</v>
       </c>
     </row>
     <row r="50">
@@ -16214,25 +16214,25 @@
         <v>800.0</v>
       </c>
       <c r="G50" t="n">
-        <v>1.0512E7</v>
+        <v>9846000.0</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>314.45070422535093</v>
+        <v>294.90845070422506</v>
       </c>
       <c r="J50" t="n">
-        <v>308.45070422535116</v>
+        <v>288.9084507042253</v>
       </c>
       <c r="K50" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.003298253222541736</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06462194204757361</v>
+        <v>0.06491155848569963</v>
       </c>
     </row>
     <row r="51">
@@ -16304,16 +16304,16 @@
         <v>800.0</v>
       </c>
       <c r="G52" t="n">
-        <v>1.0602E7</v>
+        <v>1.0026E7</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>317.09154929577335</v>
+        <v>300.1901408450699</v>
       </c>
       <c r="J52" t="n">
-        <v>311.0915492957736</v>
+        <v>294.1901408450701</v>
       </c>
       <c r="K52" t="n">
         <v>0.10227442708333333</v>
@@ -16349,16 +16349,16 @@
         <v>800.0</v>
       </c>
       <c r="G53" t="n">
-        <v>3384000.0</v>
+        <v>3960000.0</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>105.29577464788754</v>
+        <v>122.1971830985919</v>
       </c>
       <c r="J53" t="n">
-        <v>99.29577464788748</v>
+        <v>116.19718309859185</v>
       </c>
       <c r="K53" t="n">
         <v>0.0673465148754811</v>
@@ -16394,25 +16394,25 @@
         <v>800.0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.0602E7</v>
+        <v>1.0026E7</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>317.09154929577335</v>
+        <v>300.1901408450699</v>
       </c>
       <c r="J54" t="n">
-        <v>311.0915492957736</v>
+        <v>294.1901408450701</v>
       </c>
       <c r="K54" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0032258966619009666</v>
       </c>
       <c r="M54" t="n">
-        <v>0.11648063678441571</v>
+        <v>0.11669789666190095</v>
       </c>
     </row>
     <row r="55">
@@ -16439,25 +16439,25 @@
         <v>800.0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.0512E7</v>
+        <v>1.0026E7</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>314.45070422535093</v>
+        <v>300.1901408450699</v>
       </c>
       <c r="J55" t="n">
-        <v>308.45070422535116</v>
+        <v>294.1901408450701</v>
       </c>
       <c r="K55" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0032258966619009666</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06462194204757361</v>
+        <v>0.06483920192505885</v>
       </c>
     </row>
     <row r="56">
@@ -16529,16 +16529,16 @@
         <v>800.0</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0584E7</v>
+        <v>1.0152E7</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>316.56338028168886</v>
+        <v>303.8873239436613</v>
       </c>
       <c r="J57" t="n">
-        <v>310.5633802816891</v>
+        <v>297.8873239436615</v>
       </c>
       <c r="K57" t="n">
         <v>0.10227442708333333</v>
@@ -16574,16 +16574,16 @@
         <v>800.0</v>
       </c>
       <c r="G58" t="n">
-        <v>3402000.0</v>
+        <v>3834000.0</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>105.82394366197205</v>
+        <v>118.50000000000033</v>
       </c>
       <c r="J58" t="n">
-        <v>99.823943661972</v>
+        <v>112.50000000000027</v>
       </c>
       <c r="K58" t="n">
         <v>0.0673465148754811</v>
@@ -16619,25 +16619,25 @@
         <v>800.0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.0584E7</v>
+        <v>1.0152E7</v>
       </c>
       <c r="H59" t="n">
         <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>316.56338028168886</v>
+        <v>303.8873239436613</v>
       </c>
       <c r="J59" t="n">
-        <v>310.5633802816891</v>
+        <v>297.8873239436615</v>
       </c>
       <c r="K59" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0031679811024413443</v>
       </c>
       <c r="M59" t="n">
-        <v>0.11648063678441571</v>
+        <v>0.11663998110244132</v>
       </c>
     </row>
     <row r="60">
@@ -16664,25 +16664,25 @@
         <v>800.0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.053E7</v>
+        <v>1.0152E7</v>
       </c>
       <c r="H60" t="n">
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>314.9788732394354</v>
+        <v>303.8873239436613</v>
       </c>
       <c r="J60" t="n">
-        <v>308.97887323943564</v>
+        <v>297.8873239436615</v>
       </c>
       <c r="K60" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0030086367844157354</v>
+        <v>0.0031679811024413443</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06462194204757361</v>
+        <v>0.06478128636559922</v>
       </c>
     </row>
     <row r="61">
@@ -16737,7 +16737,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C62" t="n">
         <v>7.0</v>
@@ -16754,25 +16754,25 @@
         <v>800.0</v>
       </c>
       <c r="G62" t="n">
-        <v>162000.0</v>
+        <v>306000.0</v>
       </c>
       <c r="H62" t="n">
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>10.753521126760567</v>
+        <v>14.97887323943663</v>
       </c>
       <c r="J62" t="n">
-        <v>4.753521126760564</v>
+        <v>8.978873239436622</v>
       </c>
       <c r="K62" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2792959729202279</v>
+        <v>0.0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.346642487795709</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C63" t="n">
         <v>7.0</v>
@@ -16799,25 +16799,25 @@
         <v>800.0</v>
       </c>
       <c r="G63" t="n">
-        <v>3690000.0</v>
+        <v>1854000.0</v>
       </c>
       <c r="H63" t="n">
         <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>108.27464788732418</v>
+        <v>54.401408450704146</v>
       </c>
       <c r="J63" t="n">
-        <v>108.27464788732418</v>
+        <v>54.401408450704146</v>
       </c>
       <c r="K63" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L63" t="n">
-        <v>0.011734709029810296</v>
+        <v>0.14786257389894417</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0790812239052914</v>
+        <v>0.21520908877442527</v>
       </c>
     </row>
     <row r="64">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C64" t="n">
         <v>7.0</v>
@@ -16844,25 +16844,25 @@
         <v>800.0</v>
       </c>
       <c r="G64" t="n">
-        <v>5454000.0</v>
+        <v>3078000.0</v>
       </c>
       <c r="H64" t="n">
         <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>160.0352112676063</v>
+        <v>90.31690140845079</v>
       </c>
       <c r="J64" t="n">
-        <v>160.0352112676063</v>
+        <v>90.31690140845079</v>
       </c>
       <c r="K64" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L64" t="n">
-        <v>0.007939324591125778</v>
+        <v>0.023355488845738938</v>
       </c>
       <c r="M64" t="n">
-        <v>0.07528583946660689</v>
+        <v>0.09070200372122003</v>
       </c>
     </row>
     <row r="65">
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C65" t="n">
         <v>7.0</v>
@@ -16889,25 +16889,25 @@
         <v>800.0</v>
       </c>
       <c r="G65" t="n">
-        <v>6318000.0</v>
+        <v>4014000.0</v>
       </c>
       <c r="H65" t="n">
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>185.38732394366284</v>
+        <v>117.78169014084538</v>
       </c>
       <c r="J65" t="n">
-        <v>185.38732394366284</v>
+        <v>117.78169014084538</v>
       </c>
       <c r="K65" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L65" t="n">
-        <v>0.006853604988920544</v>
+        <v>0.014067926029889537</v>
       </c>
       <c r="M65" t="n">
-        <v>0.07420011986440164</v>
+        <v>0.08141444090537064</v>
       </c>
     </row>
     <row r="66">
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C66" t="n">
         <v>7.0</v>
@@ -16934,25 +16934,25 @@
         <v>800.0</v>
       </c>
       <c r="G66" t="n">
-        <v>6786000.0</v>
+        <v>4734000.0</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>199.11971830986013</v>
+        <v>138.90845070422583</v>
       </c>
       <c r="J66" t="n">
-        <v>199.11971830986013</v>
+        <v>138.90845070422583</v>
       </c>
       <c r="K66" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L66" t="n">
-        <v>0.006380942575891541</v>
+        <v>0.010787512785251618</v>
       </c>
       <c r="M66" t="n">
-        <v>0.07372745745137264</v>
+        <v>0.07813402766073271</v>
       </c>
     </row>
     <row r="67">
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="C67" t="n">
         <v>7.0</v>
@@ -16979,25 +16979,25 @@
         <v>800.0</v>
       </c>
       <c r="G67" t="n">
-        <v>7002000.0</v>
+        <v>5274000.0</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>205.45774647887427</v>
+        <v>154.75352112676117</v>
       </c>
       <c r="J67" t="n">
-        <v>205.45774647887427</v>
+        <v>154.75352112676117</v>
       </c>
       <c r="K67" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0061841011596686654</v>
+        <v>0.009146826430080269</v>
       </c>
       <c r="M67" t="n">
-        <v>0.07353061603514977</v>
+        <v>0.07649334130556137</v>
       </c>
     </row>
     <row r="68">
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C68" t="n">
         <v>7.0</v>
@@ -17024,25 +17024,25 @@
         <v>800.0</v>
       </c>
       <c r="G68" t="n">
-        <v>7110000.0</v>
+        <v>5706000.0</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>208.62676056338134</v>
+        <v>167.42957746478945</v>
       </c>
       <c r="J68" t="n">
-        <v>208.62676056338134</v>
+        <v>167.42957746478945</v>
       </c>
       <c r="K68" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L68" t="n">
-        <v>0.006090165445850913</v>
+        <v>0.008210291300720514</v>
       </c>
       <c r="M68" t="n">
-        <v>0.07343668032133202</v>
+        <v>0.07555680617620161</v>
       </c>
     </row>
     <row r="69">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C69" t="n">
         <v>7.0</v>
@@ -17069,25 +17069,25 @@
         <v>800.0</v>
       </c>
       <c r="G69" t="n">
-        <v>7146000.0</v>
+        <v>6066000.0</v>
       </c>
       <c r="H69" t="n">
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>209.68309859155036</v>
+        <v>177.99295774647968</v>
       </c>
       <c r="J69" t="n">
-        <v>209.68309859155036</v>
+        <v>177.99295774647968</v>
       </c>
       <c r="K69" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L69" t="n">
-        <v>0.006059484511614889</v>
+        <v>0.007588691959341043</v>
       </c>
       <c r="M69" t="n">
-        <v>0.073405999387096</v>
+        <v>0.07493520683482215</v>
       </c>
     </row>
     <row r="70">
@@ -17097,7 +17097,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C70" t="n">
         <v>7.0</v>
@@ -17114,166 +17114,166 @@
         <v>800.0</v>
       </c>
       <c r="G70" t="n">
-        <v>7182000.0</v>
+        <v>6318000.0</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>210.73943661971938</v>
+        <v>185.38732394366284</v>
       </c>
       <c r="J70" t="n">
-        <v>210.73943661971938</v>
+        <v>185.38732394366284</v>
       </c>
       <c r="K70" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L70" t="n">
-        <v>0.006029111155666944</v>
+        <v>0.007138324484009231</v>
       </c>
       <c r="M70" t="n">
-        <v>0.07337562603114804</v>
+        <v>0.07448483935949034</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>AR-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G71" t="n">
-        <v>7218000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I71" t="n">
-        <v>211.7957746478884</v>
+        <v>0.0</v>
       </c>
       <c r="J71" t="n">
-        <v>211.7957746478884</v>
+        <v>0.0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0673465148754811</v>
+        <v>0.0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.005999040775838182</v>
+        <v>0.0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.07334555565131928</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="C72" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>AR-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G72" t="n">
-        <v>7218000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I72" t="n">
-        <v>211.7957746478884</v>
+        <v>0.0</v>
       </c>
       <c r="J72" t="n">
-        <v>211.7957746478884</v>
+        <v>0.0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0673465148754811</v>
+        <v>0.0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.005999040775838182</v>
+        <v>0.0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.07334555565131928</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C73" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>AR-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F73" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G73" t="n">
-        <v>7182000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>210.73943661971938</v>
+        <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>210.73943661971938</v>
+        <v>0.0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0673465148754811</v>
+        <v>0.0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.006029111155666944</v>
+        <v>0.0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.07337562603114804</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -17297,7 +17297,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
@@ -17318,7 +17318,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -17342,7 +17342,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
@@ -17363,7 +17363,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -17387,7 +17387,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I76" t="n">
         <v>0.0</v>
@@ -17408,7 +17408,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -17432,7 +17432,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
@@ -17453,7 +17453,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -17477,7 +17477,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
@@ -17498,7 +17498,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -17522,7 +17522,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -17543,7 +17543,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -17567,7 +17567,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
@@ -17588,7 +17588,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -17612,7 +17612,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -17633,7 +17633,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -17657,7 +17657,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -17678,7 +17678,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -17702,7 +17702,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -17723,7 +17723,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -17747,7 +17747,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -17768,7 +17768,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -17792,7 +17792,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -17813,7 +17813,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -17837,7 +17837,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -17858,7 +17858,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -17882,7 +17882,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>7074000.0</v>
+        <v>522000.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
@@ -17903,7 +17903,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -17927,7 +17927,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
@@ -17948,7 +17948,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -17972,7 +17972,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="n">
-        <v>7074000.0</v>
+        <v>3186000.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
@@ -17993,11 +17993,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C90" t="n">
         <v>8.0</v>
@@ -18017,7 +18017,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4410000.0</v>
+        <v>5580000.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -18038,11 +18038,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C91" t="n">
         <v>8.0</v>
@@ -18062,7 +18062,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="n">
-        <v>7074000.0</v>
+        <v>5580000.0</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -18083,11 +18083,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C92" t="n">
         <v>8.0</v>
@@ -18107,7 +18107,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="n">
-        <v>7074000.0</v>
+        <v>5580000.0</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
@@ -18128,7 +18128,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -18152,7 +18152,7 @@
         <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I93" t="n">
         <v>0.0</v>
@@ -18173,7 +18173,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -18197,7 +18197,7 @@
         <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I94" t="n">
         <v>0.0</v>
@@ -18218,7 +18218,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -18242,7 +18242,7 @@
         <v>0.0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I95" t="n">
         <v>0.0</v>
@@ -18263,7 +18263,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -18287,7 +18287,7 @@
         <v>0.0</v>
       </c>
       <c r="H96" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I96" t="n">
         <v>0.0</v>
@@ -18308,7 +18308,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -18332,7 +18332,7 @@
         <v>0.0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I97" t="n">
         <v>0.0</v>
@@ -18353,7 +18353,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -18377,7 +18377,7 @@
         <v>0.0</v>
       </c>
       <c r="H98" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I98" t="n">
         <v>0.0</v>
@@ -18398,7 +18398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -18422,7 +18422,7 @@
         <v>0.0</v>
       </c>
       <c r="H99" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I99" t="n">
         <v>0.0</v>
@@ -18443,7 +18443,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -18467,7 +18467,7 @@
         <v>0.0</v>
       </c>
       <c r="H100" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I100" t="n">
         <v>0.0</v>
@@ -18488,7 +18488,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -18512,7 +18512,7 @@
         <v>0.0</v>
       </c>
       <c r="H101" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I101" t="n">
         <v>0.0</v>
@@ -18533,7 +18533,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -18557,7 +18557,7 @@
         <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I102" t="n">
         <v>0.0</v>
@@ -18578,7 +18578,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -18602,7 +18602,7 @@
         <v>0.0</v>
       </c>
       <c r="H103" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I103" t="n">
         <v>0.0</v>
@@ -18623,7 +18623,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -18647,7 +18647,7 @@
         <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I104" t="n">
         <v>0.0</v>
@@ -18668,7 +18668,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -18692,7 +18692,7 @@
         <v>0.0</v>
       </c>
       <c r="H105" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I105" t="n">
         <v>0.0</v>
@@ -18713,7 +18713,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -18737,7 +18737,7 @@
         <v>0.0</v>
       </c>
       <c r="H106" t="n">
-        <v>1.2384E7</v>
+        <v>2304000.0</v>
       </c>
       <c r="I106" t="n">
         <v>0.0</v>
@@ -18758,7 +18758,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -18782,7 +18782,7 @@
         <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I107" t="n">
         <v>0.0</v>
@@ -18803,7 +18803,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -18827,7 +18827,7 @@
         <v>0.0</v>
       </c>
       <c r="H108" t="n">
-        <v>1.2384E7</v>
+        <v>5580000.0</v>
       </c>
       <c r="I108" t="n">
         <v>0.0</v>
@@ -18848,11 +18848,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C109" t="n">
         <v>8.0</v>
@@ -18872,7 +18872,7 @@
         <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>8388000.0</v>
+        <v>7956000.0</v>
       </c>
       <c r="I109" t="n">
         <v>0.0</v>
@@ -18893,11 +18893,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C110" t="n">
         <v>8.0</v>
@@ -18917,7 +18917,7 @@
         <v>0.0</v>
       </c>
       <c r="H110" t="n">
-        <v>1.2384E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I110" t="n">
         <v>0.0</v>
@@ -18938,11 +18938,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C111" t="n">
         <v>8.0</v>
@@ -18962,7 +18962,7 @@
         <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>1.2384E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I111" t="n">
         <v>0.0</v>
@@ -18983,7 +18983,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -19007,7 +19007,7 @@
         <v>0.0</v>
       </c>
       <c r="H112" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I112" t="n">
         <v>0.0</v>
@@ -19028,7 +19028,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -19052,7 +19052,7 @@
         <v>0.0</v>
       </c>
       <c r="H113" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I113" t="n">
         <v>0.0</v>
@@ -19073,7 +19073,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -19097,7 +19097,7 @@
         <v>0.0</v>
       </c>
       <c r="H114" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I114" t="n">
         <v>0.0</v>
@@ -19118,7 +19118,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -19142,7 +19142,7 @@
         <v>0.0</v>
       </c>
       <c r="H115" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I115" t="n">
         <v>0.0</v>
@@ -19163,7 +19163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -19187,7 +19187,7 @@
         <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I116" t="n">
         <v>0.0</v>
@@ -19208,7 +19208,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -19232,7 +19232,7 @@
         <v>0.0</v>
       </c>
       <c r="H117" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
@@ -19253,7 +19253,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -19277,7 +19277,7 @@
         <v>0.0</v>
       </c>
       <c r="H118" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I118" t="n">
         <v>0.0</v>
@@ -19298,7 +19298,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -19322,7 +19322,7 @@
         <v>0.0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I119" t="n">
         <v>0.0</v>
@@ -19343,7 +19343,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -19367,7 +19367,7 @@
         <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I120" t="n">
         <v>0.0</v>
@@ -19388,7 +19388,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -19412,7 +19412,7 @@
         <v>0.0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I121" t="n">
         <v>0.0</v>
@@ -19433,7 +19433,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -19457,7 +19457,7 @@
         <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I122" t="n">
         <v>0.0</v>
@@ -19478,7 +19478,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -19502,7 +19502,7 @@
         <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I123" t="n">
         <v>0.0</v>
@@ -19523,7 +19523,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -19547,7 +19547,7 @@
         <v>0.0</v>
       </c>
       <c r="H124" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I124" t="n">
         <v>0.0</v>
@@ -19568,7 +19568,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -19592,7 +19592,7 @@
         <v>0.0</v>
       </c>
       <c r="H125" t="n">
-        <v>1.7676E7</v>
+        <v>4104000.0</v>
       </c>
       <c r="I125" t="n">
         <v>0.0</v>
@@ -19613,7 +19613,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -19637,7 +19637,7 @@
         <v>0.0</v>
       </c>
       <c r="H126" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I126" t="n">
         <v>0.0</v>
@@ -19658,7 +19658,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -19682,7 +19682,7 @@
         <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>1.7676E7</v>
+        <v>7956000.0</v>
       </c>
       <c r="I127" t="n">
         <v>0.0</v>
@@ -19703,11 +19703,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C128" t="n">
         <v>8.0</v>
@@ -19727,7 +19727,7 @@
         <v>0.0</v>
       </c>
       <c r="H128" t="n">
-        <v>1.2348E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I128" t="n">
         <v>0.0</v>
@@ -19748,11 +19748,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C129" t="n">
         <v>8.0</v>
@@ -19772,7 +19772,7 @@
         <v>0.0</v>
       </c>
       <c r="H129" t="n">
-        <v>1.7676E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I129" t="n">
         <v>0.0</v>
@@ -19793,11 +19793,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C130" t="n">
         <v>8.0</v>
@@ -19817,7 +19817,7 @@
         <v>0.0</v>
       </c>
       <c r="H130" t="n">
-        <v>1.7676E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I130" t="n">
         <v>0.0</v>
@@ -19838,7 +19838,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -19862,7 +19862,7 @@
         <v>0.0</v>
       </c>
       <c r="H131" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I131" t="n">
         <v>0.0</v>
@@ -19883,7 +19883,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -19907,7 +19907,7 @@
         <v>0.0</v>
       </c>
       <c r="H132" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I132" t="n">
         <v>0.0</v>
@@ -19928,7 +19928,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -19952,7 +19952,7 @@
         <v>0.0</v>
       </c>
       <c r="H133" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I133" t="n">
         <v>0.0</v>
@@ -19973,7 +19973,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -19997,7 +19997,7 @@
         <v>0.0</v>
       </c>
       <c r="H134" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I134" t="n">
         <v>0.0</v>
@@ -20018,7 +20018,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -20042,7 +20042,7 @@
         <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I135" t="n">
         <v>0.0</v>
@@ -20063,7 +20063,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -20087,7 +20087,7 @@
         <v>0.0</v>
       </c>
       <c r="H136" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I136" t="n">
         <v>0.0</v>
@@ -20108,7 +20108,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -20132,7 +20132,7 @@
         <v>0.0</v>
       </c>
       <c r="H137" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I137" t="n">
         <v>0.0</v>
@@ -20153,7 +20153,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -20177,7 +20177,7 @@
         <v>0.0</v>
       </c>
       <c r="H138" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I138" t="n">
         <v>0.0</v>
@@ -20198,7 +20198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -20222,7 +20222,7 @@
         <v>0.0</v>
       </c>
       <c r="H139" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I139" t="n">
         <v>0.0</v>
@@ -20243,7 +20243,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -20267,7 +20267,7 @@
         <v>0.0</v>
       </c>
       <c r="H140" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I140" t="n">
         <v>0.0</v>
@@ -20288,7 +20288,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -20312,7 +20312,7 @@
         <v>0.0</v>
       </c>
       <c r="H141" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I141" t="n">
         <v>0.0</v>
@@ -20333,7 +20333,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -20357,7 +20357,7 @@
         <v>0.0</v>
       </c>
       <c r="H142" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I142" t="n">
         <v>0.0</v>
@@ -20378,7 +20378,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -20402,7 +20402,7 @@
         <v>0.0</v>
       </c>
       <c r="H143" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I143" t="n">
         <v>0.0</v>
@@ -20423,7 +20423,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -20447,7 +20447,7 @@
         <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>2.2968E7</v>
+        <v>5886000.0</v>
       </c>
       <c r="I144" t="n">
         <v>0.0</v>
@@ -20468,7 +20468,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -20492,7 +20492,7 @@
         <v>0.0</v>
       </c>
       <c r="H145" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I145" t="n">
         <v>0.0</v>
@@ -20513,7 +20513,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -20537,7 +20537,7 @@
         <v>0.0</v>
       </c>
       <c r="H146" t="n">
-        <v>2.2968E7</v>
+        <v>1.035E7</v>
       </c>
       <c r="I146" t="n">
         <v>0.0</v>
@@ -20558,11 +20558,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C147" t="n">
         <v>8.0</v>
@@ -20582,7 +20582,7 @@
         <v>0.0</v>
       </c>
       <c r="H147" t="n">
-        <v>1.6308E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I147" t="n">
         <v>0.0</v>
@@ -20603,11 +20603,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C148" t="n">
         <v>8.0</v>
@@ -20627,7 +20627,7 @@
         <v>0.0</v>
       </c>
       <c r="H148" t="n">
-        <v>2.2968E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I148" t="n">
         <v>0.0</v>
@@ -20648,11 +20648,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C149" t="n">
         <v>8.0</v>
@@ -20672,7 +20672,7 @@
         <v>0.0</v>
       </c>
       <c r="H149" t="n">
-        <v>2.2968E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I149" t="n">
         <v>0.0</v>
@@ -20693,7 +20693,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -20717,7 +20717,7 @@
         <v>0.0</v>
       </c>
       <c r="H150" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I150" t="n">
         <v>0.0</v>
@@ -20738,7 +20738,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -20762,7 +20762,7 @@
         <v>0.0</v>
       </c>
       <c r="H151" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I151" t="n">
         <v>0.0</v>
@@ -20783,7 +20783,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -20807,7 +20807,7 @@
         <v>0.0</v>
       </c>
       <c r="H152" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I152" t="n">
         <v>0.0</v>
@@ -20828,7 +20828,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -20852,7 +20852,7 @@
         <v>0.0</v>
       </c>
       <c r="H153" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I153" t="n">
         <v>0.0</v>
@@ -20873,7 +20873,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -20897,7 +20897,7 @@
         <v>0.0</v>
       </c>
       <c r="H154" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I154" t="n">
         <v>0.0</v>
@@ -20918,7 +20918,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -20942,7 +20942,7 @@
         <v>0.0</v>
       </c>
       <c r="H155" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I155" t="n">
         <v>0.0</v>
@@ -20963,7 +20963,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -20987,7 +20987,7 @@
         <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I156" t="n">
         <v>0.0</v>
@@ -21008,7 +21008,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -21032,7 +21032,7 @@
         <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I157" t="n">
         <v>0.0</v>
@@ -21053,7 +21053,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -21077,7 +21077,7 @@
         <v>0.0</v>
       </c>
       <c r="H158" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I158" t="n">
         <v>0.0</v>
@@ -21098,7 +21098,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -21122,7 +21122,7 @@
         <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I159" t="n">
         <v>0.0</v>
@@ -21143,7 +21143,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -21167,7 +21167,7 @@
         <v>0.0</v>
       </c>
       <c r="H160" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I160" t="n">
         <v>0.0</v>
@@ -21188,7 +21188,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -21212,7 +21212,7 @@
         <v>0.0</v>
       </c>
       <c r="H161" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I161" t="n">
         <v>0.0</v>
@@ -21233,7 +21233,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -21257,7 +21257,7 @@
         <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I162" t="n">
         <v>0.0</v>
@@ -21278,7 +21278,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -21302,7 +21302,7 @@
         <v>0.0</v>
       </c>
       <c r="H163" t="n">
-        <v>2.8278E7</v>
+        <v>7668000.0</v>
       </c>
       <c r="I163" t="n">
         <v>0.0</v>
@@ -21323,7 +21323,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -21347,7 +21347,7 @@
         <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I164" t="n">
         <v>0.0</v>
@@ -21368,7 +21368,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -21392,7 +21392,7 @@
         <v>0.0</v>
       </c>
       <c r="H165" t="n">
-        <v>2.8278E7</v>
+        <v>1.2726E7</v>
       </c>
       <c r="I165" t="n">
         <v>0.0</v>
@@ -21413,11 +21413,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C166" t="n">
         <v>8.0</v>
@@ -21437,7 +21437,7 @@
         <v>0.0</v>
       </c>
       <c r="H166" t="n">
-        <v>2.0286E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I166" t="n">
         <v>0.0</v>
@@ -21458,11 +21458,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C167" t="n">
         <v>8.0</v>
@@ -21482,7 +21482,7 @@
         <v>0.0</v>
       </c>
       <c r="H167" t="n">
-        <v>2.8278E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I167" t="n">
         <v>0.0</v>
@@ -21503,11 +21503,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C168" t="n">
         <v>8.0</v>
@@ -21527,7 +21527,7 @@
         <v>0.0</v>
       </c>
       <c r="H168" t="n">
-        <v>2.8278E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I168" t="n">
         <v>0.0</v>
@@ -21548,7 +21548,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -21572,7 +21572,7 @@
         <v>0.0</v>
       </c>
       <c r="H169" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I169" t="n">
         <v>0.0</v>
@@ -21593,7 +21593,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -21617,7 +21617,7 @@
         <v>0.0</v>
       </c>
       <c r="H170" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I170" t="n">
         <v>0.0</v>
@@ -21638,7 +21638,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -21662,7 +21662,7 @@
         <v>0.0</v>
       </c>
       <c r="H171" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I171" t="n">
         <v>0.0</v>
@@ -21683,7 +21683,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -21707,7 +21707,7 @@
         <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I172" t="n">
         <v>0.0</v>
@@ -21728,7 +21728,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -21752,7 +21752,7 @@
         <v>0.0</v>
       </c>
       <c r="H173" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I173" t="n">
         <v>0.0</v>
@@ -21773,7 +21773,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -21797,7 +21797,7 @@
         <v>0.0</v>
       </c>
       <c r="H174" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I174" t="n">
         <v>0.0</v>
@@ -21818,7 +21818,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -21842,7 +21842,7 @@
         <v>0.0</v>
       </c>
       <c r="H175" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I175" t="n">
         <v>0.0</v>
@@ -21863,7 +21863,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -21887,7 +21887,7 @@
         <v>0.0</v>
       </c>
       <c r="H176" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I176" t="n">
         <v>0.0</v>
@@ -21908,7 +21908,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -21932,7 +21932,7 @@
         <v>0.0</v>
       </c>
       <c r="H177" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I177" t="n">
         <v>0.0</v>
@@ -21953,7 +21953,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -21977,7 +21977,7 @@
         <v>0.0</v>
       </c>
       <c r="H178" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I178" t="n">
         <v>0.0</v>
@@ -21998,7 +21998,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -22022,7 +22022,7 @@
         <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I179" t="n">
         <v>0.0</v>
@@ -22043,7 +22043,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -22067,7 +22067,7 @@
         <v>0.0</v>
       </c>
       <c r="H180" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I180" t="n">
         <v>0.0</v>
@@ -22088,7 +22088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -22112,7 +22112,7 @@
         <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I181" t="n">
         <v>0.0</v>
@@ -22133,7 +22133,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -22157,7 +22157,7 @@
         <v>0.0</v>
       </c>
       <c r="H182" t="n">
-        <v>3.357E7</v>
+        <v>9450000.0</v>
       </c>
       <c r="I182" t="n">
         <v>0.0</v>
@@ -22178,7 +22178,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -22202,7 +22202,7 @@
         <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I183" t="n">
         <v>0.0</v>
@@ -22223,7 +22223,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -22247,7 +22247,7 @@
         <v>0.0</v>
       </c>
       <c r="H184" t="n">
-        <v>3.357E7</v>
+        <v>1.512E7</v>
       </c>
       <c r="I184" t="n">
         <v>0.0</v>
@@ -22268,11 +22268,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C185" t="n">
         <v>8.0</v>
@@ -22292,7 +22292,7 @@
         <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>2.4246E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I185" t="n">
         <v>0.0</v>
@@ -22313,11 +22313,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C186" t="n">
         <v>8.0</v>
@@ -22337,7 +22337,7 @@
         <v>0.0</v>
       </c>
       <c r="H186" t="n">
-        <v>3.357E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I186" t="n">
         <v>0.0</v>
@@ -22358,11 +22358,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C187" t="n">
         <v>8.0</v>
@@ -22382,7 +22382,7 @@
         <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>3.357E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I187" t="n">
         <v>0.0</v>
@@ -22403,7 +22403,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -22427,7 +22427,7 @@
         <v>0.0</v>
       </c>
       <c r="H188" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I188" t="n">
         <v>0.0</v>
@@ -22448,7 +22448,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -22472,7 +22472,7 @@
         <v>0.0</v>
       </c>
       <c r="H189" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I189" t="n">
         <v>0.0</v>
@@ -22493,7 +22493,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -22517,7 +22517,7 @@
         <v>0.0</v>
       </c>
       <c r="H190" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I190" t="n">
         <v>0.0</v>
@@ -22538,7 +22538,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -22562,7 +22562,7 @@
         <v>0.0</v>
       </c>
       <c r="H191" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I191" t="n">
         <v>0.0</v>
@@ -22583,7 +22583,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -22607,7 +22607,7 @@
         <v>0.0</v>
       </c>
       <c r="H192" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I192" t="n">
         <v>0.0</v>
@@ -22628,7 +22628,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -22652,7 +22652,7 @@
         <v>0.0</v>
       </c>
       <c r="H193" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I193" t="n">
         <v>0.0</v>
@@ -22673,7 +22673,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -22697,7 +22697,7 @@
         <v>0.0</v>
       </c>
       <c r="H194" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I194" t="n">
         <v>0.0</v>
@@ -22718,7 +22718,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -22742,7 +22742,7 @@
         <v>0.0</v>
       </c>
       <c r="H195" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I195" t="n">
         <v>0.0</v>
@@ -22763,7 +22763,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -22787,7 +22787,7 @@
         <v>0.0</v>
       </c>
       <c r="H196" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I196" t="n">
         <v>0.0</v>
@@ -22808,7 +22808,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -22832,7 +22832,7 @@
         <v>0.0</v>
       </c>
       <c r="H197" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I197" t="n">
         <v>0.0</v>
@@ -22853,7 +22853,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -22877,7 +22877,7 @@
         <v>0.0</v>
       </c>
       <c r="H198" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I198" t="n">
         <v>0.0</v>
@@ -22898,7 +22898,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -22922,7 +22922,7 @@
         <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I199" t="n">
         <v>0.0</v>
@@ -22943,7 +22943,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -22967,7 +22967,7 @@
         <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I200" t="n">
         <v>0.0</v>
@@ -22988,7 +22988,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -23012,7 +23012,7 @@
         <v>0.0</v>
       </c>
       <c r="H201" t="n">
-        <v>3.888E7</v>
+        <v>1.1232E7</v>
       </c>
       <c r="I201" t="n">
         <v>0.0</v>
@@ -23033,7 +23033,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -23057,7 +23057,7 @@
         <v>0.0</v>
       </c>
       <c r="H202" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I202" t="n">
         <v>0.0</v>
@@ -23078,7 +23078,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -23102,7 +23102,7 @@
         <v>0.0</v>
       </c>
       <c r="H203" t="n">
-        <v>3.888E7</v>
+        <v>1.7496E7</v>
       </c>
       <c r="I203" t="n">
         <v>0.0</v>
@@ -23123,11 +23123,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C204" t="n">
         <v>8.0</v>
@@ -23147,7 +23147,7 @@
         <v>0.0</v>
       </c>
       <c r="H204" t="n">
-        <v>2.8224E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I204" t="n">
         <v>0.0</v>
@@ -23168,11 +23168,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C205" t="n">
         <v>8.0</v>
@@ -23192,7 +23192,7 @@
         <v>0.0</v>
       </c>
       <c r="H205" t="n">
-        <v>3.888E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I205" t="n">
         <v>0.0</v>
@@ -23213,11 +23213,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C206" t="n">
         <v>8.0</v>
@@ -23237,7 +23237,7 @@
         <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>3.888E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I206" t="n">
         <v>0.0</v>
@@ -23258,7 +23258,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -23282,7 +23282,7 @@
         <v>0.0</v>
       </c>
       <c r="H207" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I207" t="n">
         <v>0.0</v>
@@ -23303,7 +23303,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -23327,7 +23327,7 @@
         <v>0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I208" t="n">
         <v>0.0</v>
@@ -23348,7 +23348,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -23372,7 +23372,7 @@
         <v>0.0</v>
       </c>
       <c r="H209" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I209" t="n">
         <v>0.0</v>
@@ -23393,7 +23393,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -23417,7 +23417,7 @@
         <v>0.0</v>
       </c>
       <c r="H210" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I210" t="n">
         <v>0.0</v>
@@ -23438,7 +23438,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -23462,7 +23462,7 @@
         <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I211" t="n">
         <v>0.0</v>
@@ -23483,7 +23483,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -23507,7 +23507,7 @@
         <v>0.0</v>
       </c>
       <c r="H212" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I212" t="n">
         <v>0.0</v>
@@ -23528,7 +23528,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -23552,7 +23552,7 @@
         <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I213" t="n">
         <v>0.0</v>
@@ -23573,7 +23573,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -23597,7 +23597,7 @@
         <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I214" t="n">
         <v>0.0</v>
@@ -23618,7 +23618,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -23642,7 +23642,7 @@
         <v>0.0</v>
       </c>
       <c r="H215" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I215" t="n">
         <v>0.0</v>
@@ -23663,7 +23663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -23687,7 +23687,7 @@
         <v>0.0</v>
       </c>
       <c r="H216" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I216" t="n">
         <v>0.0</v>
@@ -23708,7 +23708,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -23732,7 +23732,7 @@
         <v>0.0</v>
       </c>
       <c r="H217" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I217" t="n">
         <v>0.0</v>
@@ -23753,7 +23753,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -23777,7 +23777,7 @@
         <v>0.0</v>
       </c>
       <c r="H218" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I218" t="n">
         <v>0.0</v>
@@ -23798,7 +23798,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -23822,7 +23822,7 @@
         <v>0.0</v>
       </c>
       <c r="H219" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I219" t="n">
         <v>0.0</v>
@@ -23843,7 +23843,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -23867,7 +23867,7 @@
         <v>0.0</v>
       </c>
       <c r="H220" t="n">
-        <v>4.4172E7</v>
+        <v>1.3032E7</v>
       </c>
       <c r="I220" t="n">
         <v>0.0</v>
@@ -23888,7 +23888,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -23912,7 +23912,7 @@
         <v>0.0</v>
       </c>
       <c r="H221" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I221" t="n">
         <v>0.0</v>
@@ -23933,7 +23933,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -23957,7 +23957,7 @@
         <v>0.0</v>
       </c>
       <c r="H222" t="n">
-        <v>4.4172E7</v>
+        <v>1.989E7</v>
       </c>
       <c r="I222" t="n">
         <v>0.0</v>
@@ -23978,11 +23978,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C223" t="n">
         <v>8.0</v>
@@ -24002,7 +24002,7 @@
         <v>0.0</v>
       </c>
       <c r="H223" t="n">
-        <v>3.2184E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I223" t="n">
         <v>0.0</v>
@@ -24023,11 +24023,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C224" t="n">
         <v>8.0</v>
@@ -24047,7 +24047,7 @@
         <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>4.4172E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I224" t="n">
         <v>0.0</v>
@@ -24068,11 +24068,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C225" t="n">
         <v>8.0</v>
@@ -24092,7 +24092,7 @@
         <v>0.0</v>
       </c>
       <c r="H225" t="n">
-        <v>4.4172E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I225" t="n">
         <v>0.0</v>
@@ -24113,11 +24113,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C226" t="n">
         <v>8.0</v>
@@ -24137,7 +24137,7 @@
         <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>18000.0</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I226" t="n">
         <v>0.0</v>
@@ -24158,7 +24158,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -24182,7 +24182,7 @@
         <v>0.0</v>
       </c>
       <c r="H227" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I227" t="n">
         <v>0.0</v>
@@ -24203,7 +24203,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -24227,7 +24227,7 @@
         <v>0.0</v>
       </c>
       <c r="H228" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I228" t="n">
         <v>0.0</v>
@@ -24248,7 +24248,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -24272,7 +24272,7 @@
         <v>0.0</v>
       </c>
       <c r="H229" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I229" t="n">
         <v>0.0</v>
@@ -24293,7 +24293,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -24317,7 +24317,7 @@
         <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I230" t="n">
         <v>0.0</v>
@@ -24338,7 +24338,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -24362,7 +24362,7 @@
         <v>0.0</v>
       </c>
       <c r="H231" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I231" t="n">
         <v>0.0</v>
@@ -24383,7 +24383,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -24407,7 +24407,7 @@
         <v>0.0</v>
       </c>
       <c r="H232" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I232" t="n">
         <v>0.0</v>
@@ -24428,7 +24428,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -24452,7 +24452,7 @@
         <v>0.0</v>
       </c>
       <c r="H233" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I233" t="n">
         <v>0.0</v>
@@ -24473,7 +24473,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -24497,7 +24497,7 @@
         <v>0.0</v>
       </c>
       <c r="H234" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I234" t="n">
         <v>0.0</v>
@@ -24518,7 +24518,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -24542,7 +24542,7 @@
         <v>0.0</v>
       </c>
       <c r="H235" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I235" t="n">
         <v>0.0</v>
@@ -24563,7 +24563,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -24587,7 +24587,7 @@
         <v>0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I236" t="n">
         <v>0.0</v>
@@ -24608,7 +24608,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -24632,7 +24632,7 @@
         <v>0.0</v>
       </c>
       <c r="H237" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I237" t="n">
         <v>0.0</v>
@@ -24653,7 +24653,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -24677,7 +24677,7 @@
         <v>0.0</v>
       </c>
       <c r="H238" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I238" t="n">
         <v>0.0</v>
@@ -24698,7 +24698,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -24722,7 +24722,7 @@
         <v>0.0</v>
       </c>
       <c r="H239" t="n">
-        <v>4.9482E7</v>
+        <v>1.4814E7</v>
       </c>
       <c r="I239" t="n">
         <v>0.0</v>
@@ -24743,7 +24743,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -24767,7 +24767,7 @@
         <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I240" t="n">
         <v>0.0</v>
@@ -24788,7 +24788,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -24812,7 +24812,7 @@
         <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>4.9482E7</v>
+        <v>2.2266E7</v>
       </c>
       <c r="I241" t="n">
         <v>0.0</v>
@@ -24833,11 +24833,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C242" t="n">
         <v>8.0</v>
@@ -24857,7 +24857,7 @@
         <v>0.0</v>
       </c>
       <c r="H242" t="n">
-        <v>4.9482E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I242" t="n">
         <v>0.0</v>
@@ -24878,11 +24878,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C243" t="n">
         <v>8.0</v>
@@ -24902,7 +24902,7 @@
         <v>0.0</v>
       </c>
       <c r="H243" t="n">
-        <v>3.6162E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I243" t="n">
         <v>0.0</v>
@@ -24923,11 +24923,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C244" t="n">
         <v>8.0</v>
@@ -24947,7 +24947,7 @@
         <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>4.9482E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I244" t="n">
         <v>0.0</v>
@@ -24968,11 +24968,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C245" t="n">
         <v>8.0</v>
@@ -24992,7 +24992,7 @@
         <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>4.9482E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I245" t="n">
         <v>0.0</v>
@@ -25013,11 +25013,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C246" t="n">
         <v>8.0</v>
@@ -25037,7 +25037,7 @@
         <v>0.0</v>
       </c>
       <c r="H246" t="n">
-        <v>72000.0</v>
+        <v>2.466E7</v>
       </c>
       <c r="I246" t="n">
         <v>0.0</v>
@@ -25058,7 +25058,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -25082,7 +25082,7 @@
         <v>0.0</v>
       </c>
       <c r="H247" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I247" t="n">
         <v>0.0</v>
@@ -25103,7 +25103,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -25127,7 +25127,7 @@
         <v>0.0</v>
       </c>
       <c r="H248" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I248" t="n">
         <v>0.0</v>
@@ -25148,7 +25148,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -25172,7 +25172,7 @@
         <v>0.0</v>
       </c>
       <c r="H249" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I249" t="n">
         <v>0.0</v>
@@ -25193,7 +25193,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -25217,7 +25217,7 @@
         <v>0.0</v>
       </c>
       <c r="H250" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I250" t="n">
         <v>0.0</v>
@@ -25238,7 +25238,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -25262,7 +25262,7 @@
         <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I251" t="n">
         <v>0.0</v>
@@ -25283,7 +25283,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -25307,7 +25307,7 @@
         <v>0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I252" t="n">
         <v>0.0</v>
@@ -25328,7 +25328,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -25352,7 +25352,7 @@
         <v>0.0</v>
       </c>
       <c r="H253" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I253" t="n">
         <v>0.0</v>
@@ -25373,7 +25373,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -25397,7 +25397,7 @@
         <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I254" t="n">
         <v>0.0</v>
@@ -25418,7 +25418,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -25442,7 +25442,7 @@
         <v>0.0</v>
       </c>
       <c r="H255" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I255" t="n">
         <v>0.0</v>
@@ -25463,7 +25463,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -25487,7 +25487,7 @@
         <v>0.0</v>
       </c>
       <c r="H256" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I256" t="n">
         <v>0.0</v>
@@ -25508,7 +25508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -25532,7 +25532,7 @@
         <v>0.0</v>
       </c>
       <c r="H257" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I257" t="n">
         <v>0.0</v>
@@ -25553,7 +25553,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -25577,7 +25577,7 @@
         <v>0.0</v>
       </c>
       <c r="H258" t="n">
-        <v>5.4774E7</v>
+        <v>1.6596E7</v>
       </c>
       <c r="I258" t="n">
         <v>0.0</v>
@@ -25598,7 +25598,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -25622,7 +25622,7 @@
         <v>0.0</v>
       </c>
       <c r="H259" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I259" t="n">
         <v>0.0</v>
@@ -25643,7 +25643,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -25667,7 +25667,7 @@
         <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5.4774E7</v>
+        <v>2.466E7</v>
       </c>
       <c r="I260" t="n">
         <v>0.0</v>
@@ -25688,11 +25688,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C261" t="n">
         <v>8.0</v>
@@ -25712,7 +25712,7 @@
         <v>0.0</v>
       </c>
       <c r="H261" t="n">
-        <v>5.4774E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I261" t="n">
         <v>0.0</v>
@@ -25733,11 +25733,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C262" t="n">
         <v>8.0</v>
@@ -25757,7 +25757,7 @@
         <v>0.0</v>
       </c>
       <c r="H262" t="n">
-        <v>5.4774E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I262" t="n">
         <v>0.0</v>
@@ -25778,11 +25778,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C263" t="n">
         <v>8.0</v>
@@ -25802,7 +25802,7 @@
         <v>0.0</v>
       </c>
       <c r="H263" t="n">
-        <v>4.0122E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I263" t="n">
         <v>0.0</v>
@@ -25823,11 +25823,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C264" t="n">
         <v>8.0</v>
@@ -25847,7 +25847,7 @@
         <v>0.0</v>
       </c>
       <c r="H264" t="n">
-        <v>5.4774E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I264" t="n">
         <v>0.0</v>
@@ -25868,11 +25868,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C265" t="n">
         <v>8.0</v>
@@ -25892,7 +25892,7 @@
         <v>0.0</v>
       </c>
       <c r="H265" t="n">
-        <v>5.4774E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I265" t="n">
         <v>0.0</v>
@@ -25913,11 +25913,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C266" t="n">
         <v>8.0</v>
@@ -25937,7 +25937,7 @@
         <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>126000.0</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I266" t="n">
         <v>0.0</v>
@@ -25958,7 +25958,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -25982,7 +25982,7 @@
         <v>0.0</v>
       </c>
       <c r="H267" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I267" t="n">
         <v>0.0</v>
@@ -26003,7 +26003,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -26027,7 +26027,7 @@
         <v>0.0</v>
       </c>
       <c r="H268" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I268" t="n">
         <v>0.0</v>
@@ -26048,7 +26048,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -26072,7 +26072,7 @@
         <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I269" t="n">
         <v>0.0</v>
@@ -26093,7 +26093,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -26117,7 +26117,7 @@
         <v>0.0</v>
       </c>
       <c r="H270" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I270" t="n">
         <v>0.0</v>
@@ -26138,7 +26138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -26162,7 +26162,7 @@
         <v>0.0</v>
       </c>
       <c r="H271" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I271" t="n">
         <v>0.0</v>
@@ -26183,7 +26183,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -26207,7 +26207,7 @@
         <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I272" t="n">
         <v>0.0</v>
@@ -26228,7 +26228,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -26252,7 +26252,7 @@
         <v>0.0</v>
       </c>
       <c r="H273" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I273" t="n">
         <v>0.0</v>
@@ -26273,7 +26273,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -26297,7 +26297,7 @@
         <v>0.0</v>
       </c>
       <c r="H274" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I274" t="n">
         <v>0.0</v>
@@ -26318,7 +26318,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -26342,7 +26342,7 @@
         <v>0.0</v>
       </c>
       <c r="H275" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I275" t="n">
         <v>0.0</v>
@@ -26363,7 +26363,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -26387,7 +26387,7 @@
         <v>0.0</v>
       </c>
       <c r="H276" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I276" t="n">
         <v>0.0</v>
@@ -26408,7 +26408,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -26432,7 +26432,7 @@
         <v>0.0</v>
       </c>
       <c r="H277" t="n">
-        <v>6.0084E7</v>
+        <v>1.8378E7</v>
       </c>
       <c r="I277" t="n">
         <v>0.0</v>
@@ -26453,7 +26453,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -26477,7 +26477,7 @@
         <v>0.0</v>
       </c>
       <c r="H278" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I278" t="n">
         <v>0.0</v>
@@ -26498,7 +26498,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -26522,7 +26522,7 @@
         <v>0.0</v>
       </c>
       <c r="H279" t="n">
-        <v>6.0084E7</v>
+        <v>2.7036E7</v>
       </c>
       <c r="I279" t="n">
         <v>0.0</v>
@@ -26543,11 +26543,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C280" t="n">
         <v>8.0</v>
@@ -26567,7 +26567,7 @@
         <v>0.0</v>
       </c>
       <c r="H280" t="n">
-        <v>6.0084E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I280" t="n">
         <v>0.0</v>
@@ -26588,11 +26588,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C281" t="n">
         <v>8.0</v>
@@ -26612,7 +26612,7 @@
         <v>0.0</v>
       </c>
       <c r="H281" t="n">
-        <v>6.0084E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I281" t="n">
         <v>0.0</v>
@@ -26633,11 +26633,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C282" t="n">
         <v>8.0</v>
@@ -26657,7 +26657,7 @@
         <v>0.0</v>
       </c>
       <c r="H282" t="n">
-        <v>6.0084E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I282" t="n">
         <v>0.0</v>
@@ -26678,11 +26678,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C283" t="n">
         <v>8.0</v>
@@ -26702,7 +26702,7 @@
         <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>4.41E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I283" t="n">
         <v>0.0</v>
@@ -26723,11 +26723,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C284" t="n">
         <v>8.0</v>
@@ -26747,7 +26747,7 @@
         <v>0.0</v>
       </c>
       <c r="H284" t="n">
-        <v>6.0084E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I284" t="n">
         <v>0.0</v>
@@ -26768,11 +26768,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C285" t="n">
         <v>8.0</v>
@@ -26792,7 +26792,7 @@
         <v>0.0</v>
       </c>
       <c r="H285" t="n">
-        <v>6.0084E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I285" t="n">
         <v>0.0</v>
@@ -26813,11 +26813,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C286" t="n">
         <v>8.0</v>
@@ -26837,7 +26837,7 @@
         <v>0.0</v>
       </c>
       <c r="H286" t="n">
-        <v>162000.0</v>
+        <v>2.943E7</v>
       </c>
       <c r="I286" t="n">
         <v>0.0</v>
@@ -26858,7 +26858,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -26882,7 +26882,7 @@
         <v>0.0</v>
       </c>
       <c r="H287" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I287" t="n">
         <v>0.0</v>
@@ -26903,7 +26903,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -26927,7 +26927,7 @@
         <v>0.0</v>
       </c>
       <c r="H288" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I288" t="n">
         <v>0.0</v>
@@ -26948,7 +26948,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -26972,7 +26972,7 @@
         <v>0.0</v>
       </c>
       <c r="H289" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I289" t="n">
         <v>0.0</v>
@@ -26993,7 +26993,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -27017,7 +27017,7 @@
         <v>0.0</v>
       </c>
       <c r="H290" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I290" t="n">
         <v>0.0</v>
@@ -27038,7 +27038,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -27062,7 +27062,7 @@
         <v>0.0</v>
       </c>
       <c r="H291" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I291" t="n">
         <v>0.0</v>
@@ -27083,7 +27083,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -27107,7 +27107,7 @@
         <v>0.0</v>
       </c>
       <c r="H292" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I292" t="n">
         <v>0.0</v>
@@ -27128,7 +27128,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -27152,7 +27152,7 @@
         <v>0.0</v>
       </c>
       <c r="H293" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I293" t="n">
         <v>0.0</v>
@@ -27173,7 +27173,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -27197,7 +27197,7 @@
         <v>0.0</v>
       </c>
       <c r="H294" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I294" t="n">
         <v>0.0</v>
@@ -27218,7 +27218,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -27242,7 +27242,7 @@
         <v>0.0</v>
       </c>
       <c r="H295" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I295" t="n">
         <v>0.0</v>
@@ -27263,7 +27263,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -27287,7 +27287,7 @@
         <v>0.0</v>
       </c>
       <c r="H296" t="n">
-        <v>6.5376E7</v>
+        <v>2.016E7</v>
       </c>
       <c r="I296" t="n">
         <v>0.0</v>
@@ -27308,7 +27308,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -27332,7 +27332,7 @@
         <v>0.0</v>
       </c>
       <c r="H297" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I297" t="n">
         <v>0.0</v>
@@ -27353,7 +27353,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -27377,7 +27377,7 @@
         <v>0.0</v>
       </c>
       <c r="H298" t="n">
-        <v>6.5376E7</v>
+        <v>2.943E7</v>
       </c>
       <c r="I298" t="n">
         <v>0.0</v>
@@ -27392,366 +27392,6 @@
         <v>0.0</v>
       </c>
       <c r="M298" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C299" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H299" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M299" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C300" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H300" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M300" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C301" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H301" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M301" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C302" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H302" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M302" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C303" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H303" t="n">
-        <v>4.806E7</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M303" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C304" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H304" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L304" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M304" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C305" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H305" t="n">
-        <v>6.5376E7</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M305" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C306" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H306" t="n">
-        <v>180000.0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M306" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -27804,6 +27444,11 @@
           <t>waiting qty</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>warehousing cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -27825,7 +27470,10 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>162000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -27849,6 +27497,9 @@
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8965.3248</v>
       </c>
     </row>
     <row r="4">
@@ -27873,6 +27524,9 @@
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -27896,6 +27550,9 @@
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -27919,6 +27576,9 @@
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -27941,6 +27601,9 @@
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5884.8768</v>
       </c>
     </row>
     <row r="8">
@@ -27965,6 +27628,9 @@
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -27980,13 +27646,16 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.63968E7</v>
+        <v>8596800.0</v>
       </c>
       <c r="F9" t="n">
-        <v>52780.57771009012</v>
+        <v>9402.178073611292</v>
       </c>
       <c r="G9" t="n">
-        <v>485040.0</v>
+        <v>751680.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -28003,13 +27672,16 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.46608E7</v>
+        <v>1.98336E7</v>
       </c>
       <c r="F10" t="n">
-        <v>109724.58970312064</v>
+        <v>21883.21326773071</v>
       </c>
       <c r="G10" t="n">
-        <v>269280.0</v>
+        <v>548160.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -28034,6 +27706,9 @@
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -28056,6 +27731,9 @@
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6152.3712</v>
       </c>
     </row>
     <row r="13">
@@ -28080,6 +27758,9 @@
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
+      <c r="H13" t="n">
+        <v>496.79999999999995</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -28103,6 +27784,9 @@
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -28126,6 +27810,9 @@
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -28148,6 +27835,9 @@
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11346.739200000002</v>
       </c>
     </row>
     <row r="17">
@@ -28164,13 +27854,16 @@
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3600000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>9559.60770780358</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>252000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -28187,13 +27880,16 @@
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>5400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>14339.411561705376</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>306000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -28217,6 +27913,9 @@
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14288.486400000005</v>
       </c>
     </row>
     <row r="20">
@@ -28241,6 +27940,9 @@
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -28264,6 +27966,9 @@
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
+      <c r="H21" t="n">
+        <v>31064.7708</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -28287,6 +27992,9 @@
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
+      <c r="H22" t="n">
+        <v>10929.599999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -28309,6 +28017,9 @@
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7192.627200000001</v>
       </c>
     </row>
     <row r="24">
@@ -28333,6 +28044,9 @@
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -28348,13 +28062,16 @@
         <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.39648E7</v>
+        <v>2.75856E7</v>
       </c>
       <c r="F25" t="n">
-        <v>112091.76911818427</v>
+        <v>28416.200214191245</v>
       </c>
       <c r="G25" t="n">
-        <v>533040.0</v>
+        <v>439680.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -28371,13 +28088,16 @@
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.19824E7</v>
+        <v>3.14976E7</v>
       </c>
       <c r="F26" t="n">
-        <v>102539.86466900057</v>
+        <v>32262.033204935204</v>
       </c>
       <c r="G26" t="n">
-        <v>3453120.0</v>
+        <v>703920.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -28402,6 +28122,9 @@
       <c r="G27" t="n">
         <v>0.0</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -28424,6 +28147,9 @@
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7222.348800000001</v>
       </c>
     </row>
     <row r="29">
@@ -28448,6 +28174,9 @@
       <c r="G29" t="n">
         <v>0.0</v>
       </c>
+      <c r="H29" t="n">
+        <v>39123.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -28471,6 +28200,9 @@
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
+      <c r="H30" t="n">
+        <v>38166.240000000005</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -28494,6 +28226,9 @@
       <c r="G31" t="n">
         <v>0.0</v>
       </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -28516,6 +28251,9 @@
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14498.6112</v>
       </c>
     </row>
     <row r="33">
@@ -28532,13 +28270,16 @@
         <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>6480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="n">
-        <v>17207.293874046478</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n">
-        <v>144000.0</v>
+        <v>306000.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -28555,13 +28296,16 @@
         <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>6840000.0</v>
+        <v>2160000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>18163.254644826826</v>
+        <v>983.7646246821474</v>
       </c>
       <c r="G34" t="n">
-        <v>90000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -28585,6 +28329,9 @@
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>16880.0256</v>
       </c>
     </row>
     <row r="36">
@@ -28609,6 +28356,9 @@
       <c r="G36" t="n">
         <v>0.0</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -28632,6 +28382,9 @@
       <c r="G37" t="n">
         <v>0.0</v>
       </c>
+      <c r="H37" t="n">
+        <v>43812.8544</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -28641,10 +28394,10 @@
         <v>5.0</v>
       </c>
       <c r="C38" t="n">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1884.7013397565024</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
         <v>0.0</v>
@@ -28654,6 +28407,9 @@
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>46575.000000000015</v>
       </c>
     </row>
     <row r="39">
@@ -28677,6 +28433,9 @@
       </c>
       <c r="G39" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7668.1728</v>
       </c>
     </row>
     <row r="40">
@@ -28701,6 +28460,9 @@
       <c r="G40" t="n">
         <v>0.0</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -28716,13 +28478,16 @@
         <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.543E7</v>
+        <v>3.32256E7</v>
       </c>
       <c r="F41" t="n">
-        <v>114798.2187905979</v>
+        <v>34737.87522598785</v>
       </c>
       <c r="G41" t="n">
-        <v>308400.0</v>
+        <v>498240.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -28739,13 +28504,16 @@
         <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.36912E7</v>
+        <v>3.43584E7</v>
       </c>
       <c r="F42" t="n">
-        <v>107235.6567227214</v>
+        <v>34849.02660602443</v>
       </c>
       <c r="G42" t="n">
-        <v>3115680.0</v>
+        <v>581520.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -28770,6 +28538,9 @@
       <c r="G43" t="n">
         <v>0.0</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -28792,6 +28563,9 @@
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7935.6672</v>
       </c>
     </row>
     <row r="45">
@@ -28802,10 +28576,10 @@
         <v>6.0</v>
       </c>
       <c r="C45" t="n">
-        <v>400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>3738.6574067857323</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
@@ -28815,6 +28589,9 @@
       </c>
       <c r="G45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>64584.0</v>
       </c>
     </row>
     <row r="46">
@@ -28839,6 +28616,9 @@
       <c r="G46" t="n">
         <v>0.0</v>
       </c>
+      <c r="H46" t="n">
+        <v>44143.5456</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -28862,6 +28642,9 @@
       <c r="G47" t="n">
         <v>0.0</v>
       </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -28884,6 +28667,9 @@
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16599.859200000003</v>
       </c>
     </row>
     <row r="49">
@@ -28900,13 +28686,16 @@
         <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>6840000.0</v>
+        <v>2880000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>18163.254644826833</v>
+        <v>1311.6861662428626</v>
       </c>
       <c r="G49" t="n">
-        <v>252000.0</v>
+        <v>198000.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -28923,13 +28712,16 @@
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>7200000.0</v>
+        <v>3960000.0</v>
       </c>
       <c r="F50" t="n">
-        <v>19119.2154156072</v>
+        <v>1803.5684785839394</v>
       </c>
       <c r="G50" t="n">
-        <v>162000.0</v>
+        <v>252000.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -28940,10 +28732,10 @@
         <v>7.0</v>
       </c>
       <c r="C51" t="n">
-        <v>90560.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" t="n">
-        <v>804.9832050888891</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
@@ -28953,6 +28745,9 @@
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>16880.0256</v>
       </c>
     </row>
     <row r="52">
@@ -28977,6 +28772,9 @@
       <c r="G52" t="n">
         <v>0.0</v>
       </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -29000,6 +28798,9 @@
       <c r="G53" t="n">
         <v>0.0</v>
       </c>
+      <c r="H53" t="n">
+        <v>45665.844</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -29009,10 +28810,10 @@
         <v>7.0</v>
       </c>
       <c r="C54" t="n">
-        <v>240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" t="n">
-        <v>2231.0097861714053</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
@@ -29022,6 +28823,9 @@
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>63590.4</v>
       </c>
     </row>
     <row r="55">
@@ -29045,6 +28849,9 @@
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13255.833600000002</v>
       </c>
     </row>
     <row r="56">
@@ -29069,6 +28876,9 @@
       <c r="G56" t="n">
         <v>0.0</v>
       </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -29084,13 +28894,16 @@
         <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3.2328E7</v>
+        <v>3.39888E7</v>
       </c>
       <c r="F57" t="n">
-        <v>101796.90925956325</v>
+        <v>33915.36085157802</v>
       </c>
       <c r="G57" t="n">
-        <v>4553520.0</v>
+        <v>1649760.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -29107,13 +28920,16 @@
         <v>0.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3.6246E7</v>
+        <v>3.62064E7</v>
       </c>
       <c r="F58" t="n">
-        <v>113600.81369114251</v>
+        <v>34390.56833107</v>
       </c>
       <c r="G58" t="n">
-        <v>1573200.0</v>
+        <v>238320.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -29138,6 +28954,9 @@
       <c r="G59" t="n">
         <v>0.0</v>
       </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -29160,6 +28979,9 @@
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>16049.663999999999</v>
       </c>
     </row>
     <row r="61">
@@ -29170,10 +28992,10 @@
         <v>8.0</v>
       </c>
       <c r="C61" t="n">
-        <v>80000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" t="n">
-        <v>737.1845147674971</v>
+        <v>0.0</v>
       </c>
       <c r="E61" t="n">
         <v>0.0</v>
@@ -29183,6 +29005,9 @@
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>64708.199999999975</v>
       </c>
     </row>
     <row r="62">
@@ -29193,10 +29018,10 @@
         <v>8.0</v>
       </c>
       <c r="C62" t="n">
-        <v>46400.0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" t="n">
-        <v>820.085539147369</v>
+        <v>0.0</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
@@ -29206,6 +29031,9 @@
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>45896.1468</v>
       </c>
     </row>
     <row r="63">
@@ -29230,6 +29058,9 @@
       <c r="G63" t="n">
         <v>0.0</v>
       </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -29252,6 +29083,9 @@
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>17860.608</v>
       </c>
     </row>
     <row r="65">
@@ -29268,13 +29102,16 @@
         <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>7200000.0</v>
+        <v>4680000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>19119.215415607185</v>
+        <v>2131.4900201446544</v>
       </c>
       <c r="G65" t="n">
-        <v>108000.0</v>
+        <v>306000.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -29291,13 +29128,16 @@
         <v>0.0</v>
       </c>
       <c r="E66" t="n">
-        <v>7200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F66" t="n">
-        <v>19119.2154156072</v>
+        <v>2459.4115617053717</v>
       </c>
       <c r="G66" t="n">
-        <v>90000.0</v>
+        <v>180000.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -29308,10 +29148,10 @@
         <v>9.0</v>
       </c>
       <c r="C67" t="n">
-        <v>90560.0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" t="n">
-        <v>804.9832050888892</v>
+        <v>0.0</v>
       </c>
       <c r="E67" t="n">
         <v>0.0</v>
@@ -29321,6 +29161,9 @@
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>17930.6496</v>
       </c>
     </row>
     <row r="68">
@@ -29345,6 +29188,9 @@
       <c r="G68" t="n">
         <v>0.0</v>
       </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -29368,6 +29214,9 @@
       <c r="G69" t="n">
         <v>0.0</v>
       </c>
+      <c r="H69" t="n">
+        <v>47414.404800000004</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -29377,10 +29226,10 @@
         <v>9.0</v>
       </c>
       <c r="C70" t="n">
-        <v>280000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" t="n">
-        <v>2594.634073644596</v>
+        <v>0.0</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
@@ -29390,6 +29239,9 @@
       </c>
       <c r="G70" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>69303.6</v>
       </c>
     </row>
     <row r="71">
@@ -29400,10 +29252,10 @@
         <v>9.0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0</v>
+        <v>1668800.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0</v>
+        <v>1668800.0000000002</v>
       </c>
       <c r="E71" t="n">
         <v>0.0</v>
@@ -29413,6 +29265,9 @@
       </c>
       <c r="G71" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22618.13760000001</v>
       </c>
     </row>
     <row r="72">
@@ -29437,6 +29292,9 @@
       <c r="G72" t="n">
         <v>0.0</v>
       </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -29452,13 +29310,16 @@
         <v>0.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.06768E7</v>
+        <v>3.19536E7</v>
       </c>
       <c r="F73" t="n">
-        <v>102610.06949114213</v>
+        <v>36785.616557930334</v>
       </c>
       <c r="G73" t="n">
-        <v>3797040.0</v>
+        <v>1838880.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -29475,13 +29336,16 @@
         <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.47088E7</v>
+        <v>3.29616E7</v>
       </c>
       <c r="F74" t="n">
-        <v>117257.43420693185</v>
+        <v>38933.53703742222</v>
       </c>
       <c r="G74" t="n">
-        <v>620880.0</v>
+        <v>637200.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -29506,6 +29370,9 @@
       <c r="G75" t="n">
         <v>0.0</v>
       </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -29515,10 +29382,10 @@
         <v>10.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0</v>
+        <v>918400.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0</v>
+        <v>918399.9999999999</v>
       </c>
       <c r="E76" t="n">
         <v>0.0</v>
@@ -29528,6 +29395,9 @@
       </c>
       <c r="G76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>16843.8912</v>
       </c>
     </row>
     <row r="77">
@@ -29538,10 +29408,10 @@
         <v>10.0</v>
       </c>
       <c r="C77" t="n">
-        <v>120000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D77" t="n">
-        <v>1105.7211605477687</v>
+        <v>0.0</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
@@ -29551,6 +29421,9 @@
       </c>
       <c r="G77" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>66819.59999999999</v>
       </c>
     </row>
     <row r="78">
@@ -29575,6 +29448,9 @@
       <c r="G78" t="n">
         <v>0.0</v>
       </c>
+      <c r="H78" t="n">
+        <v>43007.260800000004</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -29598,6 +29474,9 @@
       <c r="G79" t="n">
         <v>0.0</v>
       </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -29607,10 +29486,10 @@
         <v>10.0</v>
       </c>
       <c r="C80" t="n">
-        <v>181120.0</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>1609.9664101777785</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
@@ -29620,6 +29499,9 @@
       </c>
       <c r="G80" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>18701.1072</v>
       </c>
     </row>
     <row r="81">
@@ -29636,13 +29518,16 @@
         <v>0.0</v>
       </c>
       <c r="E81" t="n">
-        <v>7200000.0</v>
+        <v>5760000.0</v>
       </c>
       <c r="F81" t="n">
-        <v>19119.215415607192</v>
+        <v>2623.3723324857315</v>
       </c>
       <c r="G81" t="n">
-        <v>108000.0</v>
+        <v>126000.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -29659,13 +29544,16 @@
         <v>0.0</v>
       </c>
       <c r="E82" t="n">
-        <v>7200000.0</v>
+        <v>6120000.0</v>
       </c>
       <c r="F82" t="n">
-        <v>19119.215415607192</v>
+        <v>2787.3331032660876</v>
       </c>
       <c r="G82" t="n">
-        <v>126000.0</v>
+        <v>72000.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -29676,10 +29564,10 @@
         <v>11.0</v>
       </c>
       <c r="C83" t="n">
-        <v>271680.0</v>
+        <v>0.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2414.9496152666675</v>
+        <v>0.0</v>
       </c>
       <c r="E83" t="n">
         <v>0.0</v>
@@ -29689,6 +29577,9 @@
       </c>
       <c r="G83" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>17440.3584</v>
       </c>
     </row>
     <row r="84">
@@ -29713,6 +29604,9 @@
       <c r="G84" t="n">
         <v>0.0</v>
       </c>
+      <c r="H84" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -29736,6 +29630,9 @@
       <c r="G85" t="n">
         <v>0.0</v>
       </c>
+      <c r="H85" t="n">
+        <v>43383.9504</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -29745,10 +29642,10 @@
         <v>11.0</v>
       </c>
       <c r="C86" t="n">
-        <v>320000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D86" t="n">
-        <v>2965.2338024146206</v>
+        <v>0.0</v>
       </c>
       <c r="E86" t="n">
         <v>0.0</v>
@@ -29758,6 +29655,9 @@
       </c>
       <c r="G86" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>68434.19999999998</v>
       </c>
     </row>
     <row r="87">
@@ -29781,6 +29681,9 @@
       </c>
       <c r="G87" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>13100.070400000002</v>
       </c>
     </row>
     <row r="88">
@@ -29805,6 +29708,9 @@
       <c r="G88" t="n">
         <v>0.0</v>
       </c>
+      <c r="H88" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -29820,13 +29726,16 @@
         <v>0.0</v>
       </c>
       <c r="E89" t="n">
-        <v>3.30768E7</v>
+        <v>3.34656E7</v>
       </c>
       <c r="F89" t="n">
-        <v>108896.02295430041</v>
+        <v>37574.781266641876</v>
       </c>
       <c r="G89" t="n">
-        <v>1903920.0</v>
+        <v>1158720.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -29843,13 +29752,16 @@
         <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>3.15408E7</v>
+        <v>3.21024E7</v>
       </c>
       <c r="F90" t="n">
-        <v>103316.07449114224</v>
+        <v>35135.07380348393</v>
       </c>
       <c r="G90" t="n">
-        <v>3896400.0</v>
+        <v>3103440.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -29874,6 +29786,9 @@
       <c r="G91" t="n">
         <v>0.0</v>
       </c>
+      <c r="H91" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -29896,6 +29811,9 @@
       </c>
       <c r="G92" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12215.577600000002</v>
       </c>
     </row>
     <row r="93">
@@ -29906,10 +29824,10 @@
         <v>12.0</v>
       </c>
       <c r="C93" t="n">
-        <v>160000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D93" t="n">
-        <v>1474.3250072521043</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
         <v>0.0</v>
@@ -29919,6 +29837,9 @@
       </c>
       <c r="G93" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>64832.39999999999</v>
       </c>
     </row>
     <row r="94">
@@ -29943,6 +29864,9 @@
       <c r="G94" t="n">
         <v>0.0</v>
       </c>
+      <c r="H94" t="n">
+        <v>42056.21280000001</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -29966,6 +29890,9 @@
       <c r="G95" t="n">
         <v>0.0</v>
       </c>
+      <c r="H95" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -29988,6 +29915,9 @@
       </c>
       <c r="G96" t="n">
         <v>0.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>17440.3584</v>
       </c>
     </row>
     <row r="97">
@@ -30004,13 +29934,16 @@
         <v>0.0</v>
       </c>
       <c r="E97" t="n">
-        <v>7200000.0</v>
+        <v>6120000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>19119.2154156072</v>
+        <v>2787.33310326609</v>
       </c>
       <c r="G97" t="n">
-        <v>108000.0</v>
+        <v>270000.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -30058,10 +29991,10 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>7004160.0</v>
+        <v>2949120.0</v>
       </c>
       <c r="D2" t="n">
-        <v>62259.61976320002</v>
+        <v>25176.486502399992</v>
       </c>
     </row>
     <row r="3">
@@ -30074,10 +30007,10 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6912000.0</v>
+        <v>3110400.0</v>
       </c>
       <c r="D3" t="n">
-        <v>89404.7206</v>
+        <v>40129.48106999998</v>
       </c>
     </row>
     <row r="4">
@@ -30090,10 +30023,10 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>8847360.0</v>
+        <v>4792320.0</v>
       </c>
       <c r="D4" t="n">
-        <v>78643.7302272</v>
+        <v>40911.79056639999</v>
       </c>
     </row>
     <row r="5">
@@ -30106,26 +30039,26 @@
         <v>2.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7430400.0</v>
+        <v>4838400.0</v>
       </c>
       <c r="D5" t="n">
-        <v>96110.074645</v>
+        <v>62423.63721999996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.05408E7</v>
+        <v>1440000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>136342.19891500002</v>
+        <v>15551.51764624682</v>
       </c>
     </row>
     <row r="7">
@@ -30141,39 +30074,39 @@
         <v>2664000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>37694.90406505264</v>
+        <v>37606.99206505263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>3.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.044E7</v>
+        <v>3052800.0</v>
       </c>
       <c r="D8" t="n">
-        <v>104638.0729352895</v>
+        <v>53855.23031355791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6892800.0</v>
+        <v>1440000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>121825.12078092626</v>
+        <v>15551.51764624682</v>
       </c>
     </row>
     <row r="10">
@@ -30186,10 +30119,10 @@
         <v>3.0</v>
       </c>
       <c r="C10" t="n">
-        <v>9584640.0</v>
+        <v>6266880.0</v>
       </c>
       <c r="D10" t="n">
-        <v>85197.37441280004</v>
+        <v>53500.03381760001</v>
       </c>
     </row>
     <row r="11">
@@ -30199,13 +30132,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8985600.0</v>
+        <v>6220800.0</v>
       </c>
       <c r="D11" t="n">
-        <v>116226.13678</v>
+        <v>80258.96213999999</v>
       </c>
     </row>
     <row r="12">
@@ -30221,39 +30154,39 @@
         <v>3624000.0</v>
       </c>
       <c r="D12" t="n">
-        <v>51278.65327768421</v>
+        <v>51159.061277684224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>4.0</v>
       </c>
       <c r="C13" t="n">
-        <v>9004800.0</v>
+        <v>5040000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>159153.152217979</v>
+        <v>54430.31176186387</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>4.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.044E7</v>
+        <v>4972800.0</v>
       </c>
       <c r="D14" t="n">
-        <v>100410.59793528942</v>
+        <v>87726.44434724214</v>
       </c>
     </row>
     <row r="15">
@@ -30266,10 +30199,10 @@
         <v>4.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.032192E7</v>
+        <v>7004160.0</v>
       </c>
       <c r="D15" t="n">
-        <v>91751.0185984</v>
+        <v>59794.15544320001</v>
       </c>
     </row>
     <row r="16">
@@ -30279,13 +30212,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.22688E7</v>
+        <v>7084800.0</v>
       </c>
       <c r="D16" t="n">
-        <v>158693.37906500016</v>
+        <v>91406.04021500002</v>
       </c>
     </row>
     <row r="17">
@@ -30298,10 +30231,10 @@
         <v>5.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.08E7</v>
+        <v>6120000.0</v>
       </c>
       <c r="D17" t="n">
-        <v>101773.87234685113</v>
+        <v>66093.94999654898</v>
       </c>
     </row>
     <row r="18">
@@ -30314,10 +30247,10 @@
         <v>5.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1794000.0</v>
+        <v>1704000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>25384.63134110526</v>
+        <v>24054.922852421056</v>
       </c>
     </row>
     <row r="19">
@@ -30330,10 +30263,10 @@
         <v>5.0</v>
       </c>
       <c r="C19" t="n">
-        <v>9700800.0</v>
+        <v>6124800.0</v>
       </c>
       <c r="D19" t="n">
-        <v>171454.43530518955</v>
+        <v>108049.17276745268</v>
       </c>
     </row>
     <row r="20">
@@ -30346,42 +30279,42 @@
         <v>5.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.032192E7</v>
+        <v>8110080.0</v>
       </c>
       <c r="D20" t="n">
-        <v>91751.0185984</v>
+        <v>69235.33788160002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2574000.0</v>
+        <v>7948800.0</v>
       </c>
       <c r="D21" t="n">
-        <v>36421.42757636843</v>
+        <v>102553.11829000004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>6.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.00368E7</v>
+        <v>2664000.0</v>
       </c>
       <c r="D22" t="n">
-        <v>177392.9857610843</v>
+        <v>37606.99206505264</v>
       </c>
     </row>
     <row r="23">
@@ -30394,234 +30327,234 @@
         <v>6.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.08E7</v>
+        <v>9000000.0</v>
       </c>
       <c r="D23" t="n">
-        <v>100928.37734685114</v>
+        <v>92124.01528904261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>6.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.032192E7</v>
+        <v>7084800.0</v>
       </c>
       <c r="D24" t="n">
-        <v>91751.0185984</v>
+        <v>124984.77978429479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>6.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0368E7</v>
+        <v>8478720.0</v>
       </c>
       <c r="D25" t="n">
-        <v>134107.0809</v>
+        <v>72382.39869440002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3366000.0</v>
+        <v>8467200.0</v>
       </c>
       <c r="D26" t="n">
-        <v>47628.02067678947</v>
+        <v>109241.36513500006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>7.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.03632E7</v>
+        <v>3366000.0</v>
       </c>
       <c r="D27" t="n">
-        <v>183161.86334681066</v>
+        <v>47516.94267678948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.044E7</v>
+        <v>7867200.0</v>
       </c>
       <c r="D28" t="n">
-        <v>97028.61793528941</v>
+        <v>138787.2995030211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>7.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.069056E7</v>
+        <v>9000000.0</v>
       </c>
       <c r="D29" t="n">
-        <v>95027.84069120002</v>
+        <v>90433.02528904265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>7.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.05408E7</v>
+        <v>8847360.0</v>
       </c>
       <c r="D30" t="n">
-        <v>136342.19891500002</v>
+        <v>75529.45950720002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.044E7</v>
+        <v>8985600.0</v>
       </c>
       <c r="D31" t="n">
-        <v>96183.12293528946</v>
+        <v>115929.61198000007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>8.0</v>
       </c>
       <c r="C32" t="n">
-        <v>2052000.0</v>
+        <v>9360000.0</v>
       </c>
       <c r="D32" t="n">
-        <v>29035.263941999998</v>
+        <v>91784.41970060435</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>8.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.06464E7</v>
+        <v>1962000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>188167.21301677907</v>
+        <v>27697.041453315793</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>8.0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.032192E7</v>
+        <v>8606400.0</v>
       </c>
       <c r="D34" t="n">
-        <v>91751.01859840003</v>
+        <v>151827.71690598954</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>8.0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.07136E7</v>
+        <v>9584640.0</v>
       </c>
       <c r="D35" t="n">
-        <v>138577.31693000003</v>
+        <v>81823.58113280003</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="n">
-        <v>2574000.0</v>
+        <v>9504000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>36421.42757636843</v>
+        <v>122617.85882500009</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>9.0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.04208E7</v>
+        <v>2664000.0</v>
       </c>
       <c r="D37" t="n">
-        <v>184179.90056782117</v>
+        <v>37606.99206505264</v>
       </c>
     </row>
     <row r="38">
@@ -30634,122 +30567,122 @@
         <v>9.0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.08E7</v>
+        <v>9720000.0</v>
       </c>
       <c r="D38" t="n">
-        <v>100082.8823468511</v>
+        <v>93981.30911216604</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>9.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.069056E7</v>
+        <v>9004800.0</v>
       </c>
       <c r="D39" t="n">
-        <v>95027.84069120004</v>
+        <v>158855.993817979</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>9.0</v>
       </c>
       <c r="C40" t="n">
-        <v>9849600.0</v>
+        <v>9584640.0</v>
       </c>
       <c r="D40" t="n">
-        <v>127401.726855</v>
+        <v>81823.58113280003</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C41" t="n">
-        <v>3060000.0</v>
+        <v>9504000.0</v>
       </c>
       <c r="D41" t="n">
-        <v>43298.200615263166</v>
+        <v>122617.85882500009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>10.0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0608E7</v>
+        <v>2904000.0</v>
       </c>
       <c r="D42" t="n">
-        <v>187488.5215361054</v>
+        <v>40995.009368210536</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>10.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.05408E7</v>
+        <v>1.008E7</v>
       </c>
       <c r="D43" t="n">
-        <v>136342.19891500002</v>
+        <v>96178.1985237278</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>10.0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.044E7</v>
+        <v>9953280.0</v>
       </c>
       <c r="D44" t="n">
-        <v>96183.12293528942</v>
+        <v>84970.64194560003</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>10.0</v>
       </c>
       <c r="C45" t="n">
-        <v>1.069056E7</v>
+        <v>9388800.0</v>
       </c>
       <c r="D45" t="n">
-        <v>95027.84069120004</v>
+        <v>165630.23662471585</v>
       </c>
     </row>
     <row r="46">
@@ -30759,13 +30692,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C46" t="n">
         <v>9849600.0</v>
       </c>
       <c r="D46" t="n">
-        <v>127401.726855</v>
+        <v>127076.6900550001</v>
       </c>
     </row>
     <row r="47">
@@ -30778,10 +30711,10 @@
         <v>11.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2268000.0</v>
+        <v>2424000.0</v>
       </c>
       <c r="D47" t="n">
-        <v>32091.607514842104</v>
+        <v>34218.974761894744</v>
       </c>
     </row>
     <row r="48">
@@ -30794,10 +30727,10 @@
         <v>11.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.08E7</v>
+        <v>1.008E7</v>
       </c>
       <c r="D48" t="n">
-        <v>100082.88234685117</v>
+        <v>95332.70352372775</v>
       </c>
     </row>
     <row r="49">
@@ -30810,10 +30743,10 @@
         <v>11.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.04736E7</v>
+        <v>9580800.0</v>
       </c>
       <c r="D49" t="n">
-        <v>185113.10135374748</v>
+        <v>169017.35802808427</v>
       </c>
     </row>
     <row r="50">
@@ -30826,10 +30759,10 @@
         <v>11.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.069056E7</v>
+        <v>9953280.0</v>
       </c>
       <c r="D50" t="n">
-        <v>95027.84069120004</v>
+        <v>84970.64194560003</v>
       </c>
     </row>
     <row r="51">
@@ -30839,61 +30772,61 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05408E7</v>
+        <v>9158400.0</v>
       </c>
       <c r="D51" t="n">
-        <v>136342.19891500002</v>
+        <v>118159.02759500008</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>12.0</v>
       </c>
       <c r="C52" t="n">
-        <v>3624000.0</v>
+        <v>1.00224E7</v>
       </c>
       <c r="D52" t="n">
-        <v>51278.653277684214</v>
+        <v>129306.1056700001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>12.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.044E7</v>
+        <v>3672000.0</v>
       </c>
       <c r="D53" t="n">
-        <v>96183.1229352894</v>
+        <v>51836.664738315805</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>12.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1.032192E7</v>
+        <v>1.008E7</v>
       </c>
       <c r="D54" t="n">
-        <v>91751.01859840003</v>
+        <v>94487.20852372781</v>
       </c>
     </row>
     <row r="55">
@@ -30906,10 +30839,26 @@
         <v>12.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.05408E7</v>
+        <v>9926400.0</v>
       </c>
       <c r="D55" t="n">
-        <v>186300.81144492645</v>
+        <v>175114.17655414745</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9953280.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>84970.64194560003</v>
       </c>
     </row>
   </sheetData>

--- a/CMPC_Manufacturing/OutputCMPC.xlsx
+++ b/CMPC_Manufacturing/OutputCMPC.xlsx
@@ -187,13 +187,13 @@
         <v>9406.0</v>
       </c>
       <c r="L2" t="n">
-        <v>6372000.0</v>
+        <v>1116000.0</v>
       </c>
       <c r="M2" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007405966557776811</v>
+        <v>0.042285680023435336</v>
       </c>
     </row>
     <row r="3">
@@ -233,13 +233,13 @@
         <v>9406.0</v>
       </c>
       <c r="L3" t="n">
-        <v>9720000.0</v>
+        <v>5652000.0</v>
       </c>
       <c r="M3" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004855022521209242</v>
+        <v>0.00834940178806685</v>
       </c>
     </row>
     <row r="4">
@@ -279,13 +279,13 @@
         <v>9406.0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2312E7</v>
+        <v>9144000.0</v>
       </c>
       <c r="M4" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0038329125167441387</v>
+        <v>0.005160850711521636</v>
       </c>
     </row>
     <row r="5">
@@ -325,13 +325,13 @@
         <v>9406.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3986E7</v>
+        <v>1.1844E7</v>
       </c>
       <c r="M5" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.003984364987010624</v>
       </c>
     </row>
     <row r="6">
@@ -371,13 +371,13 @@
         <v>9406.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3986E7</v>
+        <v>1.3968E7</v>
       </c>
       <c r="M6" t="n">
         <v>47190.818906153836</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.003378495053418803</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +739,13 @@
         <v>8704.0</v>
       </c>
       <c r="L14" t="n">
-        <v>6372000.0</v>
+        <v>1116000.0</v>
       </c>
       <c r="M14" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009969296463614852</v>
+        <v>0.05692146690515577</v>
       </c>
     </row>
     <row r="15">
@@ -785,13 +785,13 @@
         <v>8704.0</v>
       </c>
       <c r="L15" t="n">
-        <v>9720000.0</v>
+        <v>5652000.0</v>
       </c>
       <c r="M15" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N15" t="n">
-        <v>0.006535427681703069</v>
+        <v>0.011239270535412921</v>
       </c>
     </row>
     <row r="16">
@@ -831,13 +831,13 @@
         <v>8704.0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2312E7</v>
+        <v>9144000.0</v>
       </c>
       <c r="M16" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N16" t="n">
-        <v>0.005159548169765581</v>
+        <v>0.0069471081655898765</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>8704.0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4292E7</v>
+        <v>1.1844E7</v>
       </c>
       <c r="M17" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N17" t="n">
-        <v>0.004444749304936596</v>
+        <v>0.0053634208937988715</v>
       </c>
     </row>
     <row r="18">
@@ -923,13 +923,13 @@
         <v>8704.0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.584E7</v>
+        <v>1.3968E7</v>
       </c>
       <c r="M18" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N18" t="n">
-        <v>0.004010376077408701</v>
+        <v>0.004547849159948012</v>
       </c>
     </row>
     <row r="19">
@@ -969,13 +969,13 @@
         <v>8704.0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.7064E7</v>
+        <v>1.5588E7</v>
       </c>
       <c r="M19" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N19" t="n">
-        <v>0.003722711970590356</v>
+        <v>0.0040752089470203895</v>
       </c>
     </row>
     <row r="20">
@@ -1015,13 +1015,13 @@
         <v>8704.0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.8E7</v>
+        <v>1.6848E7</v>
       </c>
       <c r="M20" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0035291309481196576</v>
+        <v>0.003770439047136386</v>
       </c>
     </row>
     <row r="21">
@@ -1061,13 +1061,13 @@
         <v>8704.0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.872E7</v>
+        <v>1.782E7</v>
       </c>
       <c r="M21" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0033933951424227476</v>
+        <v>0.003564778735474401</v>
       </c>
     </row>
     <row r="22">
@@ -1107,13 +1107,13 @@
         <v>8704.0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.926E7</v>
+        <v>1.8612E7</v>
       </c>
       <c r="M22" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N22" t="n">
-        <v>0.003298253222541736</v>
+        <v>0.0034130860233265543</v>
       </c>
     </row>
     <row r="23">
@@ -1153,13 +1153,13 @@
         <v>8704.0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.9692E7</v>
+        <v>1.9188E7</v>
       </c>
       <c r="M23" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0032258966619009666</v>
+        <v>0.003310629407241705</v>
       </c>
     </row>
     <row r="24">
@@ -1199,13 +1199,13 @@
         <v>8704.0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.0052E7</v>
+        <v>1.962E7</v>
       </c>
       <c r="M24" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0031679811024413443</v>
+        <v>0.0032377348147886766</v>
       </c>
     </row>
     <row r="25">
@@ -1245,13 +1245,13 @@
         <v>8704.0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.0304E7</v>
+        <v>1.998E7</v>
       </c>
       <c r="M25" t="n">
         <v>63524.35706615383</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0031286621880493417</v>
+        <v>0.00317939725055825</v>
       </c>
     </row>
     <row r="26">
@@ -1291,13 +1291,13 @@
         <v>9528.0</v>
       </c>
       <c r="L26" t="n">
-        <v>2664000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="M26" t="n">
         <v>29397.04951384615</v>
       </c>
       <c r="N26" t="n">
-        <v>0.011034928496188494</v>
+        <v>0.05268288443341604</v>
       </c>
     </row>
     <row r="27">
@@ -9685,10 +9685,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E209" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F209" t="n">
         <v>2.0</v>
@@ -9700,22 +9700,22 @@
         <v>10672.48</v>
       </c>
       <c r="I209" t="n">
-        <v>488.87129307692294</v>
+        <v>0.0</v>
       </c>
       <c r="J209" t="n">
-        <v>1456.0</v>
+        <v>0.0</v>
       </c>
       <c r="K209" t="n">
         <v>9406.0</v>
       </c>
       <c r="L209" t="n">
-        <v>306000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M209" t="n">
-        <v>45245.94761307692</v>
+        <v>43301.07631999999</v>
       </c>
       <c r="N209" t="n">
-        <v>0.14786257389894417</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
@@ -9755,13 +9755,13 @@
         <v>9406.0</v>
       </c>
       <c r="L210" t="n">
-        <v>1854000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M210" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N210" t="n">
-        <v>0.023355488845738938</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
@@ -9777,10 +9777,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F211" t="n">
         <v>2.0</v>
@@ -9792,22 +9792,22 @@
         <v>10672.48</v>
       </c>
       <c r="I211" t="n">
-        <v>0.0</v>
+        <v>488.87129307692294</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0</v>
+        <v>1456.0</v>
       </c>
       <c r="K211" t="n">
         <v>9406.0</v>
       </c>
       <c r="L211" t="n">
-        <v>3078000.0</v>
+        <v>1602000.0</v>
       </c>
       <c r="M211" t="n">
-        <v>43301.07631999999</v>
+        <v>45245.94761307692</v>
       </c>
       <c r="N211" t="n">
-        <v>0.014067926029889537</v>
+        <v>0.028243412991933156</v>
       </c>
     </row>
     <row r="212">
@@ -9847,13 +9847,13 @@
         <v>9406.0</v>
       </c>
       <c r="L212" t="n">
-        <v>4014000.0</v>
+        <v>2862000.0</v>
       </c>
       <c r="M212" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N212" t="n">
-        <v>0.010787512785251618</v>
+        <v>0.015129656296296293</v>
       </c>
     </row>
     <row r="213">
@@ -9893,13 +9893,13 @@
         <v>9406.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4734000.0</v>
+        <v>3834000.0</v>
       </c>
       <c r="M213" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N213" t="n">
-        <v>0.009146826430080269</v>
+        <v>0.011293968784559206</v>
       </c>
     </row>
     <row r="214">
@@ -9939,13 +9939,13 @@
         <v>9406.0</v>
       </c>
       <c r="L214" t="n">
-        <v>5274000.0</v>
+        <v>4626000.0</v>
       </c>
       <c r="M214" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N214" t="n">
-        <v>0.008210291300720514</v>
+        <v>0.00936037101599654</v>
       </c>
     </row>
     <row r="215">
@@ -9985,13 +9985,13 @@
         <v>9406.0</v>
       </c>
       <c r="L215" t="n">
-        <v>5706000.0</v>
+        <v>5202000.0</v>
       </c>
       <c r="M215" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N215" t="n">
-        <v>0.007588691959341043</v>
+        <v>0.008323928550557476</v>
       </c>
     </row>
     <row r="216">
@@ -10031,13 +10031,13 @@
         <v>9406.0</v>
       </c>
       <c r="L216" t="n">
-        <v>6066000.0</v>
+        <v>5634000.0</v>
       </c>
       <c r="M216" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N216" t="n">
-        <v>0.007138324484009231</v>
+        <v>0.007685672048278309</v>
       </c>
     </row>
     <row r="217">
@@ -10077,13 +10077,13 @@
         <v>9406.0</v>
       </c>
       <c r="L217" t="n">
-        <v>6318000.0</v>
+        <v>5994000.0</v>
       </c>
       <c r="M217" t="n">
         <v>43301.07631999999</v>
       </c>
       <c r="N217" t="n">
-        <v>0.006853604988920544</v>
+        <v>0.007224070123456789</v>
       </c>
     </row>
     <row r="218">
@@ -14054,16 +14054,16 @@
         <v>800.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>99.48591549295791</v>
+        <v>22.37323943661974</v>
       </c>
       <c r="J2" t="n">
-        <v>93.48591549295786</v>
+        <v>16.37323943661973</v>
       </c>
       <c r="K2" t="n">
         <v>0.10227442708333333</v>
@@ -14099,16 +14099,16 @@
         <v>800.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.48591549295791</v>
+        <v>22.37323943661974</v>
       </c>
       <c r="J3" t="n">
-        <v>93.48591549295786</v>
+        <v>16.37323943661973</v>
       </c>
       <c r="K3" t="n">
         <v>0.0673465148754811</v>
@@ -14144,16 +14144,16 @@
         <v>800.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.48591549295791</v>
+        <v>22.37323943661974</v>
       </c>
       <c r="J4" t="n">
-        <v>93.48591549295786</v>
+        <v>16.37323943661973</v>
       </c>
       <c r="K4" t="n">
         <v>0.11347199999999998</v>
@@ -14189,16 +14189,16 @@
         <v>800.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.48591549295791</v>
+        <v>22.37323943661974</v>
       </c>
       <c r="J5" t="n">
-        <v>93.48591549295786</v>
+        <v>16.37323943661973</v>
       </c>
       <c r="K5" t="n">
         <v>0.061613305263157885</v>
@@ -14234,16 +14234,16 @@
         <v>300.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2664000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>214.45070422535136</v>
+        <v>49.66197183098591</v>
       </c>
       <c r="J6" t="n">
-        <v>208.4507042253514</v>
+        <v>43.66197183098591</v>
       </c>
       <c r="K6" t="n">
         <v>0.08422561052631579</v>
@@ -14279,25 +14279,25 @@
         <v>800.0</v>
       </c>
       <c r="G7" t="n">
-        <v>4860000.0</v>
+        <v>2826000.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>148.60563380281747</v>
+        <v>88.92253521126769</v>
       </c>
       <c r="J7" t="n">
-        <v>142.6056338028174</v>
+        <v>82.92253521126763</v>
       </c>
       <c r="K7" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007405966557776811</v>
+        <v>0.042285680023435336</v>
       </c>
       <c r="M7" t="n">
-        <v>0.10968039364111014</v>
+        <v>0.14456010710676867</v>
       </c>
     </row>
     <row r="8">
@@ -14324,25 +14324,25 @@
         <v>800.0</v>
       </c>
       <c r="G8" t="n">
-        <v>4860000.0</v>
+        <v>2826000.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>148.60563380281747</v>
+        <v>88.92253521126769</v>
       </c>
       <c r="J8" t="n">
-        <v>142.6056338028174</v>
+        <v>82.92253521126763</v>
       </c>
       <c r="K8" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007405966557776811</v>
+        <v>0.042285680023435336</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07475248143325791</v>
+        <v>0.10963219489891643</v>
       </c>
     </row>
     <row r="9">
@@ -14369,25 +14369,25 @@
         <v>800.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4860000.0</v>
+        <v>2826000.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>148.60563380281747</v>
+        <v>88.92253521126769</v>
       </c>
       <c r="J9" t="n">
-        <v>142.6056338028174</v>
+        <v>82.92253521126763</v>
       </c>
       <c r="K9" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009969296463614852</v>
+        <v>0.05692146690515577</v>
       </c>
       <c r="M9" t="n">
-        <v>0.12344129646361483</v>
+        <v>0.17039346690515575</v>
       </c>
     </row>
     <row r="10">
@@ -14414,25 +14414,25 @@
         <v>800.0</v>
       </c>
       <c r="G10" t="n">
-        <v>4860000.0</v>
+        <v>2826000.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>148.60563380281747</v>
+        <v>88.92253521126769</v>
       </c>
       <c r="J10" t="n">
-        <v>142.6056338028174</v>
+        <v>82.92253521126763</v>
       </c>
       <c r="K10" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009969296463614852</v>
+        <v>0.05692146690515577</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07158260172677273</v>
+        <v>0.11853477216831365</v>
       </c>
     </row>
     <row r="11">
@@ -14474,10 +14474,10 @@
         <v>0.08422561052631579</v>
       </c>
       <c r="L11" t="n">
-        <v>0.011034928496188494</v>
+        <v>0.05268288443341604</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09526053902250428</v>
+        <v>0.13690849495973184</v>
       </c>
     </row>
     <row r="12">
@@ -14504,25 +14504,25 @@
         <v>800.0</v>
       </c>
       <c r="G12" t="n">
-        <v>6156000.0</v>
+        <v>4572000.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>186.6338028169023</v>
+        <v>140.15492957746528</v>
       </c>
       <c r="J12" t="n">
-        <v>180.63380281690223</v>
+        <v>134.15492957746523</v>
       </c>
       <c r="K12" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004855022521209242</v>
+        <v>0.00834940178806685</v>
       </c>
       <c r="M12" t="n">
-        <v>0.10712944960454257</v>
+        <v>0.11062382887140018</v>
       </c>
     </row>
     <row r="13">
@@ -14549,25 +14549,25 @@
         <v>800.0</v>
       </c>
       <c r="G13" t="n">
-        <v>6156000.0</v>
+        <v>4572000.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>186.6338028169023</v>
+        <v>140.15492957746528</v>
       </c>
       <c r="J13" t="n">
-        <v>180.63380281690223</v>
+        <v>134.15492957746523</v>
       </c>
       <c r="K13" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004855022521209242</v>
+        <v>0.00834940178806685</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07220153739669034</v>
+        <v>0.07569591666354795</v>
       </c>
     </row>
     <row r="14">
@@ -14594,25 +14594,25 @@
         <v>800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>6156000.0</v>
+        <v>4572000.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>186.6338028169023</v>
+        <v>140.15492957746528</v>
       </c>
       <c r="J14" t="n">
-        <v>180.63380281690223</v>
+        <v>134.15492957746523</v>
       </c>
       <c r="K14" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006535427681703069</v>
+        <v>0.011239270535412921</v>
       </c>
       <c r="M14" t="n">
-        <v>0.12000742768170304</v>
+        <v>0.1247112705354129</v>
       </c>
     </row>
     <row r="15">
@@ -14639,25 +14639,25 @@
         <v>800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>6156000.0</v>
+        <v>4572000.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>186.6338028169023</v>
+        <v>140.15492957746528</v>
       </c>
       <c r="J15" t="n">
-        <v>180.63380281690223</v>
+        <v>134.15492957746523</v>
       </c>
       <c r="K15" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006535427681703069</v>
+        <v>0.011239270535412921</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06814873294486096</v>
+        <v>0.07285257579857081</v>
       </c>
     </row>
     <row r="16">
@@ -14729,25 +14729,25 @@
         <v>800.0</v>
       </c>
       <c r="G17" t="n">
-        <v>7146000.0</v>
+        <v>5922000.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>215.68309859155042</v>
+        <v>179.76760563380364</v>
       </c>
       <c r="J17" t="n">
-        <v>209.68309859155036</v>
+        <v>173.76760563380358</v>
       </c>
       <c r="K17" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0038329125167441387</v>
+        <v>0.005160850711521636</v>
       </c>
       <c r="M17" t="n">
-        <v>0.10610733960007747</v>
+        <v>0.10743527779485497</v>
       </c>
     </row>
     <row r="18">
@@ -14774,25 +14774,25 @@
         <v>800.0</v>
       </c>
       <c r="G18" t="n">
-        <v>6840000.0</v>
+        <v>5922000.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>206.70422535211372</v>
+        <v>179.76760563380364</v>
       </c>
       <c r="J18" t="n">
-        <v>200.70422535211367</v>
+        <v>173.76760563380358</v>
       </c>
       <c r="K18" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0038329125167441387</v>
+        <v>0.005160850711521636</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07117942739222524</v>
+        <v>0.07250736558700274</v>
       </c>
     </row>
     <row r="19">
@@ -14819,25 +14819,25 @@
         <v>800.0</v>
       </c>
       <c r="G19" t="n">
-        <v>7146000.0</v>
+        <v>5922000.0</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>215.68309859155042</v>
+        <v>179.76760563380364</v>
       </c>
       <c r="J19" t="n">
-        <v>209.68309859155036</v>
+        <v>173.76760563380358</v>
       </c>
       <c r="K19" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005159548169765581</v>
+        <v>0.0069471081655898765</v>
       </c>
       <c r="M19" t="n">
-        <v>0.11863154816976555</v>
+        <v>0.12041910816558986</v>
       </c>
     </row>
     <row r="20">
@@ -14864,25 +14864,25 @@
         <v>800.0</v>
       </c>
       <c r="G20" t="n">
-        <v>7146000.0</v>
+        <v>5922000.0</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>215.68309859155042</v>
+        <v>179.76760563380364</v>
       </c>
       <c r="J20" t="n">
-        <v>209.68309859155036</v>
+        <v>173.76760563380358</v>
       </c>
       <c r="K20" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005159548169765581</v>
+        <v>0.0069471081655898765</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06677285343292347</v>
+        <v>0.06856041342874776</v>
       </c>
     </row>
     <row r="21">
@@ -14954,25 +14954,25 @@
         <v>800.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7920000.0</v>
+        <v>6984000.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>238.3943661971844</v>
+        <v>210.92957746478982</v>
       </c>
       <c r="J22" t="n">
-        <v>232.39436619718435</v>
+        <v>204.92957746478976</v>
       </c>
       <c r="K22" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.003984364987010624</v>
       </c>
       <c r="M22" t="n">
-        <v>0.10564857400927025</v>
+        <v>0.10625879207034396</v>
       </c>
     </row>
     <row r="23">
@@ -14999,25 +14999,25 @@
         <v>800.0</v>
       </c>
       <c r="G23" t="n">
-        <v>6066000.0</v>
+        <v>6984000.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>183.99295774647973</v>
+        <v>210.92957746478982</v>
       </c>
       <c r="J23" t="n">
-        <v>177.99295774647968</v>
+        <v>204.92957746478976</v>
       </c>
       <c r="K23" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.003984364987010624</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07072066180141802</v>
+        <v>0.07133087986249173</v>
       </c>
     </row>
     <row r="24">
@@ -15044,25 +15044,25 @@
         <v>800.0</v>
       </c>
       <c r="G24" t="n">
-        <v>7920000.0</v>
+        <v>6984000.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>238.3943661971844</v>
+        <v>210.92957746478982</v>
       </c>
       <c r="J24" t="n">
-        <v>232.39436619718435</v>
+        <v>204.92957746478976</v>
       </c>
       <c r="K24" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L24" t="n">
-        <v>0.004444749304936596</v>
+        <v>0.0053634208937988715</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11791674930493658</v>
+        <v>0.11883542089379885</v>
       </c>
     </row>
     <row r="25">
@@ -15089,25 +15089,25 @@
         <v>800.0</v>
       </c>
       <c r="G25" t="n">
-        <v>7920000.0</v>
+        <v>6984000.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>238.3943661971844</v>
+        <v>210.92957746478982</v>
       </c>
       <c r="J25" t="n">
-        <v>232.39436619718435</v>
+        <v>204.92957746478976</v>
       </c>
       <c r="K25" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004444749304936596</v>
+        <v>0.0053634208937988715</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06605805456809448</v>
+        <v>0.06697672615695675</v>
       </c>
     </row>
     <row r="26">
@@ -15179,25 +15179,25 @@
         <v>800.0</v>
       </c>
       <c r="G27" t="n">
-        <v>8532000.0</v>
+        <v>7794000.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>256.3521126760578</v>
+        <v>234.69718309859283</v>
       </c>
       <c r="J27" t="n">
-        <v>250.35211267605774</v>
+        <v>228.69718309859277</v>
       </c>
       <c r="K27" t="n">
         <v>0.10227442708333333</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.003378495053418803</v>
       </c>
       <c r="M27" t="n">
-        <v>0.10564857400927025</v>
+        <v>0.10565292213675213</v>
       </c>
     </row>
     <row r="28">
@@ -15224,25 +15224,25 @@
         <v>800.0</v>
       </c>
       <c r="G28" t="n">
-        <v>5454000.0</v>
+        <v>6192000.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>166.03521126760634</v>
+        <v>187.6901408450713</v>
       </c>
       <c r="J28" t="n">
-        <v>160.0352112676063</v>
+        <v>181.69014084507126</v>
       </c>
       <c r="K28" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0033741469259369254</v>
+        <v>0.003378495053418803</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07072066180141802</v>
+        <v>0.0707250099288999</v>
       </c>
     </row>
     <row r="29">
@@ -15269,25 +15269,25 @@
         <v>800.0</v>
       </c>
       <c r="G29" t="n">
-        <v>8532000.0</v>
+        <v>7794000.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>256.3521126760578</v>
+        <v>234.69718309859283</v>
       </c>
       <c r="J29" t="n">
-        <v>250.35211267605774</v>
+        <v>228.69718309859277</v>
       </c>
       <c r="K29" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004010376077408701</v>
+        <v>0.004547849159948012</v>
       </c>
       <c r="M29" t="n">
-        <v>0.11748237607740868</v>
+        <v>0.11801984915994798</v>
       </c>
     </row>
     <row r="30">
@@ -15314,25 +15314,25 @@
         <v>800.0</v>
       </c>
       <c r="G30" t="n">
-        <v>8532000.0</v>
+        <v>7794000.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>256.3521126760578</v>
+        <v>234.69718309859283</v>
       </c>
       <c r="J30" t="n">
-        <v>250.35211267605774</v>
+        <v>228.69718309859277</v>
       </c>
       <c r="K30" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004010376077408701</v>
+        <v>0.004547849159948012</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06562368134056659</v>
+        <v>0.0661611544231059</v>
       </c>
     </row>
     <row r="31">
@@ -15404,16 +15404,16 @@
         <v>800.0</v>
       </c>
       <c r="G32" t="n">
-        <v>9000000.0</v>
+        <v>8424000.0</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>270.08450704225436</v>
+        <v>253.18309859155073</v>
       </c>
       <c r="J32" t="n">
-        <v>264.0845070422546</v>
+        <v>247.18309859155067</v>
       </c>
       <c r="K32" t="n">
         <v>0.10227442708333333</v>
@@ -15449,16 +15449,16 @@
         <v>800.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4986000.0</v>
+        <v>5562000.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>152.30281690140905</v>
+        <v>169.2042253521134</v>
       </c>
       <c r="J33" t="n">
-        <v>146.302816901409</v>
+        <v>163.20422535211335</v>
       </c>
       <c r="K33" t="n">
         <v>0.0673465148754811</v>
@@ -15494,25 +15494,25 @@
         <v>800.0</v>
       </c>
       <c r="G34" t="n">
-        <v>9000000.0</v>
+        <v>8424000.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>270.08450704225436</v>
+        <v>253.18309859155073</v>
       </c>
       <c r="J34" t="n">
-        <v>264.0845070422546</v>
+        <v>247.18309859155067</v>
       </c>
       <c r="K34" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003722711970590356</v>
+        <v>0.0040752089470203895</v>
       </c>
       <c r="M34" t="n">
-        <v>0.11719471197059034</v>
+        <v>0.11754720894702037</v>
       </c>
     </row>
     <row r="35">
@@ -15539,25 +15539,25 @@
         <v>800.0</v>
       </c>
       <c r="G35" t="n">
-        <v>9000000.0</v>
+        <v>8424000.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>270.08450704225436</v>
+        <v>253.18309859155073</v>
       </c>
       <c r="J35" t="n">
-        <v>264.0845070422546</v>
+        <v>247.18309859155067</v>
       </c>
       <c r="K35" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003722711970590356</v>
+        <v>0.0040752089470203895</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06533601723374824</v>
+        <v>0.06568851421017827</v>
       </c>
     </row>
     <row r="36">
@@ -15629,16 +15629,16 @@
         <v>800.0</v>
       </c>
       <c r="G37" t="n">
-        <v>9360000.0</v>
+        <v>8910000.0</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>280.647887323944</v>
+        <v>267.44366197183194</v>
       </c>
       <c r="J37" t="n">
-        <v>274.64788732394425</v>
+        <v>261.44366197183217</v>
       </c>
       <c r="K37" t="n">
         <v>0.10227442708333333</v>
@@ -15674,16 +15674,16 @@
         <v>800.0</v>
       </c>
       <c r="G38" t="n">
-        <v>4626000.0</v>
+        <v>5076000.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>141.73943661971882</v>
+        <v>154.9436619718316</v>
       </c>
       <c r="J38" t="n">
-        <v>135.73943661971876</v>
+        <v>148.94366197183155</v>
       </c>
       <c r="K38" t="n">
         <v>0.0673465148754811</v>
@@ -15719,25 +15719,25 @@
         <v>800.0</v>
       </c>
       <c r="G39" t="n">
-        <v>9360000.0</v>
+        <v>8910000.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>280.647887323944</v>
+        <v>267.44366197183194</v>
       </c>
       <c r="J39" t="n">
-        <v>274.64788732394425</v>
+        <v>261.44366197183217</v>
       </c>
       <c r="K39" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0035291309481196576</v>
+        <v>0.003770439047136386</v>
       </c>
       <c r="M39" t="n">
-        <v>0.11700113094811963</v>
+        <v>0.11724243904713637</v>
       </c>
     </row>
     <row r="40">
@@ -15764,25 +15764,25 @@
         <v>800.0</v>
       </c>
       <c r="G40" t="n">
-        <v>9360000.0</v>
+        <v>8910000.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>280.647887323944</v>
+        <v>267.44366197183194</v>
       </c>
       <c r="J40" t="n">
-        <v>274.64788732394425</v>
+        <v>261.44366197183217</v>
       </c>
       <c r="K40" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0035291309481196576</v>
+        <v>0.003770439047136386</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06514243621127755</v>
+        <v>0.06538374431029427</v>
       </c>
     </row>
     <row r="41">
@@ -15854,16 +15854,16 @@
         <v>800.0</v>
       </c>
       <c r="G42" t="n">
-        <v>9630000.0</v>
+        <v>9306000.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>288.57042253521126</v>
+        <v>279.06338028169057</v>
       </c>
       <c r="J42" t="n">
-        <v>282.5704225352115</v>
+        <v>273.0633802816908</v>
       </c>
       <c r="K42" t="n">
         <v>0.10227442708333333</v>
@@ -15899,16 +15899,16 @@
         <v>800.0</v>
       </c>
       <c r="G43" t="n">
-        <v>4356000.0</v>
+        <v>4680000.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.81690140845114</v>
+        <v>143.32394366197235</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8169014084511</v>
+        <v>137.3239436619723</v>
       </c>
       <c r="K43" t="n">
         <v>0.0673465148754811</v>
@@ -15944,25 +15944,25 @@
         <v>800.0</v>
       </c>
       <c r="G44" t="n">
-        <v>9630000.0</v>
+        <v>9306000.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>288.57042253521126</v>
+        <v>279.06338028169057</v>
       </c>
       <c r="J44" t="n">
-        <v>282.5704225352115</v>
+        <v>273.0633802816908</v>
       </c>
       <c r="K44" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0033933951424227476</v>
+        <v>0.003564778735474401</v>
       </c>
       <c r="M44" t="n">
-        <v>0.11686539514242272</v>
+        <v>0.11703677873547438</v>
       </c>
     </row>
     <row r="45">
@@ -15989,25 +15989,25 @@
         <v>800.0</v>
       </c>
       <c r="G45" t="n">
-        <v>9630000.0</v>
+        <v>9306000.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>288.57042253521126</v>
+        <v>279.06338028169057</v>
       </c>
       <c r="J45" t="n">
-        <v>282.5704225352115</v>
+        <v>273.0633802816908</v>
       </c>
       <c r="K45" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0033933951424227476</v>
+        <v>0.003564778735474401</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06500670040558063</v>
+        <v>0.06517808399863229</v>
       </c>
     </row>
     <row r="46">
@@ -16079,16 +16079,16 @@
         <v>800.0</v>
       </c>
       <c r="G47" t="n">
-        <v>9846000.0</v>
+        <v>9594000.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>294.90845070422506</v>
+        <v>287.5140845070423</v>
       </c>
       <c r="J47" t="n">
-        <v>288.9084507042253</v>
+        <v>281.5140845070425</v>
       </c>
       <c r="K47" t="n">
         <v>0.10227442708333333</v>
@@ -16124,16 +16124,16 @@
         <v>800.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4140000.0</v>
+        <v>4392000.0</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>127.47887323943702</v>
+        <v>134.87323943662017</v>
       </c>
       <c r="J48" t="n">
-        <v>121.47887323943696</v>
+        <v>128.8732394366201</v>
       </c>
       <c r="K48" t="n">
         <v>0.0673465148754811</v>
@@ -16169,25 +16169,25 @@
         <v>800.0</v>
       </c>
       <c r="G49" t="n">
-        <v>9846000.0</v>
+        <v>9594000.0</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>294.90845070422506</v>
+        <v>287.5140845070423</v>
       </c>
       <c r="J49" t="n">
-        <v>288.9084507042253</v>
+        <v>281.5140845070425</v>
       </c>
       <c r="K49" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003298253222541736</v>
+        <v>0.0034130860233265543</v>
       </c>
       <c r="M49" t="n">
-        <v>0.11677025322254171</v>
+        <v>0.11688508602332653</v>
       </c>
     </row>
     <row r="50">
@@ -16214,25 +16214,25 @@
         <v>800.0</v>
       </c>
       <c r="G50" t="n">
-        <v>9846000.0</v>
+        <v>9594000.0</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>294.90845070422506</v>
+        <v>287.5140845070423</v>
       </c>
       <c r="J50" t="n">
-        <v>288.9084507042253</v>
+        <v>281.5140845070425</v>
       </c>
       <c r="K50" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L50" t="n">
-        <v>0.003298253222541736</v>
+        <v>0.0034130860233265543</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06491155848569963</v>
+        <v>0.06502639128648444</v>
       </c>
     </row>
     <row r="51">
@@ -16304,16 +16304,16 @@
         <v>800.0</v>
       </c>
       <c r="G52" t="n">
-        <v>1.0026E7</v>
+        <v>9810000.0</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>300.1901408450699</v>
+        <v>293.8521126760561</v>
       </c>
       <c r="J52" t="n">
-        <v>294.1901408450701</v>
+        <v>287.8521126760563</v>
       </c>
       <c r="K52" t="n">
         <v>0.10227442708333333</v>
@@ -16349,16 +16349,16 @@
         <v>800.0</v>
       </c>
       <c r="G53" t="n">
-        <v>3960000.0</v>
+        <v>4176000.0</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>122.1971830985919</v>
+        <v>128.53521126760603</v>
       </c>
       <c r="J53" t="n">
-        <v>116.19718309859185</v>
+        <v>122.53521126760599</v>
       </c>
       <c r="K53" t="n">
         <v>0.0673465148754811</v>
@@ -16394,25 +16394,25 @@
         <v>800.0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.0026E7</v>
+        <v>9810000.0</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>300.1901408450699</v>
+        <v>293.8521126760561</v>
       </c>
       <c r="J54" t="n">
-        <v>294.1901408450701</v>
+        <v>287.8521126760563</v>
       </c>
       <c r="K54" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0032258966619009666</v>
+        <v>0.003310629407241705</v>
       </c>
       <c r="M54" t="n">
-        <v>0.11669789666190095</v>
+        <v>0.11678262940724168</v>
       </c>
     </row>
     <row r="55">
@@ -16439,25 +16439,25 @@
         <v>800.0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.0026E7</v>
+        <v>9810000.0</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>300.1901408450699</v>
+        <v>293.8521126760561</v>
       </c>
       <c r="J55" t="n">
-        <v>294.1901408450701</v>
+        <v>287.8521126760563</v>
       </c>
       <c r="K55" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0032258966619009666</v>
+        <v>0.003310629407241705</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06483920192505885</v>
+        <v>0.06492393467039959</v>
       </c>
     </row>
     <row r="56">
@@ -16529,16 +16529,16 @@
         <v>800.0</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0152E7</v>
+        <v>9990000.0</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>303.8873239436613</v>
+        <v>299.1338028169009</v>
       </c>
       <c r="J57" t="n">
-        <v>297.8873239436615</v>
+        <v>293.13380281690115</v>
       </c>
       <c r="K57" t="n">
         <v>0.10227442708333333</v>
@@ -16574,16 +16574,16 @@
         <v>800.0</v>
       </c>
       <c r="G58" t="n">
-        <v>3834000.0</v>
+        <v>3996000.0</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>118.50000000000033</v>
+        <v>123.25352112676093</v>
       </c>
       <c r="J58" t="n">
-        <v>112.50000000000027</v>
+        <v>117.25352112676087</v>
       </c>
       <c r="K58" t="n">
         <v>0.0673465148754811</v>
@@ -16619,25 +16619,25 @@
         <v>800.0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.0152E7</v>
+        <v>9990000.0</v>
       </c>
       <c r="H59" t="n">
         <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>303.8873239436613</v>
+        <v>299.1338028169009</v>
       </c>
       <c r="J59" t="n">
-        <v>297.8873239436615</v>
+        <v>293.13380281690115</v>
       </c>
       <c r="K59" t="n">
         <v>0.11347199999999998</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0031679811024413443</v>
+        <v>0.0032377348147886766</v>
       </c>
       <c r="M59" t="n">
-        <v>0.11663998110244132</v>
+        <v>0.11670973481478865</v>
       </c>
     </row>
     <row r="60">
@@ -16664,25 +16664,25 @@
         <v>800.0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.0152E7</v>
+        <v>9990000.0</v>
       </c>
       <c r="H60" t="n">
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>303.8873239436613</v>
+        <v>299.1338028169009</v>
       </c>
       <c r="J60" t="n">
-        <v>297.8873239436615</v>
+        <v>293.13380281690115</v>
       </c>
       <c r="K60" t="n">
         <v>0.061613305263157885</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0031679811024413443</v>
+        <v>0.0032377348147886766</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06478128636559922</v>
+        <v>0.06485104007794656</v>
       </c>
     </row>
     <row r="61">
@@ -16737,7 +16737,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C62" t="n">
         <v>7.0</v>
@@ -16754,16 +16754,16 @@
         <v>800.0</v>
       </c>
       <c r="G62" t="n">
-        <v>306000.0</v>
+        <v>1602000.0</v>
       </c>
       <c r="H62" t="n">
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>14.97887323943663</v>
+        <v>53.00704225352106</v>
       </c>
       <c r="J62" t="n">
-        <v>8.978873239436622</v>
+        <v>47.007042253521085</v>
       </c>
       <c r="K62" t="n">
         <v>0.0673465148754811</v>
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C63" t="n">
         <v>7.0</v>
@@ -16799,25 +16799,25 @@
         <v>800.0</v>
       </c>
       <c r="G63" t="n">
-        <v>1854000.0</v>
+        <v>2862000.0</v>
       </c>
       <c r="H63" t="n">
         <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>54.401408450704146</v>
+        <v>83.97887323943665</v>
       </c>
       <c r="J63" t="n">
-        <v>54.401408450704146</v>
+        <v>83.97887323943665</v>
       </c>
       <c r="K63" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L63" t="n">
-        <v>0.14786257389894417</v>
+        <v>0.028243412991933156</v>
       </c>
       <c r="M63" t="n">
-        <v>0.21520908877442527</v>
+        <v>0.09558992786741426</v>
       </c>
     </row>
     <row r="64">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C64" t="n">
         <v>7.0</v>
@@ -16844,25 +16844,25 @@
         <v>800.0</v>
       </c>
       <c r="G64" t="n">
-        <v>3078000.0</v>
+        <v>3834000.0</v>
       </c>
       <c r="H64" t="n">
         <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>90.31690140845079</v>
+        <v>112.50000000000027</v>
       </c>
       <c r="J64" t="n">
-        <v>90.31690140845079</v>
+        <v>112.50000000000027</v>
       </c>
       <c r="K64" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L64" t="n">
-        <v>0.023355488845738938</v>
+        <v>0.015129656296296293</v>
       </c>
       <c r="M64" t="n">
-        <v>0.09070200372122003</v>
+        <v>0.0824761711717774</v>
       </c>
     </row>
     <row r="65">
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C65" t="n">
         <v>7.0</v>
@@ -16889,25 +16889,25 @@
         <v>800.0</v>
       </c>
       <c r="G65" t="n">
-        <v>4014000.0</v>
+        <v>4626000.0</v>
       </c>
       <c r="H65" t="n">
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>117.78169014084538</v>
+        <v>135.73943661971876</v>
       </c>
       <c r="J65" t="n">
-        <v>117.78169014084538</v>
+        <v>135.73943661971876</v>
       </c>
       <c r="K65" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L65" t="n">
-        <v>0.014067926029889537</v>
+        <v>0.011293968784559206</v>
       </c>
       <c r="M65" t="n">
-        <v>0.08141444090537064</v>
+        <v>0.07864048366004031</v>
       </c>
     </row>
     <row r="66">
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C66" t="n">
         <v>7.0</v>
@@ -16934,25 +16934,25 @@
         <v>800.0</v>
       </c>
       <c r="G66" t="n">
-        <v>4734000.0</v>
+        <v>5202000.0</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>138.90845070422583</v>
+        <v>152.64084507042313</v>
       </c>
       <c r="J66" t="n">
-        <v>138.90845070422583</v>
+        <v>152.64084507042313</v>
       </c>
       <c r="K66" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L66" t="n">
-        <v>0.010787512785251618</v>
+        <v>0.00936037101599654</v>
       </c>
       <c r="M66" t="n">
-        <v>0.07813402766073271</v>
+        <v>0.07670688589147764</v>
       </c>
     </row>
     <row r="67">
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="C67" t="n">
         <v>7.0</v>
@@ -16979,25 +16979,25 @@
         <v>800.0</v>
       </c>
       <c r="G67" t="n">
-        <v>5274000.0</v>
+        <v>5634000.0</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>154.75352112676117</v>
+        <v>165.3169014084514</v>
       </c>
       <c r="J67" t="n">
-        <v>154.75352112676117</v>
+        <v>165.3169014084514</v>
       </c>
       <c r="K67" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L67" t="n">
-        <v>0.009146826430080269</v>
+        <v>0.008323928550557476</v>
       </c>
       <c r="M67" t="n">
-        <v>0.07649334130556137</v>
+        <v>0.07567044342603857</v>
       </c>
     </row>
     <row r="68">
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C68" t="n">
         <v>7.0</v>
@@ -17024,121 +17024,121 @@
         <v>800.0</v>
       </c>
       <c r="G68" t="n">
-        <v>5706000.0</v>
+        <v>5994000.0</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>167.42957746478945</v>
+        <v>175.88028169014163</v>
       </c>
       <c r="J68" t="n">
-        <v>167.42957746478945</v>
+        <v>175.88028169014163</v>
       </c>
       <c r="K68" t="n">
         <v>0.0673465148754811</v>
       </c>
       <c r="L68" t="n">
-        <v>0.008210291300720514</v>
+        <v>0.007685672048278309</v>
       </c>
       <c r="M68" t="n">
-        <v>0.07555680617620161</v>
+        <v>0.0750321869237594</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="C69" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AR-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G69" t="n">
-        <v>6066000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I69" t="n">
-        <v>177.99295774647968</v>
+        <v>0.0</v>
       </c>
       <c r="J69" t="n">
-        <v>177.99295774647968</v>
+        <v>0.0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0673465148754811</v>
+        <v>0.0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.007588691959341043</v>
+        <v>0.0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.07493520683482215</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C70" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>AR-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G70" t="n">
-        <v>6318000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I70" t="n">
-        <v>185.38732394366284</v>
+        <v>0.0</v>
       </c>
       <c r="J70" t="n">
-        <v>185.38732394366284</v>
+        <v>0.0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0673465148754811</v>
+        <v>0.0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.007138324484009231</v>
+        <v>0.0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.07448483935949034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -17162,7 +17162,7 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
@@ -17183,7 +17183,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -17207,7 +17207,7 @@
         <v>0.0</v>
       </c>
       <c r="H72" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
@@ -17228,7 +17228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -17252,7 +17252,7 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
@@ -17273,7 +17273,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -17297,7 +17297,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
@@ -17318,7 +17318,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -17342,7 +17342,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
@@ -17363,7 +17363,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -17387,7 +17387,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I76" t="n">
         <v>0.0</v>
@@ -17408,7 +17408,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -17432,7 +17432,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
@@ -17453,7 +17453,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -17477,7 +17477,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
@@ -17498,7 +17498,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -17522,7 +17522,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -17543,7 +17543,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -17567,7 +17567,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
@@ -17588,7 +17588,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -17612,7 +17612,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -17633,7 +17633,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -17657,7 +17657,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -17678,7 +17678,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -17702,7 +17702,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -17723,7 +17723,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -17747,7 +17747,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -17768,7 +17768,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -17792,7 +17792,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -17813,7 +17813,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -17837,7 +17837,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="n">
-        <v>3186000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -17858,11 +17858,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C87" t="n">
         <v>8.0</v>
@@ -17882,7 +17882,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>522000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
@@ -17903,11 +17903,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C88" t="n">
         <v>8.0</v>
@@ -17927,7 +17927,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>3186000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
@@ -17948,11 +17948,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C89" t="n">
         <v>8.0</v>
@@ -17972,7 +17972,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="n">
-        <v>3186000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
@@ -17993,7 +17993,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -18017,7 +18017,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -18038,7 +18038,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -18062,7 +18062,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -18083,7 +18083,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -18107,7 +18107,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
@@ -18128,7 +18128,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -18152,7 +18152,7 @@
         <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I93" t="n">
         <v>0.0</v>
@@ -18173,7 +18173,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -18197,7 +18197,7 @@
         <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I94" t="n">
         <v>0.0</v>
@@ -18218,7 +18218,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -18242,7 +18242,7 @@
         <v>0.0</v>
       </c>
       <c r="H95" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I95" t="n">
         <v>0.0</v>
@@ -18263,7 +18263,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -18287,7 +18287,7 @@
         <v>0.0</v>
       </c>
       <c r="H96" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I96" t="n">
         <v>0.0</v>
@@ -18308,7 +18308,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -18332,7 +18332,7 @@
         <v>0.0</v>
       </c>
       <c r="H97" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I97" t="n">
         <v>0.0</v>
@@ -18353,7 +18353,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -18377,7 +18377,7 @@
         <v>0.0</v>
       </c>
       <c r="H98" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I98" t="n">
         <v>0.0</v>
@@ -18398,7 +18398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -18422,7 +18422,7 @@
         <v>0.0</v>
       </c>
       <c r="H99" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I99" t="n">
         <v>0.0</v>
@@ -18443,7 +18443,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -18467,7 +18467,7 @@
         <v>0.0</v>
       </c>
       <c r="H100" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I100" t="n">
         <v>0.0</v>
@@ -18488,7 +18488,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -18512,7 +18512,7 @@
         <v>0.0</v>
       </c>
       <c r="H101" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I101" t="n">
         <v>0.0</v>
@@ -18533,7 +18533,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -18557,7 +18557,7 @@
         <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I102" t="n">
         <v>0.0</v>
@@ -18578,7 +18578,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -18602,7 +18602,7 @@
         <v>0.0</v>
       </c>
       <c r="H103" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I103" t="n">
         <v>0.0</v>
@@ -18623,7 +18623,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -18647,7 +18647,7 @@
         <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>5580000.0</v>
+        <v>2952000.0</v>
       </c>
       <c r="I104" t="n">
         <v>0.0</v>
@@ -18668,7 +18668,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -18692,7 +18692,7 @@
         <v>0.0</v>
       </c>
       <c r="H105" t="n">
-        <v>5580000.0</v>
+        <v>162000.0</v>
       </c>
       <c r="I105" t="n">
         <v>0.0</v>
@@ -18713,11 +18713,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C106" t="n">
         <v>8.0</v>
@@ -18737,7 +18737,7 @@
         <v>0.0</v>
       </c>
       <c r="H106" t="n">
-        <v>2304000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I106" t="n">
         <v>0.0</v>
@@ -18758,11 +18758,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C107" t="n">
         <v>8.0</v>
@@ -18782,7 +18782,7 @@
         <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>5580000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I107" t="n">
         <v>0.0</v>
@@ -18803,11 +18803,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C108" t="n">
         <v>8.0</v>
@@ -18827,7 +18827,7 @@
         <v>0.0</v>
       </c>
       <c r="H108" t="n">
-        <v>5580000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I108" t="n">
         <v>0.0</v>
@@ -18848,7 +18848,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -18872,7 +18872,7 @@
         <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I109" t="n">
         <v>0.0</v>
@@ -18893,7 +18893,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -18917,7 +18917,7 @@
         <v>0.0</v>
       </c>
       <c r="H110" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I110" t="n">
         <v>0.0</v>
@@ -18938,7 +18938,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -18962,7 +18962,7 @@
         <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I111" t="n">
         <v>0.0</v>
@@ -18983,7 +18983,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -19007,7 +19007,7 @@
         <v>0.0</v>
       </c>
       <c r="H112" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I112" t="n">
         <v>0.0</v>
@@ -19028,7 +19028,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -19052,7 +19052,7 @@
         <v>0.0</v>
       </c>
       <c r="H113" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I113" t="n">
         <v>0.0</v>
@@ -19073,7 +19073,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -19097,7 +19097,7 @@
         <v>0.0</v>
       </c>
       <c r="H114" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I114" t="n">
         <v>0.0</v>
@@ -19118,7 +19118,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -19142,7 +19142,7 @@
         <v>0.0</v>
       </c>
       <c r="H115" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I115" t="n">
         <v>0.0</v>
@@ -19163,7 +19163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -19187,7 +19187,7 @@
         <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I116" t="n">
         <v>0.0</v>
@@ -19208,7 +19208,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -19232,7 +19232,7 @@
         <v>0.0</v>
       </c>
       <c r="H117" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
@@ -19253,7 +19253,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -19277,7 +19277,7 @@
         <v>0.0</v>
       </c>
       <c r="H118" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I118" t="n">
         <v>0.0</v>
@@ -19298,7 +19298,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -19322,7 +19322,7 @@
         <v>0.0</v>
       </c>
       <c r="H119" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I119" t="n">
         <v>0.0</v>
@@ -19343,7 +19343,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -19367,7 +19367,7 @@
         <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I120" t="n">
         <v>0.0</v>
@@ -19388,7 +19388,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -19412,7 +19412,7 @@
         <v>0.0</v>
       </c>
       <c r="H121" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I121" t="n">
         <v>0.0</v>
@@ -19433,7 +19433,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -19457,7 +19457,7 @@
         <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I122" t="n">
         <v>0.0</v>
@@ -19478,7 +19478,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -19502,7 +19502,7 @@
         <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>7956000.0</v>
+        <v>5328000.0</v>
       </c>
       <c r="I123" t="n">
         <v>0.0</v>
@@ -19523,7 +19523,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -19547,7 +19547,7 @@
         <v>0.0</v>
       </c>
       <c r="H124" t="n">
-        <v>7956000.0</v>
+        <v>1944000.0</v>
       </c>
       <c r="I124" t="n">
         <v>0.0</v>
@@ -19568,11 +19568,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C125" t="n">
         <v>8.0</v>
@@ -19592,7 +19592,7 @@
         <v>0.0</v>
       </c>
       <c r="H125" t="n">
-        <v>4104000.0</v>
+        <v>7722000.0</v>
       </c>
       <c r="I125" t="n">
         <v>0.0</v>
@@ -19613,11 +19613,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C126" t="n">
         <v>8.0</v>
@@ -19637,7 +19637,7 @@
         <v>0.0</v>
       </c>
       <c r="H126" t="n">
-        <v>7956000.0</v>
+        <v>7722000.0</v>
       </c>
       <c r="I126" t="n">
         <v>0.0</v>
@@ -19658,11 +19658,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C127" t="n">
         <v>8.0</v>
@@ -19682,7 +19682,7 @@
         <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>7956000.0</v>
+        <v>7722000.0</v>
       </c>
       <c r="I127" t="n">
         <v>0.0</v>
@@ -19703,7 +19703,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -19727,7 +19727,7 @@
         <v>0.0</v>
       </c>
       <c r="H128" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I128" t="n">
         <v>0.0</v>
@@ -19748,7 +19748,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -19772,7 +19772,7 @@
         <v>0.0</v>
       </c>
       <c r="H129" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I129" t="n">
         <v>0.0</v>
@@ -19793,7 +19793,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -19817,7 +19817,7 @@
         <v>0.0</v>
       </c>
       <c r="H130" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I130" t="n">
         <v>0.0</v>
@@ -19838,7 +19838,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -19862,7 +19862,7 @@
         <v>0.0</v>
       </c>
       <c r="H131" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I131" t="n">
         <v>0.0</v>
@@ -19883,7 +19883,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -19907,7 +19907,7 @@
         <v>0.0</v>
       </c>
       <c r="H132" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I132" t="n">
         <v>0.0</v>
@@ -19928,7 +19928,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -19952,7 +19952,7 @@
         <v>0.0</v>
       </c>
       <c r="H133" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I133" t="n">
         <v>0.0</v>
@@ -19973,7 +19973,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -19997,7 +19997,7 @@
         <v>0.0</v>
       </c>
       <c r="H134" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I134" t="n">
         <v>0.0</v>
@@ -20018,7 +20018,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -20042,7 +20042,7 @@
         <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I135" t="n">
         <v>0.0</v>
@@ -20063,7 +20063,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -20087,7 +20087,7 @@
         <v>0.0</v>
       </c>
       <c r="H136" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I136" t="n">
         <v>0.0</v>
@@ -20108,7 +20108,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -20132,7 +20132,7 @@
         <v>0.0</v>
       </c>
       <c r="H137" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I137" t="n">
         <v>0.0</v>
@@ -20153,7 +20153,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -20177,7 +20177,7 @@
         <v>0.0</v>
       </c>
       <c r="H138" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I138" t="n">
         <v>0.0</v>
@@ -20198,7 +20198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -20222,7 +20222,7 @@
         <v>0.0</v>
       </c>
       <c r="H139" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I139" t="n">
         <v>0.0</v>
@@ -20243,7 +20243,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -20267,7 +20267,7 @@
         <v>0.0</v>
       </c>
       <c r="H140" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I140" t="n">
         <v>0.0</v>
@@ -20288,7 +20288,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -20312,7 +20312,7 @@
         <v>0.0</v>
       </c>
       <c r="H141" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I141" t="n">
         <v>0.0</v>
@@ -20333,7 +20333,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -20357,7 +20357,7 @@
         <v>0.0</v>
       </c>
       <c r="H142" t="n">
-        <v>1.035E7</v>
+        <v>7722000.0</v>
       </c>
       <c r="I142" t="n">
         <v>0.0</v>
@@ -20378,7 +20378,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -20402,7 +20402,7 @@
         <v>0.0</v>
       </c>
       <c r="H143" t="n">
-        <v>1.035E7</v>
+        <v>3726000.0</v>
       </c>
       <c r="I143" t="n">
         <v>0.0</v>
@@ -20423,11 +20423,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C144" t="n">
         <v>8.0</v>
@@ -20447,7 +20447,7 @@
         <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>5886000.0</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I144" t="n">
         <v>0.0</v>
@@ -20468,11 +20468,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C145" t="n">
         <v>8.0</v>
@@ -20492,7 +20492,7 @@
         <v>0.0</v>
       </c>
       <c r="H145" t="n">
-        <v>1.035E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I145" t="n">
         <v>0.0</v>
@@ -20513,11 +20513,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C146" t="n">
         <v>8.0</v>
@@ -20537,7 +20537,7 @@
         <v>0.0</v>
       </c>
       <c r="H146" t="n">
-        <v>1.035E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I146" t="n">
         <v>0.0</v>
@@ -20558,7 +20558,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -20582,7 +20582,7 @@
         <v>0.0</v>
       </c>
       <c r="H147" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I147" t="n">
         <v>0.0</v>
@@ -20603,7 +20603,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -20627,7 +20627,7 @@
         <v>0.0</v>
       </c>
       <c r="H148" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I148" t="n">
         <v>0.0</v>
@@ -20648,7 +20648,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -20672,7 +20672,7 @@
         <v>0.0</v>
       </c>
       <c r="H149" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I149" t="n">
         <v>0.0</v>
@@ -20693,7 +20693,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -20717,7 +20717,7 @@
         <v>0.0</v>
       </c>
       <c r="H150" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I150" t="n">
         <v>0.0</v>
@@ -20738,7 +20738,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -20762,7 +20762,7 @@
         <v>0.0</v>
       </c>
       <c r="H151" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I151" t="n">
         <v>0.0</v>
@@ -20783,7 +20783,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -20807,7 +20807,7 @@
         <v>0.0</v>
       </c>
       <c r="H152" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I152" t="n">
         <v>0.0</v>
@@ -20828,7 +20828,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -20852,7 +20852,7 @@
         <v>0.0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I153" t="n">
         <v>0.0</v>
@@ -20873,7 +20873,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -20897,7 +20897,7 @@
         <v>0.0</v>
       </c>
       <c r="H154" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I154" t="n">
         <v>0.0</v>
@@ -20918,7 +20918,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -20942,7 +20942,7 @@
         <v>0.0</v>
       </c>
       <c r="H155" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I155" t="n">
         <v>0.0</v>
@@ -20963,7 +20963,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -20987,7 +20987,7 @@
         <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I156" t="n">
         <v>0.0</v>
@@ -21008,7 +21008,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -21032,7 +21032,7 @@
         <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I157" t="n">
         <v>0.0</v>
@@ -21053,7 +21053,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -21077,7 +21077,7 @@
         <v>0.0</v>
       </c>
       <c r="H158" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I158" t="n">
         <v>0.0</v>
@@ -21098,7 +21098,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -21122,7 +21122,7 @@
         <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I159" t="n">
         <v>0.0</v>
@@ -21143,7 +21143,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -21167,7 +21167,7 @@
         <v>0.0</v>
       </c>
       <c r="H160" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I160" t="n">
         <v>0.0</v>
@@ -21188,7 +21188,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -21212,7 +21212,7 @@
         <v>0.0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.2726E7</v>
+        <v>1.0098E7</v>
       </c>
       <c r="I161" t="n">
         <v>0.0</v>
@@ -21233,7 +21233,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -21257,7 +21257,7 @@
         <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>1.2726E7</v>
+        <v>5526000.0</v>
       </c>
       <c r="I162" t="n">
         <v>0.0</v>
@@ -21278,11 +21278,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C163" t="n">
         <v>8.0</v>
@@ -21302,7 +21302,7 @@
         <v>0.0</v>
       </c>
       <c r="H163" t="n">
-        <v>7668000.0</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I163" t="n">
         <v>0.0</v>
@@ -21323,11 +21323,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C164" t="n">
         <v>8.0</v>
@@ -21347,7 +21347,7 @@
         <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>1.2726E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I164" t="n">
         <v>0.0</v>
@@ -21368,11 +21368,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C165" t="n">
         <v>8.0</v>
@@ -21392,7 +21392,7 @@
         <v>0.0</v>
       </c>
       <c r="H165" t="n">
-        <v>1.2726E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I165" t="n">
         <v>0.0</v>
@@ -21413,7 +21413,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -21437,7 +21437,7 @@
         <v>0.0</v>
       </c>
       <c r="H166" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I166" t="n">
         <v>0.0</v>
@@ -21458,7 +21458,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -21482,7 +21482,7 @@
         <v>0.0</v>
       </c>
       <c r="H167" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I167" t="n">
         <v>0.0</v>
@@ -21503,7 +21503,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -21527,7 +21527,7 @@
         <v>0.0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I168" t="n">
         <v>0.0</v>
@@ -21548,7 +21548,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -21572,7 +21572,7 @@
         <v>0.0</v>
       </c>
       <c r="H169" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I169" t="n">
         <v>0.0</v>
@@ -21593,7 +21593,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -21617,7 +21617,7 @@
         <v>0.0</v>
       </c>
       <c r="H170" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I170" t="n">
         <v>0.0</v>
@@ -21638,7 +21638,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -21662,7 +21662,7 @@
         <v>0.0</v>
       </c>
       <c r="H171" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I171" t="n">
         <v>0.0</v>
@@ -21683,7 +21683,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -21707,7 +21707,7 @@
         <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I172" t="n">
         <v>0.0</v>
@@ -21728,7 +21728,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -21752,7 +21752,7 @@
         <v>0.0</v>
       </c>
       <c r="H173" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I173" t="n">
         <v>0.0</v>
@@ -21773,7 +21773,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -21797,7 +21797,7 @@
         <v>0.0</v>
       </c>
       <c r="H174" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I174" t="n">
         <v>0.0</v>
@@ -21818,7 +21818,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -21842,7 +21842,7 @@
         <v>0.0</v>
       </c>
       <c r="H175" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I175" t="n">
         <v>0.0</v>
@@ -21863,7 +21863,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -21887,7 +21887,7 @@
         <v>0.0</v>
       </c>
       <c r="H176" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I176" t="n">
         <v>0.0</v>
@@ -21908,7 +21908,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -21932,7 +21932,7 @@
         <v>0.0</v>
       </c>
       <c r="H177" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I177" t="n">
         <v>0.0</v>
@@ -21953,7 +21953,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -21977,7 +21977,7 @@
         <v>0.0</v>
       </c>
       <c r="H178" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I178" t="n">
         <v>0.0</v>
@@ -21998,7 +21998,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -22022,7 +22022,7 @@
         <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I179" t="n">
         <v>0.0</v>
@@ -22043,7 +22043,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -22067,7 +22067,7 @@
         <v>0.0</v>
       </c>
       <c r="H180" t="n">
-        <v>1.512E7</v>
+        <v>1.2492E7</v>
       </c>
       <c r="I180" t="n">
         <v>0.0</v>
@@ -22088,7 +22088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -22112,7 +22112,7 @@
         <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>1.512E7</v>
+        <v>7308000.0</v>
       </c>
       <c r="I181" t="n">
         <v>0.0</v>
@@ -22133,11 +22133,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C182" t="n">
         <v>8.0</v>
@@ -22157,7 +22157,7 @@
         <v>0.0</v>
       </c>
       <c r="H182" t="n">
-        <v>9450000.0</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I182" t="n">
         <v>0.0</v>
@@ -22178,11 +22178,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C183" t="n">
         <v>8.0</v>
@@ -22202,7 +22202,7 @@
         <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>1.512E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I183" t="n">
         <v>0.0</v>
@@ -22223,11 +22223,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C184" t="n">
         <v>8.0</v>
@@ -22247,7 +22247,7 @@
         <v>0.0</v>
       </c>
       <c r="H184" t="n">
-        <v>1.512E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I184" t="n">
         <v>0.0</v>
@@ -22268,7 +22268,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -22292,7 +22292,7 @@
         <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I185" t="n">
         <v>0.0</v>
@@ -22313,7 +22313,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -22337,7 +22337,7 @@
         <v>0.0</v>
       </c>
       <c r="H186" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I186" t="n">
         <v>0.0</v>
@@ -22358,7 +22358,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -22382,7 +22382,7 @@
         <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I187" t="n">
         <v>0.0</v>
@@ -22403,7 +22403,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -22427,7 +22427,7 @@
         <v>0.0</v>
       </c>
       <c r="H188" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I188" t="n">
         <v>0.0</v>
@@ -22448,7 +22448,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -22472,7 +22472,7 @@
         <v>0.0</v>
       </c>
       <c r="H189" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I189" t="n">
         <v>0.0</v>
@@ -22493,7 +22493,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -22517,7 +22517,7 @@
         <v>0.0</v>
       </c>
       <c r="H190" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I190" t="n">
         <v>0.0</v>
@@ -22538,7 +22538,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -22562,7 +22562,7 @@
         <v>0.0</v>
       </c>
       <c r="H191" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I191" t="n">
         <v>0.0</v>
@@ -22583,7 +22583,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -22607,7 +22607,7 @@
         <v>0.0</v>
       </c>
       <c r="H192" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I192" t="n">
         <v>0.0</v>
@@ -22628,7 +22628,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -22652,7 +22652,7 @@
         <v>0.0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I193" t="n">
         <v>0.0</v>
@@ -22673,7 +22673,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -22697,7 +22697,7 @@
         <v>0.0</v>
       </c>
       <c r="H194" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I194" t="n">
         <v>0.0</v>
@@ -22718,7 +22718,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -22742,7 +22742,7 @@
         <v>0.0</v>
       </c>
       <c r="H195" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I195" t="n">
         <v>0.0</v>
@@ -22763,7 +22763,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -22787,7 +22787,7 @@
         <v>0.0</v>
       </c>
       <c r="H196" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I196" t="n">
         <v>0.0</v>
@@ -22808,7 +22808,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -22832,7 +22832,7 @@
         <v>0.0</v>
       </c>
       <c r="H197" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I197" t="n">
         <v>0.0</v>
@@ -22853,7 +22853,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -22877,7 +22877,7 @@
         <v>0.0</v>
       </c>
       <c r="H198" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I198" t="n">
         <v>0.0</v>
@@ -22898,7 +22898,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -22922,7 +22922,7 @@
         <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>1.7496E7</v>
+        <v>1.4868E7</v>
       </c>
       <c r="I199" t="n">
         <v>0.0</v>
@@ -22943,7 +22943,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -22967,7 +22967,7 @@
         <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>1.7496E7</v>
+        <v>9090000.0</v>
       </c>
       <c r="I200" t="n">
         <v>0.0</v>
@@ -22988,11 +22988,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C201" t="n">
         <v>8.0</v>
@@ -23012,7 +23012,7 @@
         <v>0.0</v>
       </c>
       <c r="H201" t="n">
-        <v>1.1232E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I201" t="n">
         <v>0.0</v>
@@ -23033,11 +23033,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C202" t="n">
         <v>8.0</v>
@@ -23057,7 +23057,7 @@
         <v>0.0</v>
       </c>
       <c r="H202" t="n">
-        <v>1.7496E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I202" t="n">
         <v>0.0</v>
@@ -23078,11 +23078,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C203" t="n">
         <v>8.0</v>
@@ -23102,7 +23102,7 @@
         <v>0.0</v>
       </c>
       <c r="H203" t="n">
-        <v>1.7496E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I203" t="n">
         <v>0.0</v>
@@ -23123,7 +23123,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -23147,7 +23147,7 @@
         <v>0.0</v>
       </c>
       <c r="H204" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I204" t="n">
         <v>0.0</v>
@@ -23168,7 +23168,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -23192,7 +23192,7 @@
         <v>0.0</v>
       </c>
       <c r="H205" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I205" t="n">
         <v>0.0</v>
@@ -23213,7 +23213,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -23237,7 +23237,7 @@
         <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I206" t="n">
         <v>0.0</v>
@@ -23258,7 +23258,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -23282,7 +23282,7 @@
         <v>0.0</v>
       </c>
       <c r="H207" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I207" t="n">
         <v>0.0</v>
@@ -23303,7 +23303,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -23327,7 +23327,7 @@
         <v>0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I208" t="n">
         <v>0.0</v>
@@ -23348,7 +23348,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -23372,7 +23372,7 @@
         <v>0.0</v>
       </c>
       <c r="H209" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I209" t="n">
         <v>0.0</v>
@@ -23393,7 +23393,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -23417,7 +23417,7 @@
         <v>0.0</v>
       </c>
       <c r="H210" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I210" t="n">
         <v>0.0</v>
@@ -23438,7 +23438,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -23462,7 +23462,7 @@
         <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I211" t="n">
         <v>0.0</v>
@@ -23483,7 +23483,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -23507,7 +23507,7 @@
         <v>0.0</v>
       </c>
       <c r="H212" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I212" t="n">
         <v>0.0</v>
@@ -23528,7 +23528,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -23552,7 +23552,7 @@
         <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I213" t="n">
         <v>0.0</v>
@@ -23573,7 +23573,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -23597,7 +23597,7 @@
         <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I214" t="n">
         <v>0.0</v>
@@ -23618,7 +23618,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -23642,7 +23642,7 @@
         <v>0.0</v>
       </c>
       <c r="H215" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I215" t="n">
         <v>0.0</v>
@@ -23663,7 +23663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -23687,7 +23687,7 @@
         <v>0.0</v>
       </c>
       <c r="H216" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I216" t="n">
         <v>0.0</v>
@@ -23708,7 +23708,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -23732,7 +23732,7 @@
         <v>0.0</v>
       </c>
       <c r="H217" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I217" t="n">
         <v>0.0</v>
@@ -23753,7 +23753,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -23777,7 +23777,7 @@
         <v>0.0</v>
       </c>
       <c r="H218" t="n">
-        <v>1.989E7</v>
+        <v>1.7262E7</v>
       </c>
       <c r="I218" t="n">
         <v>0.0</v>
@@ -23798,7 +23798,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -23822,7 +23822,7 @@
         <v>0.0</v>
       </c>
       <c r="H219" t="n">
-        <v>1.989E7</v>
+        <v>1.0872E7</v>
       </c>
       <c r="I219" t="n">
         <v>0.0</v>
@@ -23843,11 +23843,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C220" t="n">
         <v>8.0</v>
@@ -23867,7 +23867,7 @@
         <v>0.0</v>
       </c>
       <c r="H220" t="n">
-        <v>1.3032E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I220" t="n">
         <v>0.0</v>
@@ -23888,11 +23888,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C221" t="n">
         <v>8.0</v>
@@ -23912,7 +23912,7 @@
         <v>0.0</v>
       </c>
       <c r="H221" t="n">
-        <v>1.989E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I221" t="n">
         <v>0.0</v>
@@ -23933,11 +23933,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C222" t="n">
         <v>8.0</v>
@@ -23957,7 +23957,7 @@
         <v>0.0</v>
       </c>
       <c r="H222" t="n">
-        <v>1.989E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I222" t="n">
         <v>0.0</v>
@@ -23978,7 +23978,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -24002,7 +24002,7 @@
         <v>0.0</v>
       </c>
       <c r="H223" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I223" t="n">
         <v>0.0</v>
@@ -24023,7 +24023,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -24047,7 +24047,7 @@
         <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I224" t="n">
         <v>0.0</v>
@@ -24068,7 +24068,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -24092,7 +24092,7 @@
         <v>0.0</v>
       </c>
       <c r="H225" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I225" t="n">
         <v>0.0</v>
@@ -24113,7 +24113,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -24137,7 +24137,7 @@
         <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I226" t="n">
         <v>0.0</v>
@@ -24158,7 +24158,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -24182,7 +24182,7 @@
         <v>0.0</v>
       </c>
       <c r="H227" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I227" t="n">
         <v>0.0</v>
@@ -24203,7 +24203,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -24227,7 +24227,7 @@
         <v>0.0</v>
       </c>
       <c r="H228" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I228" t="n">
         <v>0.0</v>
@@ -24248,7 +24248,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -24272,7 +24272,7 @@
         <v>0.0</v>
       </c>
       <c r="H229" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I229" t="n">
         <v>0.0</v>
@@ -24293,7 +24293,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -24317,7 +24317,7 @@
         <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I230" t="n">
         <v>0.0</v>
@@ -24338,7 +24338,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -24362,7 +24362,7 @@
         <v>0.0</v>
       </c>
       <c r="H231" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I231" t="n">
         <v>0.0</v>
@@ -24383,7 +24383,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -24407,7 +24407,7 @@
         <v>0.0</v>
       </c>
       <c r="H232" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I232" t="n">
         <v>0.0</v>
@@ -24428,7 +24428,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -24452,7 +24452,7 @@
         <v>0.0</v>
       </c>
       <c r="H233" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I233" t="n">
         <v>0.0</v>
@@ -24473,7 +24473,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -24497,7 +24497,7 @@
         <v>0.0</v>
       </c>
       <c r="H234" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I234" t="n">
         <v>0.0</v>
@@ -24518,7 +24518,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -24542,7 +24542,7 @@
         <v>0.0</v>
       </c>
       <c r="H235" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I235" t="n">
         <v>0.0</v>
@@ -24563,7 +24563,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -24587,7 +24587,7 @@
         <v>0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I236" t="n">
         <v>0.0</v>
@@ -24608,7 +24608,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -24632,7 +24632,7 @@
         <v>0.0</v>
       </c>
       <c r="H237" t="n">
-        <v>2.2266E7</v>
+        <v>1.9638E7</v>
       </c>
       <c r="I237" t="n">
         <v>0.0</v>
@@ -24653,7 +24653,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -24677,7 +24677,7 @@
         <v>0.0</v>
       </c>
       <c r="H238" t="n">
-        <v>2.2266E7</v>
+        <v>1.2654E7</v>
       </c>
       <c r="I238" t="n">
         <v>0.0</v>
@@ -24698,11 +24698,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C239" t="n">
         <v>8.0</v>
@@ -24722,7 +24722,7 @@
         <v>0.0</v>
       </c>
       <c r="H239" t="n">
-        <v>1.4814E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I239" t="n">
         <v>0.0</v>
@@ -24743,11 +24743,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C240" t="n">
         <v>8.0</v>
@@ -24767,7 +24767,7 @@
         <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>2.2266E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I240" t="n">
         <v>0.0</v>
@@ -24788,11 +24788,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C241" t="n">
         <v>8.0</v>
@@ -24812,7 +24812,7 @@
         <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>2.2266E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I241" t="n">
         <v>0.0</v>
@@ -24833,7 +24833,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -24857,7 +24857,7 @@
         <v>0.0</v>
       </c>
       <c r="H242" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I242" t="n">
         <v>0.0</v>
@@ -24878,7 +24878,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -24902,7 +24902,7 @@
         <v>0.0</v>
       </c>
       <c r="H243" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I243" t="n">
         <v>0.0</v>
@@ -24923,7 +24923,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -24947,7 +24947,7 @@
         <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I244" t="n">
         <v>0.0</v>
@@ -24968,7 +24968,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -24992,7 +24992,7 @@
         <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I245" t="n">
         <v>0.0</v>
@@ -25013,7 +25013,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -25037,7 +25037,7 @@
         <v>0.0</v>
       </c>
       <c r="H246" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I246" t="n">
         <v>0.0</v>
@@ -25058,7 +25058,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -25082,7 +25082,7 @@
         <v>0.0</v>
       </c>
       <c r="H247" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I247" t="n">
         <v>0.0</v>
@@ -25103,7 +25103,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -25127,7 +25127,7 @@
         <v>0.0</v>
       </c>
       <c r="H248" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I248" t="n">
         <v>0.0</v>
@@ -25148,7 +25148,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -25172,7 +25172,7 @@
         <v>0.0</v>
       </c>
       <c r="H249" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I249" t="n">
         <v>0.0</v>
@@ -25193,7 +25193,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -25217,7 +25217,7 @@
         <v>0.0</v>
       </c>
       <c r="H250" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I250" t="n">
         <v>0.0</v>
@@ -25238,7 +25238,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -25262,7 +25262,7 @@
         <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I251" t="n">
         <v>0.0</v>
@@ -25283,7 +25283,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -25307,7 +25307,7 @@
         <v>0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I252" t="n">
         <v>0.0</v>
@@ -25328,7 +25328,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -25352,7 +25352,7 @@
         <v>0.0</v>
       </c>
       <c r="H253" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I253" t="n">
         <v>0.0</v>
@@ -25373,7 +25373,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -25397,7 +25397,7 @@
         <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I254" t="n">
         <v>0.0</v>
@@ -25418,7 +25418,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -25442,7 +25442,7 @@
         <v>0.0</v>
       </c>
       <c r="H255" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I255" t="n">
         <v>0.0</v>
@@ -25463,7 +25463,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -25487,7 +25487,7 @@
         <v>0.0</v>
       </c>
       <c r="H256" t="n">
-        <v>2.466E7</v>
+        <v>2.2032E7</v>
       </c>
       <c r="I256" t="n">
         <v>0.0</v>
@@ -25508,7 +25508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -25532,7 +25532,7 @@
         <v>0.0</v>
       </c>
       <c r="H257" t="n">
-        <v>2.466E7</v>
+        <v>1.4454E7</v>
       </c>
       <c r="I257" t="n">
         <v>0.0</v>
@@ -25553,11 +25553,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C258" t="n">
         <v>8.0</v>
@@ -25577,7 +25577,7 @@
         <v>0.0</v>
       </c>
       <c r="H258" t="n">
-        <v>1.6596E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I258" t="n">
         <v>0.0</v>
@@ -25598,11 +25598,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C259" t="n">
         <v>8.0</v>
@@ -25622,7 +25622,7 @@
         <v>0.0</v>
       </c>
       <c r="H259" t="n">
-        <v>2.466E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I259" t="n">
         <v>0.0</v>
@@ -25643,11 +25643,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C260" t="n">
         <v>8.0</v>
@@ -25667,7 +25667,7 @@
         <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>2.466E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I260" t="n">
         <v>0.0</v>
@@ -25688,7 +25688,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -25712,7 +25712,7 @@
         <v>0.0</v>
       </c>
       <c r="H261" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I261" t="n">
         <v>0.0</v>
@@ -25733,7 +25733,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -25757,7 +25757,7 @@
         <v>0.0</v>
       </c>
       <c r="H262" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I262" t="n">
         <v>0.0</v>
@@ -25778,7 +25778,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -25802,7 +25802,7 @@
         <v>0.0</v>
       </c>
       <c r="H263" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I263" t="n">
         <v>0.0</v>
@@ -25823,7 +25823,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -25847,7 +25847,7 @@
         <v>0.0</v>
       </c>
       <c r="H264" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I264" t="n">
         <v>0.0</v>
@@ -25868,7 +25868,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -25892,7 +25892,7 @@
         <v>0.0</v>
       </c>
       <c r="H265" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I265" t="n">
         <v>0.0</v>
@@ -25913,7 +25913,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -25937,7 +25937,7 @@
         <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I266" t="n">
         <v>0.0</v>
@@ -25958,7 +25958,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -25982,7 +25982,7 @@
         <v>0.0</v>
       </c>
       <c r="H267" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I267" t="n">
         <v>0.0</v>
@@ -26003,7 +26003,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -26027,7 +26027,7 @@
         <v>0.0</v>
       </c>
       <c r="H268" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I268" t="n">
         <v>0.0</v>
@@ -26048,7 +26048,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -26072,7 +26072,7 @@
         <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I269" t="n">
         <v>0.0</v>
@@ -26093,7 +26093,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -26117,7 +26117,7 @@
         <v>0.0</v>
       </c>
       <c r="H270" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I270" t="n">
         <v>0.0</v>
@@ -26138,7 +26138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -26162,7 +26162,7 @@
         <v>0.0</v>
       </c>
       <c r="H271" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I271" t="n">
         <v>0.0</v>
@@ -26183,7 +26183,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -26207,7 +26207,7 @@
         <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I272" t="n">
         <v>0.0</v>
@@ -26228,7 +26228,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -26252,7 +26252,7 @@
         <v>0.0</v>
       </c>
       <c r="H273" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I273" t="n">
         <v>0.0</v>
@@ -26273,7 +26273,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -26297,7 +26297,7 @@
         <v>0.0</v>
       </c>
       <c r="H274" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I274" t="n">
         <v>0.0</v>
@@ -26318,7 +26318,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -26342,7 +26342,7 @@
         <v>0.0</v>
       </c>
       <c r="H275" t="n">
-        <v>2.7036E7</v>
+        <v>2.4408E7</v>
       </c>
       <c r="I275" t="n">
         <v>0.0</v>
@@ -26363,7 +26363,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -26387,7 +26387,7 @@
         <v>0.0</v>
       </c>
       <c r="H276" t="n">
-        <v>2.7036E7</v>
+        <v>1.6236E7</v>
       </c>
       <c r="I276" t="n">
         <v>0.0</v>
@@ -26408,11 +26408,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>552-UY-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C277" t="n">
         <v>8.0</v>
@@ -26432,7 +26432,7 @@
         <v>0.0</v>
       </c>
       <c r="H277" t="n">
-        <v>1.8378E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I277" t="n">
         <v>0.0</v>
@@ -26453,11 +26453,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
+          <t>566-UY-TA-3·ULT-5·XX-96</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C278" t="n">
         <v>8.0</v>
@@ -26477,7 +26477,7 @@
         <v>0.0</v>
       </c>
       <c r="H278" t="n">
-        <v>2.7036E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I278" t="n">
         <v>0.0</v>
@@ -26498,11 +26498,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
+          <t>123-CO-ST-4·ULP-4·XG-100</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C279" t="n">
         <v>8.0</v>
@@ -26522,7 +26522,7 @@
         <v>0.0</v>
       </c>
       <c r="H279" t="n">
-        <v>2.7036E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I279" t="n">
         <v>0.0</v>
@@ -26543,7 +26543,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>552-UY-TA-5·PRE-5·XX-96</t>
+          <t>137-CO-ST-9·PVL-4·XG-100</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -26567,7 +26567,7 @@
         <v>0.0</v>
       </c>
       <c r="H280" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I280" t="n">
         <v>0.0</v>
@@ -26588,7 +26588,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>566-UY-TA-3·ULT-5·XX-96</t>
+          <t>152-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -26612,7 +26612,7 @@
         <v>0.0</v>
       </c>
       <c r="H281" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I281" t="n">
         <v>0.0</v>
@@ -26633,7 +26633,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>123-CO-ST-4·ULP-4·XG-100</t>
+          <t>153-EC-TA-5·PRE-4·XG-100</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -26657,7 +26657,7 @@
         <v>0.0</v>
       </c>
       <c r="H282" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I282" t="n">
         <v>0.0</v>
@@ -26678,7 +26678,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>137-CO-ST-9·PVL-4·XG-100</t>
+          <t>166-EC-TA-3·ULT-4·XG-100</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -26702,7 +26702,7 @@
         <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I283" t="n">
         <v>0.0</v>
@@ -26723,7 +26723,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>152-EC-TA-5·PRE-4·XG-100</t>
+          <t>096-CH-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -26747,7 +26747,7 @@
         <v>0.0</v>
       </c>
       <c r="H284" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I284" t="n">
         <v>0.0</v>
@@ -26768,7 +26768,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>153-EC-TA-5·PRE-4·XG-100</t>
+          <t>569-UY-TA-3·ULT-4·XG-96</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -26792,7 +26792,7 @@
         <v>0.0</v>
       </c>
       <c r="H285" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I285" t="n">
         <v>0.0</v>
@@ -26813,7 +26813,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>166-EC-TA-3·ULT-4·XG-100</t>
+          <t>122-CO-ST-4·ULP-3·GR-100</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -26837,7 +26837,7 @@
         <v>0.0</v>
       </c>
       <c r="H286" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I286" t="n">
         <v>0.0</v>
@@ -26858,7 +26858,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>096-CH-TA-5·PRE-4·XG-96</t>
+          <t>136-CO-ST-9·PVL-3·GR-100</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -26882,7 +26882,7 @@
         <v>0.0</v>
       </c>
       <c r="H287" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I287" t="n">
         <v>0.0</v>
@@ -26903,7 +26903,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>569-UY-TA-3·ULT-4·XG-96</t>
+          <t>148-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -26927,7 +26927,7 @@
         <v>0.0</v>
       </c>
       <c r="H288" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I288" t="n">
         <v>0.0</v>
@@ -26948,7 +26948,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>122-CO-ST-4·ULP-3·GR-100</t>
+          <t>149-EC-TA-5·PRE-3·GR-100</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -26972,7 +26972,7 @@
         <v>0.0</v>
       </c>
       <c r="H289" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I289" t="n">
         <v>0.0</v>
@@ -26993,7 +26993,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>136-CO-ST-9·PVL-3·GR-100</t>
+          <t>163-EC-TA-3·ULT-3·GR-100</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -27017,7 +27017,7 @@
         <v>0.0</v>
       </c>
       <c r="H290" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I290" t="n">
         <v>0.0</v>
@@ -27038,7 +27038,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>148-EC-TA-5·PRE-3·GR-100</t>
+          <t>104-CH-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -27062,7 +27062,7 @@
         <v>0.0</v>
       </c>
       <c r="H291" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I291" t="n">
         <v>0.0</v>
@@ -27083,7 +27083,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>149-EC-TA-5·PRE-3·GR-100</t>
+          <t>135-CO-ST-9·PVL-2·MD-100</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -27107,7 +27107,7 @@
         <v>0.0</v>
       </c>
       <c r="H292" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I292" t="n">
         <v>0.0</v>
@@ -27128,7 +27128,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>163-EC-TA-3·ULT-3·GR-100</t>
+          <t>145-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -27152,7 +27152,7 @@
         <v>0.0</v>
       </c>
       <c r="H293" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I293" t="n">
         <v>0.0</v>
@@ -27173,7 +27173,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>104-CH-TA-5·PRE-2·MD-100</t>
+          <t>134-CO-TA-9·PVL-1·PQ-100</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -27197,7 +27197,7 @@
         <v>0.0</v>
       </c>
       <c r="H294" t="n">
-        <v>2.943E7</v>
+        <v>2.6802E7</v>
       </c>
       <c r="I294" t="n">
         <v>0.0</v>
@@ -27218,7 +27218,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>135-CO-ST-9·PVL-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -27242,7 +27242,7 @@
         <v>0.0</v>
       </c>
       <c r="H295" t="n">
-        <v>2.943E7</v>
+        <v>1.8018E7</v>
       </c>
       <c r="I295" t="n">
         <v>0.0</v>
@@ -27257,141 +27257,6 @@
         <v>0.0</v>
       </c>
       <c r="M295" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C296" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2.016E7</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L296" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M296" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>145-EC-TA-5·PRE-2·MD-100</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C297" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2.943E7</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L297" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M297" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>134-CO-TA-9·PVL-1·PQ-100</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C298" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H298" t="n">
-        <v>2.943E7</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L298" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M298" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -27484,10 +27349,10 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>4608640.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>52913.037949427366</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -27499,7 +27364,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>13035.110400000001</v>
+        <v>305340.62720000005</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27401,10 @@
         <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>9540000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>19080.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -27551,7 +27416,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>941206.8600000003</v>
       </c>
     </row>
     <row r="6">
@@ -27562,10 +27427,10 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>7420000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>14840.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -27577,7 +27442,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>936886.2999999995</v>
       </c>
     </row>
     <row r="7">
@@ -27588,10 +27453,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>3698400.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>74450.44209419956</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -27603,7 +27468,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>8031.0528</v>
+        <v>198644.02079999997</v>
       </c>
     </row>
     <row r="8">
@@ -27646,13 +27511,13 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>8596800.0</v>
+        <v>1431600.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9402.178073611292</v>
+        <v>1678.2930276224615</v>
       </c>
       <c r="G9" t="n">
-        <v>751680.0</v>
+        <v>471360.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -27672,13 +27537,13 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.98336E7</v>
+        <v>9476400.0</v>
       </c>
       <c r="F10" t="n">
-        <v>21883.21326773071</v>
+        <v>10641.416772558632</v>
       </c>
       <c r="G10" t="n">
-        <v>548160.0</v>
+        <v>320640.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
@@ -27733,7 +27598,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>9490.867199999999</v>
+        <v>25275.064799999996</v>
       </c>
     </row>
     <row r="13">
@@ -27759,7 +27624,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2979.3599999999997</v>
+        <v>78818.08000000002</v>
       </c>
     </row>
     <row r="14">
@@ -27785,7 +27650,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>79048.44000000002</v>
       </c>
     </row>
     <row r="15">
@@ -27837,7 +27702,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>17960.140800000005</v>
+        <v>39612.3712</v>
       </c>
     </row>
     <row r="17">
@@ -27915,7 +27780,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>22936.780800000004</v>
+        <v>16891.0848</v>
       </c>
     </row>
     <row r="20">
@@ -27967,7 +27832,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>42887.11320000001</v>
+        <v>8877.134399999997</v>
       </c>
     </row>
     <row r="22">
@@ -27993,7 +27858,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>13412.159999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -28019,7 +27884,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>11484.9792</v>
+        <v>9579.686399999999</v>
       </c>
     </row>
     <row r="24">
@@ -28062,13 +27927,13 @@
         <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.75856E7</v>
+        <v>2.01456E7</v>
       </c>
       <c r="F25" t="n">
-        <v>28416.200214191245</v>
+        <v>21274.721348492825</v>
       </c>
       <c r="G25" t="n">
-        <v>439680.0</v>
+        <v>442560.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -28088,13 +27953,13 @@
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.14976E7</v>
+        <v>2.60976E7</v>
       </c>
       <c r="F26" t="n">
-        <v>32262.033204935204</v>
+        <v>26987.904441051607</v>
       </c>
       <c r="G26" t="n">
-        <v>703920.0</v>
+        <v>664320.0</v>
       </c>
       <c r="H26" t="n">
         <v>0.0</v>
@@ -28149,7 +28014,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>12110.8608</v>
+        <v>10652.083200000001</v>
       </c>
     </row>
     <row r="29">
@@ -28175,7 +28040,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>47811.960000000014</v>
+        <v>29805.119999999988</v>
       </c>
     </row>
     <row r="30">
@@ -28201,7 +28066,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>53959.142400000004</v>
+        <v>41784.23040000001</v>
       </c>
     </row>
     <row r="31">
@@ -28253,7 +28118,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" t="n">
-        <v>24164.352000000003</v>
+        <v>20957.184</v>
       </c>
     </row>
     <row r="33">
@@ -28276,7 +28141,7 @@
         <v>0.0</v>
       </c>
       <c r="G33" t="n">
-        <v>306000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -28296,10 +28161,10 @@
         <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>2160000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n">
-        <v>983.7646246821474</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n">
         <v>0.0</v>
@@ -28331,7 +28196,7 @@
         <v>0.0</v>
       </c>
       <c r="H35" t="n">
-        <v>28071.936</v>
+        <v>24164.352000000003</v>
       </c>
     </row>
     <row r="36">
@@ -28383,7 +28248,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="n">
-        <v>61988.0928</v>
+        <v>55322.84279999999</v>
       </c>
     </row>
     <row r="38">
@@ -28409,7 +28274,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>57125.88000000002</v>
+        <v>49054.31999999998</v>
       </c>
     </row>
     <row r="39">
@@ -28435,7 +28300,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>13152.8448</v>
+        <v>11902.463999999998</v>
       </c>
     </row>
     <row r="40">
@@ -28478,13 +28343,13 @@
         <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.32256E7</v>
+        <v>3.07356E7</v>
       </c>
       <c r="F41" t="n">
-        <v>34737.87522598785</v>
+        <v>31525.48782362854</v>
       </c>
       <c r="G41" t="n">
-        <v>498240.0</v>
+        <v>759360.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -28504,13 +28369,13 @@
         <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.43584E7</v>
+        <v>3.39312E7</v>
       </c>
       <c r="F42" t="n">
-        <v>34849.02660602443</v>
+        <v>34423.917996768185</v>
       </c>
       <c r="G42" t="n">
-        <v>581520.0</v>
+        <v>483120.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
@@ -28565,7 +28430,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>13062.6432</v>
+        <v>13211.251199999999</v>
       </c>
     </row>
     <row r="45">
@@ -28591,7 +28456,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>80100.0</v>
+        <v>54766.43999999998</v>
       </c>
     </row>
     <row r="46">
@@ -28617,7 +28482,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>64304.06399999999</v>
+        <v>59656.52520000002</v>
       </c>
     </row>
     <row r="47">
@@ -28669,7 +28534,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>28300.492800000004</v>
+        <v>26722.7136</v>
       </c>
     </row>
     <row r="49">
@@ -28686,13 +28551,13 @@
         <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2880000.0</v>
+        <v>1440000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1311.6861662428626</v>
+        <v>655.8430831214312</v>
       </c>
       <c r="G49" t="n">
-        <v>198000.0</v>
+        <v>162000.0</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
@@ -28712,13 +28577,13 @@
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>3960000.0</v>
+        <v>2880000.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1803.5684785839394</v>
+        <v>1311.6861662428635</v>
       </c>
       <c r="G50" t="n">
-        <v>252000.0</v>
+        <v>144000.0</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
@@ -28747,7 +28612,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>29089.382400000006</v>
+        <v>28300.492800000004</v>
       </c>
     </row>
     <row r="52">
@@ -28799,7 +28664,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>67414.5864</v>
+        <v>65677.17839999999</v>
       </c>
     </row>
     <row r="54">
@@ -28825,7 +28690,7 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="n">
-        <v>79106.4</v>
+        <v>75629.51999999999</v>
       </c>
     </row>
     <row r="55">
@@ -28851,7 +28716,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="n">
-        <v>19098.201600000004</v>
+        <v>15173.568</v>
       </c>
     </row>
     <row r="56">
@@ -28894,13 +28759,13 @@
         <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3.39888E7</v>
+        <v>3.45264E7</v>
       </c>
       <c r="F57" t="n">
-        <v>33915.36085157802</v>
+        <v>34737.893818909855</v>
       </c>
       <c r="G57" t="n">
-        <v>1649760.0</v>
+        <v>542400.0</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
@@ -28920,13 +28785,13 @@
         <v>0.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3.62064E7</v>
+        <v>3.54288E7</v>
       </c>
       <c r="F58" t="n">
-        <v>34390.56833107</v>
+        <v>33545.84652526223</v>
       </c>
       <c r="G58" t="n">
-        <v>238320.0</v>
+        <v>662640.0</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
@@ -28981,7 +28846,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="n">
-        <v>21772.799999999996</v>
+        <v>18472.320000000003</v>
       </c>
     </row>
     <row r="61">
@@ -29007,7 +28872,7 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="n">
-        <v>80844.83999999997</v>
+        <v>81217.43999999997</v>
       </c>
     </row>
     <row r="62">
@@ -29033,7 +28898,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="n">
-        <v>69233.11319999999</v>
+        <v>66535.64399999999</v>
       </c>
     </row>
     <row r="63">
@@ -29085,7 +28950,7 @@
         <v>0.0</v>
       </c>
       <c r="H64" t="n">
-        <v>31087.41120000001</v>
+        <v>29369.548800000004</v>
       </c>
     </row>
     <row r="65">
@@ -29102,13 +28967,13 @@
         <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4680000.0</v>
+        <v>3960000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>2131.4900201446544</v>
+        <v>1803.5684785839392</v>
       </c>
       <c r="G65" t="n">
-        <v>306000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="H65" t="n">
         <v>0.0</v>
@@ -29128,13 +28993,13 @@
         <v>0.0</v>
       </c>
       <c r="E66" t="n">
-        <v>5400000.0</v>
+        <v>4320000.0</v>
       </c>
       <c r="F66" t="n">
-        <v>2459.4115617053717</v>
+        <v>1967.529249364297</v>
       </c>
       <c r="G66" t="n">
-        <v>180000.0</v>
+        <v>324000.0</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
@@ -29163,7 +29028,7 @@
         <v>0.0</v>
       </c>
       <c r="H67" t="n">
-        <v>31157.452800000006</v>
+        <v>31507.660800000012</v>
       </c>
     </row>
     <row r="68">
@@ -29215,7 +29080,7 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>71545.4832</v>
+        <v>71348.87520000001</v>
       </c>
     </row>
     <row r="70">
@@ -29241,7 +29106,7 @@
         <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>86060.87999999999</v>
+        <v>85316.03999999996</v>
       </c>
     </row>
     <row r="71">
@@ -29252,10 +29117,10 @@
         <v>9.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1668800.0</v>
+        <v>1150400.0</v>
       </c>
       <c r="D71" t="n">
-        <v>1668800.0000000002</v>
+        <v>1150400.0</v>
       </c>
       <c r="E71" t="n">
         <v>0.0</v>
@@ -29267,7 +29132,7 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>30507.873600000046</v>
+        <v>28456.56480000003</v>
       </c>
     </row>
     <row r="72">
@@ -29310,13 +29175,13 @@
         <v>0.0</v>
       </c>
       <c r="E73" t="n">
-        <v>3.19536E7</v>
+        <v>3.24816E7</v>
       </c>
       <c r="F73" t="n">
-        <v>36785.616557930334</v>
+        <v>36838.44454159621</v>
       </c>
       <c r="G73" t="n">
-        <v>1838880.0</v>
+        <v>1044000.0</v>
       </c>
       <c r="H73" t="n">
         <v>0.0</v>
@@ -29336,13 +29201,13 @@
         <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.29616E7</v>
+        <v>3.32976E7</v>
       </c>
       <c r="F74" t="n">
-        <v>38933.53703742222</v>
+        <v>38711.27146319341</v>
       </c>
       <c r="G74" t="n">
-        <v>637200.0</v>
+        <v>460560.0</v>
       </c>
       <c r="H74" t="n">
         <v>0.0</v>
@@ -29382,10 +29247,10 @@
         <v>10.0</v>
       </c>
       <c r="C76" t="n">
-        <v>918400.0</v>
+        <v>54400.0</v>
       </c>
       <c r="D76" t="n">
-        <v>918399.9999999999</v>
+        <v>54400.0</v>
       </c>
       <c r="E76" t="n">
         <v>0.0</v>
@@ -29397,7 +29262,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="n">
-        <v>23899.003200000036</v>
+        <v>20748.167999999998</v>
       </c>
     </row>
     <row r="77">
@@ -29423,7 +29288,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="n">
-        <v>84197.51999999999</v>
+        <v>78609.23999999998</v>
       </c>
     </row>
     <row r="78">
@@ -29449,7 +29314,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="n">
-        <v>67932.45119999998</v>
+        <v>66393.18719999999</v>
       </c>
     </row>
     <row r="79">
@@ -29501,7 +29366,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>32436.633600000016</v>
+        <v>30807.244800000008</v>
       </c>
     </row>
     <row r="81">
@@ -29518,10 +29383,10 @@
         <v>0.0</v>
       </c>
       <c r="E81" t="n">
-        <v>5760000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F81" t="n">
-        <v>2623.3723324857315</v>
+        <v>2459.4115617053744</v>
       </c>
       <c r="G81" t="n">
         <v>126000.0</v>
@@ -29544,13 +29409,13 @@
         <v>0.0</v>
       </c>
       <c r="E82" t="n">
-        <v>6120000.0</v>
+        <v>5760000.0</v>
       </c>
       <c r="F82" t="n">
-        <v>2787.3331032660876</v>
+        <v>2623.3723324857287</v>
       </c>
       <c r="G82" t="n">
-        <v>72000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H82" t="n">
         <v>0.0</v>
@@ -29579,7 +29444,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>31175.884800000007</v>
+        <v>30527.078400000006</v>
       </c>
     </row>
     <row r="84">
@@ -29631,7 +29496,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>68706.1968</v>
+        <v>70361.664</v>
       </c>
     </row>
     <row r="86">
@@ -29657,7 +29522,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="n">
-        <v>85812.12000000001</v>
+        <v>87675.12</v>
       </c>
     </row>
     <row r="87">
@@ -29683,7 +29548,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>19736.2144</v>
+        <v>14652.6112</v>
       </c>
     </row>
     <row r="88">
@@ -29726,13 +29591,13 @@
         <v>0.0</v>
       </c>
       <c r="E89" t="n">
-        <v>3.34656E7</v>
+        <v>3.39936E7</v>
       </c>
       <c r="F89" t="n">
-        <v>37574.781266641876</v>
+        <v>37627.609250307825</v>
       </c>
       <c r="G89" t="n">
-        <v>1158720.0</v>
+        <v>731520.0</v>
       </c>
       <c r="H89" t="n">
         <v>0.0</v>
@@ -29752,13 +29617,13 @@
         <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>3.21024E7</v>
+        <v>3.22704E7</v>
       </c>
       <c r="F90" t="n">
-        <v>35135.07380348393</v>
+        <v>35023.94101636957</v>
       </c>
       <c r="G90" t="n">
-        <v>3103440.0</v>
+        <v>2717040.0</v>
       </c>
       <c r="H90" t="n">
         <v>0.0</v>
@@ -29813,7 +29678,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="n">
-        <v>19131.033600000002</v>
+        <v>18952.3584</v>
       </c>
     </row>
     <row r="93">
@@ -29839,7 +29704,7 @@
         <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>82210.31999999999</v>
+        <v>83203.92</v>
       </c>
     </row>
     <row r="94">
@@ -29865,7 +29730,7 @@
         <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>67775.51519999998</v>
+        <v>67477.91519999999</v>
       </c>
     </row>
     <row r="95">
@@ -29917,7 +29782,7 @@
         <v>0.0</v>
       </c>
       <c r="H96" t="n">
-        <v>31175.884800000007</v>
+        <v>32226.50880000001</v>
       </c>
     </row>
     <row r="97">
@@ -29934,13 +29799,13 @@
         <v>0.0</v>
       </c>
       <c r="E97" t="n">
-        <v>6120000.0</v>
+        <v>5760000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>2787.33310326609</v>
+        <v>2623.372332485731</v>
       </c>
       <c r="G97" t="n">
-        <v>270000.0</v>
+        <v>234000.0</v>
       </c>
       <c r="H97" t="n">
         <v>0.0</v>
@@ -29991,10 +29856,10 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2949120.0</v>
+        <v>368640.0</v>
       </c>
       <c r="D2" t="n">
-        <v>25176.486502399992</v>
+        <v>3147.0608128</v>
       </c>
     </row>
     <row r="3">
@@ -30007,10 +29872,10 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3110400.0</v>
+        <v>518400.0</v>
       </c>
       <c r="D3" t="n">
-        <v>40129.48106999998</v>
+        <v>6688.246845</v>
       </c>
     </row>
     <row r="4">
@@ -30023,10 +29888,10 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4792320.0</v>
+        <v>2949120.0</v>
       </c>
       <c r="D4" t="n">
-        <v>40911.79056639999</v>
+        <v>25176.486502399992</v>
       </c>
     </row>
     <row r="5">
@@ -30039,10 +29904,10 @@
         <v>2.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4838400.0</v>
+        <v>2764800.0</v>
       </c>
       <c r="D5" t="n">
-        <v>62423.63721999996</v>
+        <v>35670.649839999984</v>
       </c>
     </row>
     <row r="6">
@@ -30055,10 +29920,10 @@
         <v>2.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1440000.0</v>
+        <v>360000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15551.51764624682</v>
+        <v>3887.879411561705</v>
       </c>
     </row>
     <row r="7">
@@ -30071,10 +29936,10 @@
         <v>3.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2664000.0</v>
+        <v>558000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>37606.99206505263</v>
+        <v>7877.140229842105</v>
       </c>
     </row>
     <row r="8">
@@ -30087,234 +29952,234 @@
         <v>3.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3052800.0</v>
+        <v>513600.0</v>
       </c>
       <c r="D8" t="n">
-        <v>53855.23031355791</v>
+        <v>9060.549754010526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1440000.0</v>
+        <v>4423680.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15551.51764624682</v>
+        <v>37764.7297536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3.0</v>
       </c>
       <c r="C10" t="n">
-        <v>6266880.0</v>
+        <v>4665600.0</v>
       </c>
       <c r="D10" t="n">
-        <v>53500.03381760001</v>
+        <v>60194.22160499996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" t="n">
-        <v>6220800.0</v>
+        <v>3624000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>80258.96213999999</v>
+        <v>51159.061277684224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>4.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3624000.0</v>
+        <v>2880000.0</v>
       </c>
       <c r="D12" t="n">
-        <v>51159.061277684224</v>
+        <v>31103.03529249364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>4.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5040000.0</v>
+        <v>2860800.0</v>
       </c>
       <c r="D13" t="n">
-        <v>54430.31176186387</v>
+        <v>50468.10891018949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>4.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4972800.0</v>
+        <v>5898240.0</v>
       </c>
       <c r="D14" t="n">
-        <v>87726.44434724214</v>
+        <v>50352.973004800006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>4.0</v>
       </c>
       <c r="C15" t="n">
-        <v>7004160.0</v>
+        <v>5875200.0</v>
       </c>
       <c r="D15" t="n">
-        <v>59794.15544320001</v>
+        <v>75800.13090999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" t="n">
-        <v>7084800.0</v>
+        <v>4680000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>91406.04021500002</v>
+        <v>50542.432350302166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5.0</v>
       </c>
       <c r="C17" t="n">
-        <v>6120000.0</v>
+        <v>1794000.0</v>
       </c>
       <c r="D17" t="n">
-        <v>66093.94999654898</v>
+        <v>25325.429341105268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>5.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1704000.0</v>
+        <v>4516800.0</v>
       </c>
       <c r="D18" t="n">
-        <v>24054.922852421056</v>
+        <v>79682.03101424214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>5.0</v>
       </c>
       <c r="C19" t="n">
-        <v>6124800.0</v>
+        <v>7004160.0</v>
       </c>
       <c r="D19" t="n">
-        <v>108049.17276745268</v>
+        <v>59794.15544320001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>5.0</v>
       </c>
       <c r="C20" t="n">
-        <v>8110080.0</v>
+        <v>6912000.0</v>
       </c>
       <c r="D20" t="n">
-        <v>69235.33788160002</v>
+        <v>89176.62460000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" t="n">
-        <v>7948800.0</v>
+        <v>2574000.0</v>
       </c>
       <c r="D21" t="n">
-        <v>102553.11829000004</v>
+        <v>36336.485576368425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>6.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2664000.0</v>
+        <v>5812800.0</v>
       </c>
       <c r="D22" t="n">
-        <v>37606.99206505264</v>
+        <v>102545.10048697899</v>
       </c>
     </row>
     <row r="23">
@@ -30327,442 +30192,442 @@
         <v>6.0</v>
       </c>
       <c r="C23" t="n">
-        <v>9000000.0</v>
+        <v>5760000.0</v>
       </c>
       <c r="D23" t="n">
-        <v>92124.01528904261</v>
+        <v>62206.07058498728</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>6.0</v>
       </c>
       <c r="C24" t="n">
-        <v>7084800.0</v>
+        <v>7741440.0</v>
       </c>
       <c r="D24" t="n">
-        <v>124984.77978429479</v>
+        <v>66088.27706880002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>6.0</v>
       </c>
       <c r="C25" t="n">
-        <v>8478720.0</v>
+        <v>7776000.0</v>
       </c>
       <c r="D25" t="n">
-        <v>72382.39869440002</v>
+        <v>100323.70267500004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8467200.0</v>
+        <v>3366000.0</v>
       </c>
       <c r="D26" t="n">
-        <v>109241.36513500006</v>
+        <v>47516.94267678948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>7.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3366000.0</v>
+        <v>7099200.0</v>
       </c>
       <c r="D27" t="n">
-        <v>47516.94267678948</v>
+        <v>125238.81388954743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>7867200.0</v>
+        <v>8280000.0</v>
       </c>
       <c r="D28" t="n">
-        <v>138787.2995030211</v>
+        <v>86039.24646591922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>7.0</v>
       </c>
       <c r="C29" t="n">
-        <v>9000000.0</v>
+        <v>8478720.0</v>
       </c>
       <c r="D29" t="n">
-        <v>90433.02528904265</v>
+        <v>72382.39869440002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>7.0</v>
       </c>
       <c r="C30" t="n">
-        <v>8847360.0</v>
+        <v>8467200.0</v>
       </c>
       <c r="D30" t="n">
-        <v>75529.45950720002</v>
+        <v>109241.36513500006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C31" t="n">
-        <v>8985600.0</v>
+        <v>9360000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>115929.61198000007</v>
+        <v>94320.90470060437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>8.0</v>
       </c>
       <c r="C32" t="n">
-        <v>9360000.0</v>
+        <v>1962000.0</v>
       </c>
       <c r="D32" t="n">
-        <v>91784.41970060435</v>
+        <v>27697.041453315793</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>8.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1962000.0</v>
+        <v>7838400.0</v>
       </c>
       <c r="D33" t="n">
-        <v>27697.041453315793</v>
+        <v>138279.23129251585</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>8.0</v>
       </c>
       <c r="C34" t="n">
-        <v>8606400.0</v>
+        <v>8847360.0</v>
       </c>
       <c r="D34" t="n">
-        <v>151827.71690598954</v>
+        <v>75529.45950720002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>8.0</v>
       </c>
       <c r="C35" t="n">
-        <v>9584640.0</v>
+        <v>8985600.0</v>
       </c>
       <c r="D35" t="n">
-        <v>81823.58113280003</v>
+        <v>115929.61198000007</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C36" t="n">
-        <v>9504000.0</v>
+        <v>2664000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>122617.85882500009</v>
+        <v>37606.99206505264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>9.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2664000.0</v>
+        <v>9360000.0</v>
       </c>
       <c r="D37" t="n">
-        <v>37606.99206505264</v>
+        <v>91784.41970060433</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>9.0</v>
       </c>
       <c r="C38" t="n">
-        <v>9720000.0</v>
+        <v>8428800.0</v>
       </c>
       <c r="D38" t="n">
-        <v>93981.30911216604</v>
+        <v>148694.62960787374</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>9.0</v>
       </c>
       <c r="C39" t="n">
-        <v>9004800.0</v>
+        <v>9584640.0</v>
       </c>
       <c r="D39" t="n">
-        <v>158855.993817979</v>
+        <v>81823.58113280003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>9.0</v>
       </c>
       <c r="C40" t="n">
-        <v>9584640.0</v>
+        <v>9331200.0</v>
       </c>
       <c r="D40" t="n">
-        <v>81823.58113280003</v>
+        <v>120388.44321000008</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C41" t="n">
-        <v>9504000.0</v>
+        <v>3060000.0</v>
       </c>
       <c r="D41" t="n">
-        <v>122617.85882500009</v>
+        <v>43197.22061526317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>10.0</v>
       </c>
       <c r="C42" t="n">
-        <v>2904000.0</v>
+        <v>9360000.0</v>
       </c>
       <c r="D42" t="n">
-        <v>40995.009368210536</v>
+        <v>90938.92470060439</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>10.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.008E7</v>
+        <v>9584640.0</v>
       </c>
       <c r="D43" t="n">
-        <v>96178.1985237278</v>
+        <v>81823.58113280003</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>10.0</v>
       </c>
       <c r="C44" t="n">
-        <v>9953280.0</v>
+        <v>8880000.0</v>
       </c>
       <c r="D44" t="n">
-        <v>84970.64194560003</v>
+        <v>156654.36490578952</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>10.0</v>
       </c>
       <c r="C45" t="n">
-        <v>9388800.0</v>
+        <v>9504000.0</v>
       </c>
       <c r="D45" t="n">
-        <v>165630.23662471585</v>
+        <v>122617.85882500009</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C46" t="n">
-        <v>9849600.0</v>
+        <v>2268000.0</v>
       </c>
       <c r="D46" t="n">
-        <v>127076.6900550001</v>
+        <v>32016.76351484211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>11.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2424000.0</v>
+        <v>1.008E7</v>
       </c>
       <c r="D47" t="n">
-        <v>34218.974761894744</v>
+        <v>96178.19852372774</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>11.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.008E7</v>
+        <v>9321600.0</v>
       </c>
       <c r="D48" t="n">
-        <v>95332.70352372775</v>
+        <v>164444.7441335369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>11.0</v>
       </c>
       <c r="C49" t="n">
-        <v>9580800.0</v>
+        <v>9584640.0</v>
       </c>
       <c r="D49" t="n">
-        <v>169017.35802808427</v>
+        <v>81823.58113280003</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
+          <t>091-CH-TA-5·PRE-5·XX-96</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>11.0</v>
       </c>
       <c r="C50" t="n">
-        <v>9953280.0</v>
+        <v>8985600.0</v>
       </c>
       <c r="D50" t="n">
-        <v>84970.64194560003</v>
+        <v>115929.61198000007</v>
       </c>
     </row>
     <row r="51">
@@ -30772,92 +30637,76 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C51" t="n">
-        <v>9158400.0</v>
+        <v>9849600.0</v>
       </c>
       <c r="D51" t="n">
-        <v>118159.02759500008</v>
+        <v>127076.6900550001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>091-CH-TA-5·PRE-5·XX-96</t>
+          <t>144-EC-TA-5·PRE-2·MD-100</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>12.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.00224E7</v>
+        <v>3624000.0</v>
       </c>
       <c r="D52" t="n">
-        <v>129306.1056700001</v>
+        <v>51159.061277684224</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>144-EC-TA-5·PRE-2·MD-100</t>
+          <t>121-CO-ST-4·ULP-2·MD-100</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>12.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3672000.0</v>
+        <v>1.008E7</v>
       </c>
       <c r="D53" t="n">
-        <v>51836.664738315805</v>
+        <v>95332.7035237278</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>121-CO-ST-4·ULP-2·MD-100</t>
+          <t>160-EC-TA-3·ULT-2·MD-100</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>12.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1.008E7</v>
+        <v>9580800.0</v>
       </c>
       <c r="D54" t="n">
-        <v>94487.20852372781</v>
+        <v>169017.35802808427</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>160-EC-TA-3·ULT-2·MD-100</t>
+          <t>555-UY-TA-5·PRE-4·XG-96</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>12.0</v>
       </c>
       <c r="C55" t="n">
-        <v>9926400.0</v>
+        <v>9953280.0</v>
       </c>
       <c r="D55" t="n">
-        <v>175114.17655414745</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>555-UY-TA-5·PRE-4·XG-96</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>9953280.0</v>
-      </c>
-      <c r="D56" t="n">
         <v>84970.64194560003</v>
       </c>
     </row>
